--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.8000000000000007</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>24.99999999999989</v>
+      </c>
       <c r="L12" t="n">
         <v>11.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.8000000000000007</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>24.99999999999989</v>
+      </c>
       <c r="L13" t="n">
         <v>11.12</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.8000000000000007</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>24.99999999999989</v>
+      </c>
       <c r="L14" t="n">
         <v>11.14</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.000000000000002</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>11.18</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.200000000000003</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>19.99999999999986</v>
+      </c>
       <c r="L16" t="n">
         <v>11.19</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.300000000000004</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
       <c r="L17" t="n">
         <v>11.22</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.300000000000004</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>11.1111111111112</v>
+      </c>
       <c r="L18" t="n">
         <v>11.24</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.300000000000004</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>11.25</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.500000000000005</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>11.23</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.700000000000006</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>11.1111111111112</v>
+      </c>
       <c r="L21" t="n">
         <v>11.25</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.800000000000008</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>11.25</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.800000000000008</v>
       </c>
       <c r="K23" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>11.25</v>
@@ -1466,7 +1488,7 @@
         <v>1.800000000000008</v>
       </c>
       <c r="K24" t="n">
-        <v>11.11111111111102</v>
+        <v>-24.99999999999994</v>
       </c>
       <c r="L24" t="n">
         <v>11.25</v>
@@ -1515,7 +1537,7 @@
         <v>1.800000000000008</v>
       </c>
       <c r="K25" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>11.23</v>
@@ -1564,7 +1586,7 @@
         <v>1.800000000000008</v>
       </c>
       <c r="K26" t="n">
-        <v>5.882352941176421</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L26" t="n">
         <v>11.23</v>
@@ -1613,7 +1635,7 @@
         <v>1.800000000000008</v>
       </c>
       <c r="K27" t="n">
-        <v>12.49999999999989</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L27" t="n">
         <v>11.22</v>
@@ -1662,7 +1684,7 @@
         <v>1.900000000000009</v>
       </c>
       <c r="K28" t="n">
-        <v>12.49999999999999</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>11.22</v>
@@ -1711,7 +1733,7 @@
         <v>2.000000000000011</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L29" t="n">
         <v>11.21</v>
@@ -1760,7 +1782,7 @@
         <v>2.000000000000011</v>
       </c>
       <c r="K30" t="n">
-        <v>-6.666666666666714</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>11.22</v>
@@ -1809,7 +1831,7 @@
         <v>2.000000000000011</v>
       </c>
       <c r="K31" t="n">
-        <v>7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>11.21</v>
@@ -1860,7 +1882,7 @@
         <v>2.100000000000012</v>
       </c>
       <c r="K32" t="n">
-        <v>7.692307692307734</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>11.22</v>
@@ -1911,7 +1933,7 @@
         <v>2.100000000000012</v>
       </c>
       <c r="K33" t="n">
-        <v>7.692307692307734</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>11.23</v>
@@ -1962,7 +1984,7 @@
         <v>2.300000000000013</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.666666666666588</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L34" t="n">
         <v>11.22</v>
@@ -2013,7 +2035,7 @@
         <v>2.300000000000013</v>
       </c>
       <c r="K35" t="n">
-        <v>-23.07692307692293</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L35" t="n">
         <v>11.21</v>
@@ -2064,7 +2086,7 @@
         <v>2.500000000000014</v>
       </c>
       <c r="K36" t="n">
-        <v>7.692307692307734</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L36" t="n">
         <v>11.22</v>
@@ -2166,7 +2188,7 @@
         <v>2.600000000000016</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.692307692307734</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>11.22</v>
@@ -2217,7 +2239,7 @@
         <v>2.600000000000016</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.692307692307734</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>11.22</v>
@@ -2268,7 +2290,7 @@
         <v>2.600000000000016</v>
       </c>
       <c r="K40" t="n">
-        <v>9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>11.22</v>
@@ -2319,7 +2341,7 @@
         <v>2.600000000000016</v>
       </c>
       <c r="K41" t="n">
-        <v>-11.11111111111116</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L41" t="n">
         <v>11.22</v>
@@ -2370,7 +2392,7 @@
         <v>2.700000000000015</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.11111111111098</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>11.2</v>
@@ -2421,7 +2443,7 @@
         <v>2.700000000000015</v>
       </c>
       <c r="K43" t="n">
-        <v>-11.11111111111098</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>11.18</v>
@@ -2472,7 +2494,7 @@
         <v>2.700000000000015</v>
       </c>
       <c r="K44" t="n">
-        <v>-11.11111111111098</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>11.18</v>
@@ -2523,7 +2545,7 @@
         <v>2.800000000000015</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L45" t="n">
         <v>11.19</v>
@@ -2574,7 +2596,7 @@
         <v>2.800000000000015</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L46" t="n">
         <v>11.18</v>
@@ -2625,7 +2647,7 @@
         <v>2.900000000000015</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.090909090909003</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>11.16</v>
@@ -2676,7 +2698,7 @@
         <v>2.900000000000015</v>
       </c>
       <c r="K48" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>11.15</v>
@@ -2727,7 +2749,7 @@
         <v>2.900000000000015</v>
       </c>
       <c r="K49" t="n">
-        <v>-11.11111111111102</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>11.14</v>
@@ -2778,7 +2800,7 @@
         <v>3.000000000000014</v>
       </c>
       <c r="K50" t="n">
-        <v>-19.99999999999986</v>
+        <v>-50</v>
       </c>
       <c r="L50" t="n">
         <v>11.12</v>
@@ -2829,7 +2851,7 @@
         <v>3.100000000000014</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>11.11</v>
@@ -2982,7 +3004,7 @@
         <v>3.500000000000012</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>11.07</v>
@@ -3033,7 +3055,7 @@
         <v>3.700000000000012</v>
       </c>
       <c r="K55" t="n">
-        <v>-14.28571428571425</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>11.04</v>
@@ -3084,7 +3106,7 @@
         <v>3.900000000000011</v>
       </c>
       <c r="K56" t="n">
-        <v>-14.28571428571439</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>11.03</v>
@@ -3135,7 +3157,7 @@
         <v>3.900000000000011</v>
       </c>
       <c r="K57" t="n">
-        <v>-14.28571428571439</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>11.03</v>
@@ -3186,7 +3208,7 @@
         <v>4.000000000000011</v>
       </c>
       <c r="K58" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L58" t="n">
         <v>11.02</v>
@@ -3237,7 +3259,7 @@
         <v>4.10000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>-6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L59" t="n">
         <v>11.02</v>
@@ -3288,7 +3310,7 @@
         <v>4.20000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>-12.5</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L60" t="n">
         <v>11.02</v>
@@ -3339,7 +3361,7 @@
         <v>4.30000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>11</v>
@@ -3390,7 +3412,7 @@
         <v>4.500000000000009</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L62" t="n">
         <v>11.02</v>
@@ -3441,7 +3463,7 @@
         <v>4.800000000000008</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L63" t="n">
         <v>11.01</v>
@@ -3492,7 +3514,7 @@
         <v>5.000000000000007</v>
       </c>
       <c r="K64" t="n">
-        <v>-4.347826086956522</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L64" t="n">
         <v>11</v>
@@ -3594,7 +3616,7 @@
         <v>5.200000000000006</v>
       </c>
       <c r="K66" t="n">
-        <v>-16.66666666666666</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L66" t="n">
         <v>10.98</v>
@@ -3645,7 +3667,7 @@
         <v>5.200000000000006</v>
       </c>
       <c r="K67" t="n">
-        <v>-13.04347826086956</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L67" t="n">
         <v>10.95</v>
@@ -3696,7 +3718,7 @@
         <v>5.400000000000006</v>
       </c>
       <c r="K68" t="n">
-        <v>-4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L68" t="n">
         <v>10.95</v>
@@ -3849,7 +3871,7 @@
         <v>5.700000000000005</v>
       </c>
       <c r="K71" t="n">
-        <v>-7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L71" t="n">
         <v>10.91</v>
@@ -3900,7 +3922,7 @@
         <v>5.800000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>10.88</v>
@@ -3951,7 +3973,7 @@
         <v>5.900000000000004</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L73" t="n">
         <v>10.89</v>
@@ -4002,7 +4024,7 @@
         <v>5.900000000000004</v>
       </c>
       <c r="K74" t="n">
-        <v>-8.333333333333332</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L74" t="n">
         <v>10.88</v>
@@ -4053,7 +4075,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>10.86</v>
@@ -4104,7 +4126,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K76" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>10.86</v>
@@ -4155,7 +4177,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K77" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>10.86</v>
@@ -4206,7 +4228,7 @@
         <v>6.100000000000003</v>
       </c>
       <c r="K78" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>10.85</v>
@@ -4257,7 +4279,7 @@
         <v>6.100000000000003</v>
       </c>
       <c r="K79" t="n">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="L79" t="n">
         <v>10.85</v>
@@ -4308,7 +4330,7 @@
         <v>6.100000000000003</v>
       </c>
       <c r="K80" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>10.86</v>
@@ -4359,7 +4381,7 @@
         <v>6.100000000000003</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>10.86</v>
@@ -4410,7 +4432,7 @@
         <v>6.100000000000003</v>
       </c>
       <c r="K82" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>10.87</v>
@@ -4461,7 +4483,7 @@
         <v>6.200000000000003</v>
       </c>
       <c r="K83" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>10.88</v>
@@ -4512,7 +4534,7 @@
         <v>6.200000000000003</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
         <v>10.89</v>
@@ -4563,7 +4585,7 @@
         <v>6.200000000000003</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
         <v>10.91</v>
@@ -4614,7 +4636,7 @@
         <v>6.200000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
         <v>10.93</v>
@@ -4665,7 +4687,7 @@
         <v>6.400000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>10.93</v>
@@ -4716,7 +4738,7 @@
         <v>6.600000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L88" t="n">
         <v>10.94</v>
@@ -4767,7 +4789,7 @@
         <v>6.800000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>10.93</v>
@@ -4818,7 +4840,7 @@
         <v>6.9</v>
       </c>
       <c r="K90" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>10.93</v>
@@ -4869,7 +4891,7 @@
         <v>7.100000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-14.28571428571439</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L91" t="n">
         <v>10.91</v>
@@ -4920,7 +4942,7 @@
         <v>7.100000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>-7.692307692307819</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L92" t="n">
         <v>10.89</v>
@@ -4971,7 +4993,7 @@
         <v>7.200000000000003</v>
       </c>
       <c r="K93" t="n">
-        <v>-7.692307692307672</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L93" t="n">
         <v>10.87</v>
@@ -5022,7 +5044,7 @@
         <v>7.300000000000002</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L94" t="n">
         <v>10.86</v>
@@ -5073,7 +5095,7 @@
         <v>7.300000000000002</v>
       </c>
       <c r="K95" t="n">
-        <v>7.692307692307672</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L95" t="n">
         <v>10.85</v>
@@ -5124,7 +5146,7 @@
         <v>7.300000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>7.692307692307672</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L96" t="n">
         <v>10.84</v>
@@ -5175,7 +5197,7 @@
         <v>7.300000000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>7.692307692307672</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L97" t="n">
         <v>10.85</v>
@@ -5226,7 +5248,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>-7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>10.83</v>
@@ -5277,7 +5299,7 @@
         <v>7.500000000000004</v>
       </c>
       <c r="K99" t="n">
-        <v>-14.28571428571436</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>10.82</v>
@@ -5328,7 +5350,7 @@
         <v>7.700000000000005</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>10.82</v>
@@ -5379,7 +5401,7 @@
         <v>7.700000000000005</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>10.84</v>
@@ -5430,7 +5452,7 @@
         <v>7.700000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L102" t="n">
         <v>10.86</v>
@@ -5481,7 +5503,7 @@
         <v>7.700000000000005</v>
       </c>
       <c r="K103" t="n">
-        <v>-6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>10.87</v>
@@ -5532,7 +5554,7 @@
         <v>7.800000000000004</v>
       </c>
       <c r="K104" t="n">
-        <v>-12.49999999999994</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L104" t="n">
         <v>10.86</v>
@@ -5583,7 +5605,7 @@
         <v>7.900000000000006</v>
       </c>
       <c r="K105" t="n">
-        <v>-17.64705882352942</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>10.84</v>
@@ -5634,7 +5656,7 @@
         <v>8.100000000000007</v>
       </c>
       <c r="K106" t="n">
-        <v>-5.263157894736812</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>10.84</v>
@@ -5685,7 +5707,7 @@
         <v>8.300000000000008</v>
       </c>
       <c r="K107" t="n">
-        <v>-5.263157894736901</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L107" t="n">
         <v>10.82</v>
@@ -5736,7 +5758,7 @@
         <v>8.500000000000009</v>
       </c>
       <c r="K108" t="n">
-        <v>-5.263157894736803</v>
+        <v>20</v>
       </c>
       <c r="L108" t="n">
         <v>10.83</v>
@@ -5787,7 +5809,7 @@
         <v>8.500000000000009</v>
       </c>
       <c r="K109" t="n">
-        <v>5.882352941176421</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>10.85</v>
@@ -5838,7 +5860,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L110" t="n">
         <v>10.83</v>
@@ -5889,7 +5911,7 @@
         <v>8.900000000000011</v>
       </c>
       <c r="K111" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>10.83</v>
@@ -5940,7 +5962,7 @@
         <v>8.900000000000011</v>
       </c>
       <c r="K112" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>10.83</v>
@@ -6042,7 +6064,7 @@
         <v>9.10000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>16.66666666666669</v>
       </c>
       <c r="L114" t="n">
         <v>10.83</v>
@@ -6144,7 +6166,7 @@
         <v>9.10000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L116" t="n">
         <v>10.85</v>
@@ -6195,7 +6217,7 @@
         <v>9.30000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>9.999999999999929</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L117" t="n">
         <v>10.89</v>
@@ -6246,7 +6268,7 @@
         <v>9.400000000000009</v>
       </c>
       <c r="K118" t="n">
-        <v>9.999999999999929</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L118" t="n">
         <v>10.9</v>
@@ -6297,7 +6319,7 @@
         <v>9.400000000000009</v>
       </c>
       <c r="K119" t="n">
-        <v>15.78947368421052</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L119" t="n">
         <v>10.91</v>
@@ -6348,7 +6370,7 @@
         <v>9.400000000000009</v>
       </c>
       <c r="K120" t="n">
-        <v>5.882352941176434</v>
+        <v>20</v>
       </c>
       <c r="L120" t="n">
         <v>10.94</v>
@@ -6399,7 +6421,7 @@
         <v>9.400000000000009</v>
       </c>
       <c r="K121" t="n">
-        <v>5.882352941176434</v>
+        <v>20</v>
       </c>
       <c r="L121" t="n">
         <v>10.95</v>
@@ -6450,7 +6472,7 @@
         <v>9.400000000000009</v>
       </c>
       <c r="K122" t="n">
-        <v>5.882352941176434</v>
+        <v>50</v>
       </c>
       <c r="L122" t="n">
         <v>10.96</v>
@@ -6501,7 +6523,7 @@
         <v>9.500000000000009</v>
       </c>
       <c r="K123" t="n">
-        <v>11.11111111111104</v>
+        <v>50</v>
       </c>
       <c r="L123" t="n">
         <v>10.99</v>
@@ -6552,7 +6574,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K124" t="n">
-        <v>11.11111111111104</v>
+        <v>20</v>
       </c>
       <c r="L124" t="n">
         <v>11</v>
@@ -6603,7 +6625,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K125" t="n">
-        <v>17.64705882352942</v>
+        <v>20</v>
       </c>
       <c r="L125" t="n">
         <v>11.01</v>
@@ -6654,7 +6676,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K126" t="n">
-        <v>6.666666666666635</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>11.02</v>
@@ -6705,7 +6727,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K127" t="n">
-        <v>23.07692307692312</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>11.01</v>
@@ -6756,7 +6778,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K128" t="n">
-        <v>9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>11.01</v>
@@ -6807,7 +6829,7 @@
         <v>9.800000000000008</v>
       </c>
       <c r="K129" t="n">
-        <v>-7.692307692307672</v>
+        <v>-50</v>
       </c>
       <c r="L129" t="n">
         <v>10.99</v>
@@ -6858,7 +6880,7 @@
         <v>9.800000000000008</v>
       </c>
       <c r="K130" t="n">
-        <v>9.090909090909239</v>
+        <v>-50</v>
       </c>
       <c r="L130" t="n">
         <v>10.97</v>
@@ -6909,7 +6931,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>10.97</v>
@@ -6960,7 +6982,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L132" t="n">
         <v>10.97</v>
@@ -7011,7 +7033,7 @@
         <v>10.10000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L133" t="n">
         <v>10.97</v>
@@ -7113,7 +7135,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>11</v>
@@ -7164,7 +7186,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>11.02</v>
@@ -7215,7 +7237,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>11.02</v>
@@ -7266,7 +7288,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>11.02</v>
@@ -7317,7 +7339,7 @@
         <v>10.6</v>
       </c>
       <c r="K139" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L139" t="n">
         <v>11.06</v>
@@ -7368,7 +7390,7 @@
         <v>10.6</v>
       </c>
       <c r="K140" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>11.1</v>
@@ -7419,7 +7441,7 @@
         <v>10.6</v>
       </c>
       <c r="K141" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>11.12</v>
@@ -7470,7 +7492,7 @@
         <v>10.8</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>11.12</v>
@@ -7572,7 +7594,7 @@
         <v>10.9</v>
       </c>
       <c r="K144" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L144" t="n">
         <v>11.12</v>

--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S144"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +486,19 @@
         <v>10.84500000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +530,16 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +571,16 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>11</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +610,18 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +653,16 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +692,18 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +733,18 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +774,18 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +815,18 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +856,18 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.8000000000000007</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L12" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +897,18 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.8000000000000007</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +938,18 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L14" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +979,18 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.000000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1020,18 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.200000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L16" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>11</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1061,18 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>20</v>
-      </c>
-      <c r="L17" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>11</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1102,18 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>11.1111111111112</v>
-      </c>
-      <c r="L18" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>11</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1143,18 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>11</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1184,18 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.500000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>11</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1225,18 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.700000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>11.1111111111112</v>
-      </c>
-      <c r="L21" t="n">
-        <v>11.25</v>
+        <v>11</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>11.165</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1266,18 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>11.25</v>
+        <v>11</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>11.175</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1307,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>11.25</v>
+        <v>11</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>11.185</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1348,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>-24.99999999999994</v>
-      </c>
-      <c r="L24" t="n">
-        <v>11.25</v>
+        <v>11</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>11.195</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1389,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>11.23</v>
+        <v>11</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>11.205</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1430,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L26" t="n">
-        <v>11.23</v>
+        <v>11</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1471,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L27" t="n">
-        <v>11.22</v>
+        <v>11</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1512,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.900000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>11.22</v>
+        <v>11</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1553,18 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L29" t="n">
-        <v>11.21</v>
+        <v>11</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1594,18 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L30" t="n">
-        <v>11.22</v>
+        <v>11</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>11.225</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1635,18 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>11.21</v>
+        <v>11</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="N31" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1676,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L32" t="n">
-        <v>11.22</v>
+        <v>11</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>11.235</v>
-      </c>
-      <c r="N32" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1717,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L33" t="n">
-        <v>11.23</v>
+        <v>11</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="N33" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1758,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.300000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>-19.99999999999972</v>
-      </c>
-      <c r="L34" t="n">
-        <v>11.22</v>
+        <v>11</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>11.235</v>
-      </c>
-      <c r="N34" t="n">
-        <v>11.20333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1799,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.300000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>-19.99999999999972</v>
-      </c>
-      <c r="L35" t="n">
-        <v>11.21</v>
+        <v>11</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="N35" t="n">
-        <v>11.20666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1840,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.500000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>14.28571428571436</v>
-      </c>
-      <c r="L36" t="n">
-        <v>11.22</v>
+        <v>11</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>11.225</v>
-      </c>
-      <c r="N36" t="n">
-        <v>11.21333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1881,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.500000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>11.23</v>
+        <v>11</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>11.225</v>
-      </c>
-      <c r="N37" t="n">
-        <v>11.22333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1922,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.600000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>11.22</v>
+        <v>11</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="N38" t="n">
-        <v>11.22666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1963,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.600000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>11.22</v>
+        <v>11</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>11.215</v>
-      </c>
-      <c r="N39" t="n">
-        <v>11.22666666666666</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +2004,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.600000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>11.22</v>
+        <v>11</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="N40" t="n">
-        <v>11.22333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2045,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.600000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L41" t="n">
-        <v>11.22</v>
+        <v>11</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>11.215</v>
-      </c>
-      <c r="N41" t="n">
-        <v>11.22666666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2086,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.700000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>11.2</v>
+        <v>11</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="N42" t="n">
-        <v>11.22333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2127,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.700000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>11.18</v>
+        <v>11</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>11.205</v>
-      </c>
-      <c r="N43" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2168,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.700000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>11.18</v>
+        <v>11</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="N44" t="n">
-        <v>11.21666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2209,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.800000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L45" t="n">
-        <v>11.19</v>
+        <v>11</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2250,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.800000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L46" t="n">
-        <v>11.18</v>
+        <v>11</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="N46" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2291,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.900000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L47" t="n">
-        <v>11.16</v>
+        <v>11</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>11.195</v>
-      </c>
-      <c r="N47" t="n">
-        <v>11.20333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2332,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.900000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L48" t="n">
-        <v>11.15</v>
+        <v>11</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>11.185</v>
-      </c>
-      <c r="N48" t="n">
-        <v>11.19666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2373,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.900000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L49" t="n">
-        <v>11.14</v>
+        <v>11</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="N49" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,26 +2416,16 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>3.000000000000014</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L50" t="n">
-        <v>11.12</v>
+        <v>11</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="N50" t="n">
-        <v>11.18666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2455,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.100000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>11.11</v>
+        <v>11</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>11.165</v>
-      </c>
-      <c r="N51" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2496,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.300000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L52" t="n">
-        <v>11.09</v>
+        <v>11</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>11.145</v>
-      </c>
-      <c r="N52" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2537,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.300000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L53" t="n">
-        <v>11.07</v>
+        <v>11</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>11.125</v>
-      </c>
-      <c r="N53" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2578,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.500000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L54" t="n">
-        <v>11.07</v>
+        <v>11</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>11.125</v>
-      </c>
-      <c r="N54" t="n">
-        <v>11.15666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2619,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.700000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L55" t="n">
-        <v>11.04</v>
+        <v>11</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>11.115</v>
-      </c>
-      <c r="N55" t="n">
-        <v>11.14666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2660,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.900000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>11.03</v>
+        <v>11</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>11.105</v>
-      </c>
-      <c r="N56" t="n">
-        <v>11.14333333333334</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2701,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.900000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>11.03</v>
+        <v>11</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>11.095</v>
-      </c>
-      <c r="N57" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,26 +2744,16 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>4.000000000000011</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L58" t="n">
-        <v>11.02</v>
+        <v>11</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>11.085</v>
-      </c>
-      <c r="N58" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2783,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4.10000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L59" t="n">
-        <v>11.02</v>
+        <v>11</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="N59" t="n">
-        <v>11.12666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,26 +2826,16 @@
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>4.20000000000001</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L60" t="n">
-        <v>11.02</v>
+        <v>11</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="N60" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2865,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>11.055</v>
-      </c>
-      <c r="N61" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2906,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4.500000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L62" t="n">
-        <v>11.02</v>
+        <v>11</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>11.055</v>
-      </c>
-      <c r="N62" t="n">
-        <v>11.10333333333334</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2947,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4.800000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L63" t="n">
-        <v>11.01</v>
+        <v>11</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="N63" t="n">
-        <v>11.08666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,26 +2990,16 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>5.000000000000007</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L64" t="n">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>11.035</v>
-      </c>
-      <c r="N64" t="n">
-        <v>11.08333333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3561,26 +3031,16 @@
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>5.000000000000007</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L65" t="n">
-        <v>11.01</v>
+        <v>11</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>11.025</v>
-      </c>
-      <c r="N65" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3070,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.200000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L66" t="n">
-        <v>10.98</v>
+        <v>11</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>11.005</v>
-      </c>
-      <c r="N66" t="n">
-        <v>11.06333333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3111,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5.200000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L67" t="n">
-        <v>10.95</v>
+        <v>11</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="N67" t="n">
-        <v>11.04666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,26 +3154,16 @@
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>5.400000000000006</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L68" t="n">
-        <v>10.95</v>
+        <v>11</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>10.985</v>
-      </c>
-      <c r="N68" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3193,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5.500000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L69" t="n">
-        <v>10.93</v>
+        <v>11</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>10.975</v>
-      </c>
-      <c r="N69" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3234,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.600000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L70" t="n">
-        <v>10.91</v>
+        <v>11</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>10.965</v>
-      </c>
-      <c r="N70" t="n">
-        <v>11.01666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3275,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.700000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L71" t="n">
-        <v>10.91</v>
+        <v>11</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>10.955</v>
-      </c>
-      <c r="N71" t="n">
-        <v>11.00666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3316,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5.800000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>10.88</v>
+        <v>11</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="N72" t="n">
-        <v>10.99666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3357,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5.900000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L73" t="n">
-        <v>10.89</v>
+        <v>11</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="N73" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3398,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5.900000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L74" t="n">
-        <v>10.88</v>
+        <v>11</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="N74" t="n">
-        <v>10.98333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3439,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J75" t="n">
-        <v>6.000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>10.86</v>
+        <v>11</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>10.93500000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3480,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J76" t="n">
-        <v>6.000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>10.86</v>
+        <v>11</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>10.92000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>10.95666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3521,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J77" t="n">
-        <v>6.000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L77" t="n">
-        <v>10.86</v>
+        <v>11</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>10.90500000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>10.94666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3562,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J78" t="n">
-        <v>6.100000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>10.85</v>
+        <v>11</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>10.90000000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3600,23 @@
         <v>11.06166666666669</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>6.100000000000003</v>
+        <v>10.9</v>
       </c>
       <c r="K79" t="n">
-        <v>20</v>
-      </c>
-      <c r="L79" t="n">
-        <v>10.85</v>
+        <v>11</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>10.89000000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>10.93333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3646,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J80" t="n">
-        <v>6.100000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>10.86</v>
+        <v>11</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>10.88500000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3687,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J81" t="n">
-        <v>6.100000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L81" t="n">
-        <v>10.86</v>
+        <v>11</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>10.88500000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>10.92333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3728,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J82" t="n">
-        <v>6.100000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>10.87</v>
+        <v>11</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>10.87500000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>10.92333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4479,26 +3771,16 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>6.200000000000003</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L83" t="n">
-        <v>10.88</v>
+        <v>11</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>10.88500000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>10.92666666666666</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,26 +3812,16 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>6.200000000000003</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>100</v>
-      </c>
-      <c r="L84" t="n">
-        <v>10.89</v>
+        <v>11</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>10.88500000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>10.92333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4581,26 +3853,16 @@
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>6.200000000000003</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>100</v>
-      </c>
-      <c r="L85" t="n">
-        <v>10.91</v>
+        <v>11</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>10.88500000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>10.92666666666666</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,26 +3894,16 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>6.200000000000003</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>100</v>
-      </c>
-      <c r="L86" t="n">
-        <v>10.93</v>
+        <v>11</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>10.89500000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>10.92333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3933,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J87" t="n">
-        <v>6.400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L87" t="n">
-        <v>10.93</v>
+        <v>11</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>10.89500000000001</v>
-      </c>
-      <c r="N87" t="n">
-        <v>10.91333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,26 +3976,16 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>6.600000000000001</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>20</v>
-      </c>
-      <c r="L88" t="n">
-        <v>10.94</v>
+        <v>11</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>10.89500000000001</v>
-      </c>
-      <c r="N88" t="n">
-        <v>10.91333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +4015,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6.800000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L89" t="n">
-        <v>10.93</v>
+        <v>11</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>10.89000000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>10.90333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +4056,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>10.93</v>
+        <v>11</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>10.89500000000001</v>
-      </c>
-      <c r="N90" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4097,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J91" t="n">
-        <v>7.100000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L91" t="n">
-        <v>10.91</v>
+        <v>11</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>10.88500000000001</v>
-      </c>
-      <c r="N91" t="n">
-        <v>10.89333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4138,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J92" t="n">
-        <v>7.100000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>-33.33333333333346</v>
-      </c>
-      <c r="L92" t="n">
-        <v>10.89</v>
+        <v>11</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>10.88000000000001</v>
-      </c>
-      <c r="N92" t="n">
-        <v>10.87999999999999</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +4176,23 @@
         <v>10.98333333333335</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>7.200000000000003</v>
+        <v>10.8</v>
       </c>
       <c r="K93" t="n">
-        <v>-19.99999999999993</v>
-      </c>
-      <c r="L93" t="n">
-        <v>10.87</v>
+        <v>11</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>10.87500000000001</v>
-      </c>
-      <c r="N93" t="n">
-        <v>10.87999999999999</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +4219,23 @@
         <v>10.98000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>7.300000000000002</v>
+        <v>10.8</v>
       </c>
       <c r="K94" t="n">
-        <v>-9.090909090909062</v>
-      </c>
-      <c r="L94" t="n">
-        <v>10.86</v>
+        <v>11</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>10.87500000000001</v>
-      </c>
-      <c r="N94" t="n">
-        <v>10.87666666666666</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +4262,23 @@
         <v>10.97666666666668</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>7.300000000000002</v>
+        <v>10.9</v>
       </c>
       <c r="K95" t="n">
-        <v>-9.090909090909062</v>
-      </c>
-      <c r="L95" t="n">
-        <v>10.85</v>
+        <v>11</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>10.88000000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>10.87333333333333</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +4305,23 @@
         <v>10.97000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>7.300000000000002</v>
+        <v>10.9</v>
       </c>
       <c r="K96" t="n">
-        <v>11.11111111111107</v>
-      </c>
-      <c r="L96" t="n">
-        <v>10.84</v>
+        <v>11</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>10.88500000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>10.87666666666666</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +4348,23 @@
         <v>10.96333333333335</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>7.300000000000002</v>
+        <v>10.9</v>
       </c>
       <c r="K97" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L97" t="n">
-        <v>10.85</v>
+        <v>11</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="N97" t="n">
-        <v>10.87999999999999</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,31 +4391,23 @@
         <v>10.95666666666668</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>7.400000000000002</v>
+        <v>10.8</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>10.83</v>
+        <v>11</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>10.88500000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>10.87333333333332</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +4434,23 @@
         <v>10.94833333333335</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>7.500000000000004</v>
+        <v>10.8</v>
       </c>
       <c r="K99" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L99" t="n">
-        <v>10.82</v>
+        <v>11</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>10.875</v>
-      </c>
-      <c r="N99" t="n">
-        <v>10.86666666666666</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,31 +4477,23 @@
         <v>10.94333333333335</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>7.700000000000005</v>
+        <v>10.9</v>
       </c>
       <c r="K100" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L100" t="n">
-        <v>10.82</v>
+        <v>11</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>10.875</v>
-      </c>
-      <c r="N100" t="n">
-        <v>10.86999999999999</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,31 +4520,23 @@
         <v>10.93833333333334</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>7.700000000000005</v>
+        <v>10.9</v>
       </c>
       <c r="K101" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L101" t="n">
-        <v>10.84</v>
+        <v>11</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>10.875</v>
-      </c>
-      <c r="N101" t="n">
-        <v>10.86999999999999</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,31 +4563,23 @@
         <v>10.93500000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>7.700000000000005</v>
+        <v>10.9</v>
       </c>
       <c r="K102" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L102" t="n">
-        <v>10.86</v>
+        <v>11</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>10.875</v>
-      </c>
-      <c r="N102" t="n">
-        <v>10.87333333333332</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,31 +4606,23 @@
         <v>10.93166666666668</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>7.700000000000005</v>
+        <v>10.9</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>10.87</v>
+        <v>11</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="N103" t="n">
-        <v>10.87333333333332</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5545,31 +4649,23 @@
         <v>10.92666666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>7.800000000000004</v>
+        <v>10.8</v>
       </c>
       <c r="K104" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L104" t="n">
-        <v>10.86</v>
+        <v>11</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="N104" t="n">
-        <v>10.86999999999999</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,31 +4692,23 @@
         <v>10.91833333333334</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>7.900000000000006</v>
+        <v>10.7</v>
       </c>
       <c r="K105" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L105" t="n">
-        <v>10.84</v>
+        <v>11</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>10.845</v>
-      </c>
-      <c r="N105" t="n">
-        <v>10.86666666666665</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,31 +4735,23 @@
         <v>10.91333333333334</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>8.100000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>10.84</v>
+        <v>11</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>10.84000000000001</v>
-      </c>
-      <c r="N106" t="n">
-        <v>10.86999999999999</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,31 +4778,23 @@
         <v>10.90666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>8.300000000000008</v>
+        <v>10.7</v>
       </c>
       <c r="K107" t="n">
-        <v>-11.1111111111112</v>
-      </c>
-      <c r="L107" t="n">
-        <v>10.82</v>
+        <v>11</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>10.835</v>
-      </c>
-      <c r="N107" t="n">
-        <v>10.86666666666665</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,31 +4821,23 @@
         <v>10.90333333333334</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>8.500000000000009</v>
+        <v>10.9</v>
       </c>
       <c r="K108" t="n">
-        <v>20</v>
-      </c>
-      <c r="L108" t="n">
-        <v>10.83</v>
+        <v>11</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="N108" t="n">
-        <v>10.86666666666665</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,31 +4864,23 @@
         <v>10.90000000000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>8.500000000000009</v>
+        <v>10.9</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>10.85</v>
+        <v>11</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>10.835</v>
-      </c>
-      <c r="N109" t="n">
-        <v>10.86666666666665</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5851,31 +4907,23 @@
         <v>10.89500000000001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>8.70000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="K110" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L110" t="n">
-        <v>10.83</v>
+        <v>11</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>10.825</v>
-      </c>
-      <c r="N110" t="n">
-        <v>10.85999999999999</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,31 +4950,23 @@
         <v>10.89166666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>8.900000000000011</v>
+        <v>10.9</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>10.83</v>
+        <v>11</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>10.835</v>
-      </c>
-      <c r="N111" t="n">
-        <v>10.85999999999999</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,31 +4993,23 @@
         <v>10.89166666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>8.900000000000011</v>
+        <v>10.9</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>10.83</v>
+        <v>11</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>10.845</v>
-      </c>
-      <c r="N112" t="n">
-        <v>10.85999999999999</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,31 +5036,23 @@
         <v>10.89000000000001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>9.000000000000011</v>
+        <v>10.8</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>10.82</v>
+        <v>11</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>10.845</v>
-      </c>
-      <c r="N113" t="n">
-        <v>10.85333333333332</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,31 +5079,23 @@
         <v>10.88666666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>9.10000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="K114" t="n">
-        <v>16.66666666666669</v>
-      </c>
-      <c r="L114" t="n">
-        <v>10.83</v>
+        <v>11</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>10.845</v>
-      </c>
-      <c r="N114" t="n">
-        <v>10.84999999999999</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,31 +5122,23 @@
         <v>10.88666666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>9.10000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>10.85</v>
+        <v>11</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>10.845</v>
-      </c>
-      <c r="N115" t="n">
-        <v>10.84666666666665</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6157,31 +5165,23 @@
         <v>10.88333333333334</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>9.10000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="K116" t="n">
-        <v>25.00000000000006</v>
-      </c>
-      <c r="L116" t="n">
-        <v>10.85</v>
+        <v>11</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>10.845</v>
-      </c>
-      <c r="N116" t="n">
-        <v>10.84333333333332</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,31 +5208,23 @@
         <v>10.88333333333334</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>9.30000000000001</v>
+        <v>11</v>
       </c>
       <c r="K117" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L117" t="n">
-        <v>10.89</v>
+        <v>11</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>10.855</v>
-      </c>
-      <c r="N117" t="n">
-        <v>10.85333333333332</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,31 +5251,23 @@
         <v>10.88333333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>9.400000000000009</v>
+        <v>11</v>
       </c>
       <c r="K118" t="n">
-        <v>11.11111111111107</v>
-      </c>
-      <c r="L118" t="n">
-        <v>10.9</v>
+        <v>11</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>10.865</v>
-      </c>
-      <c r="N118" t="n">
-        <v>10.85333333333332</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6315,26 +5299,16 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>9.400000000000009</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L119" t="n">
-        <v>10.91</v>
+        <v>11</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="N119" t="n">
-        <v>10.85999999999999</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6366,26 +5340,16 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>9.400000000000009</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>20</v>
-      </c>
-      <c r="L120" t="n">
-        <v>10.94</v>
+        <v>11</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>10.885</v>
-      </c>
-      <c r="N120" t="n">
-        <v>10.86333333333332</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,26 +5381,16 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>9.400000000000009</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>20</v>
-      </c>
-      <c r="L121" t="n">
-        <v>10.95</v>
+        <v>11</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="N121" t="n">
-        <v>10.87333333333332</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,26 +5422,16 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>9.400000000000009</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>50</v>
-      </c>
-      <c r="L122" t="n">
-        <v>10.96</v>
+        <v>11</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>10.895</v>
-      </c>
-      <c r="N122" t="n">
-        <v>10.88333333333332</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,1099 +5461,18 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J123" t="n">
-        <v>9.500000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>50</v>
-      </c>
-      <c r="L123" t="n">
-        <v>10.99</v>
+        <v>11</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>10.905</v>
-      </c>
-      <c r="N123" t="n">
-        <v>10.89333333333332</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C124" t="n">
-        <v>11</v>
-      </c>
-      <c r="D124" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E124" t="n">
-        <v>11</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1514.9761</v>
-      </c>
-      <c r="G124" t="n">
-        <v>10.88666666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>9.600000000000009</v>
-      </c>
-      <c r="K124" t="n">
-        <v>20</v>
-      </c>
-      <c r="L124" t="n">
-        <v>11</v>
-      </c>
-      <c r="M124" t="n">
-        <v>10.915</v>
-      </c>
-      <c r="N124" t="n">
-        <v>10.89666666666665</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>11</v>
-      </c>
-      <c r="C125" t="n">
-        <v>11</v>
-      </c>
-      <c r="D125" t="n">
-        <v>11</v>
-      </c>
-      <c r="E125" t="n">
-        <v>11</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2103.5275</v>
-      </c>
-      <c r="G125" t="n">
-        <v>10.88666666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>9.600000000000009</v>
-      </c>
-      <c r="K125" t="n">
-        <v>20</v>
-      </c>
-      <c r="L125" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="M125" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="N125" t="n">
-        <v>10.89999999999999</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>11</v>
-      </c>
-      <c r="C126" t="n">
-        <v>11</v>
-      </c>
-      <c r="D126" t="n">
-        <v>11</v>
-      </c>
-      <c r="E126" t="n">
-        <v>11</v>
-      </c>
-      <c r="F126" t="n">
-        <v>38117.323</v>
-      </c>
-      <c r="G126" t="n">
-        <v>10.89000000000001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>9.600000000000009</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L126" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="M126" t="n">
-        <v>10.935</v>
-      </c>
-      <c r="N126" t="n">
-        <v>10.90333333333332</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>11</v>
-      </c>
-      <c r="C127" t="n">
-        <v>11</v>
-      </c>
-      <c r="D127" t="n">
-        <v>11</v>
-      </c>
-      <c r="E127" t="n">
-        <v>11</v>
-      </c>
-      <c r="F127" t="n">
-        <v>39423.7701</v>
-      </c>
-      <c r="G127" t="n">
-        <v>10.89333333333334</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>9.600000000000009</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="M127" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="N127" t="n">
-        <v>10.90666666666666</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>11</v>
-      </c>
-      <c r="C128" t="n">
-        <v>11</v>
-      </c>
-      <c r="D128" t="n">
-        <v>11</v>
-      </c>
-      <c r="E128" t="n">
-        <v>11</v>
-      </c>
-      <c r="F128" t="n">
-        <v>336.7571</v>
-      </c>
-      <c r="G128" t="n">
-        <v>10.89333333333334</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>9.600000000000009</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="M128" t="n">
-        <v>10.955</v>
-      </c>
-      <c r="N128" t="n">
-        <v>10.91333333333332</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D129" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E129" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F129" t="n">
-        <v>82001.4057</v>
-      </c>
-      <c r="G129" t="n">
-        <v>10.89166666666667</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J129" t="n">
-        <v>9.800000000000008</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L129" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="M129" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="N129" t="n">
-        <v>10.91666666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>8741.158799999999</v>
-      </c>
-      <c r="G130" t="n">
-        <v>10.89166666666667</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J130" t="n">
-        <v>9.800000000000008</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L130" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="M130" t="n">
-        <v>10.955</v>
-      </c>
-      <c r="N130" t="n">
-        <v>10.91333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>11</v>
-      </c>
-      <c r="C131" t="n">
-        <v>11</v>
-      </c>
-      <c r="D131" t="n">
-        <v>11</v>
-      </c>
-      <c r="E131" t="n">
-        <v>11</v>
-      </c>
-      <c r="F131" t="n">
-        <v>514.7839</v>
-      </c>
-      <c r="G131" t="n">
-        <v>10.89333333333334</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>10.00000000000001</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="M131" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="N131" t="n">
-        <v>10.91666666666666</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>11</v>
-      </c>
-      <c r="C132" t="n">
-        <v>11</v>
-      </c>
-      <c r="D132" t="n">
-        <v>11</v>
-      </c>
-      <c r="E132" t="n">
-        <v>11</v>
-      </c>
-      <c r="F132" t="n">
-        <v>17796.771</v>
-      </c>
-      <c r="G132" t="n">
-        <v>10.89666666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>10.00000000000001</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L132" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="M132" t="n">
-        <v>10.965</v>
-      </c>
-      <c r="N132" t="n">
-        <v>10.91999999999999</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>46</v>
-      </c>
-      <c r="G133" t="n">
-        <v>10.90000000000001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J133" t="n">
-        <v>10.10000000000001</v>
-      </c>
-      <c r="K133" t="n">
-        <v>20</v>
-      </c>
-      <c r="L133" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="M133" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="N133" t="n">
-        <v>10.92666666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>176298.5073</v>
-      </c>
-      <c r="G134" t="n">
-        <v>10.90333333333334</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J134" t="n">
-        <v>10.10000000000001</v>
-      </c>
-      <c r="K134" t="n">
-        <v>20</v>
-      </c>
-      <c r="L134" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="M134" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="N134" t="n">
-        <v>10.93666666666666</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>58667.6729</v>
-      </c>
-      <c r="G135" t="n">
-        <v>10.91000000000001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J135" t="n">
-        <v>10.20000000000001</v>
-      </c>
-      <c r="K135" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L135" t="n">
-        <v>11</v>
-      </c>
-      <c r="M135" t="n">
-        <v>11.005</v>
-      </c>
-      <c r="N135" t="n">
-        <v>10.95333333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F136" t="n">
-        <v>146</v>
-      </c>
-      <c r="G136" t="n">
-        <v>10.91666666666668</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J136" t="n">
-        <v>10.20000000000001</v>
-      </c>
-      <c r="K136" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L136" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="M136" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="N136" t="n">
-        <v>10.96333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>11</v>
-      </c>
-      <c r="D137" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>11</v>
-      </c>
-      <c r="F137" t="n">
-        <v>59771.0202</v>
-      </c>
-      <c r="G137" t="n">
-        <v>10.92000000000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>10.40000000000001</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="M137" t="n">
-        <v>11.015</v>
-      </c>
-      <c r="N137" t="n">
-        <v>10.97333333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>11</v>
-      </c>
-      <c r="C138" t="n">
-        <v>11</v>
-      </c>
-      <c r="D138" t="n">
-        <v>11</v>
-      </c>
-      <c r="E138" t="n">
-        <v>11</v>
-      </c>
-      <c r="F138" t="n">
-        <v>145250.2244</v>
-      </c>
-      <c r="G138" t="n">
-        <v>10.92166666666668</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>10.40000000000001</v>
-      </c>
-      <c r="K138" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L138" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="M138" t="n">
-        <v>11.015</v>
-      </c>
-      <c r="N138" t="n">
-        <v>10.97666666666666</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>45</v>
-      </c>
-      <c r="G139" t="n">
-        <v>10.92666666666668</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J139" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K139" t="n">
-        <v>50</v>
-      </c>
-      <c r="L139" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="M139" t="n">
-        <v>11.025</v>
-      </c>
-      <c r="N139" t="n">
-        <v>10.98666666666666</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2467.9096</v>
-      </c>
-      <c r="G140" t="n">
-        <v>10.93166666666668</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J140" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K140" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L140" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="M140" t="n">
-        <v>11.035</v>
-      </c>
-      <c r="N140" t="n">
-        <v>11.00333333333333</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G141" t="n">
-        <v>10.93666666666668</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J141" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K141" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L141" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="M141" t="n">
-        <v>11.045</v>
-      </c>
-      <c r="N141" t="n">
-        <v>11.01333333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>11</v>
-      </c>
-      <c r="C142" t="n">
-        <v>11</v>
-      </c>
-      <c r="D142" t="n">
-        <v>11</v>
-      </c>
-      <c r="E142" t="n">
-        <v>11</v>
-      </c>
-      <c r="F142" t="n">
-        <v>8903.7788</v>
-      </c>
-      <c r="G142" t="n">
-        <v>10.93833333333335</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L142" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="M142" t="n">
-        <v>11.045</v>
-      </c>
-      <c r="N142" t="n">
-        <v>11.01666666666666</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>46</v>
-      </c>
-      <c r="G143" t="n">
-        <v>10.94000000000002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J143" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="M143" t="n">
-        <v>11.045</v>
-      </c>
-      <c r="N143" t="n">
-        <v>11.02666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C144" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E144" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>7984.2344</v>
-      </c>
-      <c r="G144" t="n">
-        <v>10.94166666666668</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J144" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L144" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="M144" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="N144" t="n">
-        <v>11.03333333333333</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -486,17 +486,13 @@
         <v>10.84500000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>11</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -531,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>11</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -572,14 +562,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>11</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -613,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -654,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>11</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -695,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>11</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -736,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>11</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -777,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>11</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -818,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>11</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -856,17 +804,11 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>11</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -897,17 +839,11 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>11</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -941,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>11</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -982,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>11</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1023,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>11</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1064,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>11</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1102,17 +1014,11 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>11</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1146,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>11</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1187,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>11</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1228,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>11</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1269,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>11</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>11</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1351,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>11</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1392,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>11</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1433,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>11</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1474,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>11</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1515,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>11</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1556,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>11</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1597,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>11</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1638,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>11</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1679,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>11</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1720,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>11</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1761,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>11</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1802,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>11</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1843,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>11</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1884,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>11</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1925,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>11</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1966,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>11</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2007,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>11</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2048,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>11</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2089,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>11</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2130,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>11</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2171,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>11</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2212,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>11</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2253,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>11</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2294,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>11</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2335,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>11</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2376,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>11</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2417,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>11</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2458,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>11</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2499,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>11</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2540,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>11</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2581,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>11</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2622,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>11</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2663,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>11</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2704,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>11</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2745,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>11</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2786,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>11</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2827,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>11</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2868,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>11</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2909,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>11</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2950,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>11</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2991,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>11</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>11</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3073,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>11</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3114,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>11</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3155,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>11</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3196,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>11</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3237,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>11</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3278,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>11</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3319,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>11</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3360,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>11</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3401,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>11</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3442,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3483,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>11</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3518,20 +3076,18 @@
         <v>11.07500000000002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K77" t="n">
-        <v>11</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3559,18 +3115,20 @@
         <v>11.06833333333335</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K78" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3609,11 +3167,11 @@
         <v>10.9</v>
       </c>
       <c r="K79" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3643,20 +3201,18 @@
         <v>11.05833333333335</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K80" t="n">
-        <v>11</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>10.9</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3691,11 +3247,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -3732,11 +3288,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -3772,14 +3328,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>11</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3813,14 +3363,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3854,14 +3398,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3895,14 +3433,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3936,14 +3468,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3977,14 +3503,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4018,14 +3538,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4059,14 +3573,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4100,14 +3608,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4141,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4176,22 +3672,14 @@
         <v>10.98333333333335</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K93" t="n">
-        <v>11</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4219,22 +3707,14 @@
         <v>10.98000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K94" t="n">
-        <v>11</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4262,22 +3742,14 @@
         <v>10.97666666666668</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K95" t="n">
-        <v>11</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4305,22 +3777,14 @@
         <v>10.97000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K96" t="n">
-        <v>11</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4348,22 +3812,14 @@
         <v>10.96333333333335</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K97" t="n">
-        <v>11</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4391,22 +3847,14 @@
         <v>10.95666666666668</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K98" t="n">
-        <v>11</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4434,22 +3882,14 @@
         <v>10.94833333333335</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K99" t="n">
-        <v>11</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4477,22 +3917,14 @@
         <v>10.94333333333335</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K100" t="n">
-        <v>11</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4520,22 +3952,14 @@
         <v>10.93833333333334</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K101" t="n">
-        <v>11</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +3987,14 @@
         <v>10.93500000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K102" t="n">
-        <v>11</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4606,22 +4022,14 @@
         <v>10.93166666666668</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K103" t="n">
-        <v>11</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4649,22 +4057,14 @@
         <v>10.92666666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K104" t="n">
-        <v>11</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4692,22 +4092,14 @@
         <v>10.91833333333334</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K105" t="n">
-        <v>11</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4735,22 +4127,14 @@
         <v>10.91333333333334</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K106" t="n">
-        <v>11</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4778,22 +4162,14 @@
         <v>10.90666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K107" t="n">
-        <v>11</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4821,22 +4197,14 @@
         <v>10.90333333333334</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K108" t="n">
-        <v>11</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4864,22 +4232,14 @@
         <v>10.90000000000001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K109" t="n">
-        <v>11</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4907,22 +4267,14 @@
         <v>10.89500000000001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K110" t="n">
-        <v>11</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4950,22 +4302,14 @@
         <v>10.89166666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K111" t="n">
-        <v>11</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4993,22 +4337,14 @@
         <v>10.89166666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K112" t="n">
-        <v>11</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5036,22 +4372,14 @@
         <v>10.89000000000001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K113" t="n">
-        <v>11</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5079,22 +4407,14 @@
         <v>10.88666666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K114" t="n">
-        <v>11</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5122,22 +4442,14 @@
         <v>10.88666666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K115" t="n">
-        <v>11</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5165,22 +4477,14 @@
         <v>10.88333333333334</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K116" t="n">
-        <v>11</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5208,22 +4512,14 @@
         <v>10.88333333333334</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>11</v>
-      </c>
-      <c r="K117" t="n">
-        <v>11</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5251,22 +4547,14 @@
         <v>10.88333333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>11</v>
-      </c>
-      <c r="K118" t="n">
-        <v>11</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5300,14 +4588,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5341,14 +4623,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5382,14 +4658,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5423,14 +4693,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5464,14 +4728,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F2" t="n">
-        <v>2720.3899</v>
+        <v>458.5805</v>
       </c>
       <c r="G2" t="n">
-        <v>10.83833333333336</v>
+        <v>10.83166666666669</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>2448.3509</v>
+        <v>2720.3899</v>
       </c>
       <c r="G3" t="n">
-        <v>10.84500000000003</v>
+        <v>10.83833333333336</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>11</v>
@@ -512,13 +512,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>106817.9136</v>
+        <v>2448.3509</v>
       </c>
       <c r="G4" t="n">
-        <v>10.85166666666669</v>
+        <v>10.84500000000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C5" t="n">
         <v>11</v>
@@ -547,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F5" t="n">
-        <v>158749.9337</v>
+        <v>106817.9136</v>
       </c>
       <c r="G5" t="n">
-        <v>10.85666666666669</v>
+        <v>10.85166666666669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>261296.2027</v>
+        <v>158749.9337</v>
       </c>
       <c r="G6" t="n">
-        <v>10.86500000000003</v>
+        <v>10.85666666666669</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F7" t="n">
-        <v>200839.3995</v>
+        <v>261296.2027</v>
       </c>
       <c r="G7" t="n">
-        <v>10.87166666666669</v>
+        <v>10.86500000000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>14403.8046</v>
+        <v>200839.3995</v>
       </c>
       <c r="G8" t="n">
-        <v>10.88000000000002</v>
+        <v>10.87166666666669</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,28 +681,32 @@
         <v>11.1</v>
       </c>
       <c r="C9" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D9" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E9" t="n">
         <v>11.1</v>
       </c>
       <c r="F9" t="n">
-        <v>111706.1823</v>
+        <v>14403.8046</v>
       </c>
       <c r="G9" t="n">
-        <v>10.89000000000002</v>
+        <v>10.88000000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>11</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -713,32 +717,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C10" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D10" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="E10" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F10" t="n">
-        <v>2100</v>
+        <v>111706.1823</v>
       </c>
       <c r="G10" t="n">
-        <v>10.90166666666669</v>
+        <v>10.89000000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +760,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C11" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D11" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E11" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F11" t="n">
-        <v>27746.5522</v>
+        <v>2100</v>
       </c>
       <c r="G11" t="n">
-        <v>10.91000000000002</v>
+        <v>10.90166666666669</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,8 +784,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +801,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F12" t="n">
-        <v>19713.493</v>
+        <v>27746.5522</v>
       </c>
       <c r="G12" t="n">
-        <v>10.92000000000002</v>
+        <v>10.91000000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +848,10 @@
         <v>11.2</v>
       </c>
       <c r="F13" t="n">
-        <v>8033.0592</v>
+        <v>19713.493</v>
       </c>
       <c r="G13" t="n">
-        <v>10.93000000000002</v>
+        <v>10.92000000000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +883,10 @@
         <v>11.2</v>
       </c>
       <c r="F14" t="n">
-        <v>20000</v>
+        <v>8033.0592</v>
       </c>
       <c r="G14" t="n">
-        <v>10.94000000000002</v>
+        <v>10.93000000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C15" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="D15" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="E15" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F15" t="n">
-        <v>470451.651891228</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>10.95333333333336</v>
+        <v>10.94000000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +941,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C16" t="n">
         <v>11.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11.2</v>
       </c>
       <c r="D16" t="n">
         <v>11.4</v>
       </c>
       <c r="E16" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1111</v>
+        <v>470451.651891228</v>
       </c>
       <c r="G16" t="n">
-        <v>10.96500000000002</v>
+        <v>10.95333333333336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,10 +976,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="C17" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D17" t="n">
         <v>11.4</v>
@@ -970,16 +988,16 @@
         <v>11.2</v>
       </c>
       <c r="F17" t="n">
-        <v>29519.1176</v>
+        <v>1111</v>
       </c>
       <c r="G17" t="n">
-        <v>10.97833333333336</v>
+        <v>10.96500000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -993,22 +1011,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C18" t="n">
         <v>11.3</v>
       </c>
       <c r="D18" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="E18" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F18" t="n">
-        <v>55763.7727</v>
+        <v>29519.1176</v>
       </c>
       <c r="G18" t="n">
-        <v>10.99000000000002</v>
+        <v>10.97833333333336</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,16 +1058,16 @@
         <v>11.3</v>
       </c>
       <c r="F19" t="n">
-        <v>49834.3778</v>
+        <v>55763.7727</v>
       </c>
       <c r="G19" t="n">
-        <v>11.00333333333336</v>
+        <v>10.99000000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1063,28 +1081,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C20" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D20" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E20" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F20" t="n">
-        <v>897.75</v>
+        <v>49834.3778</v>
       </c>
       <c r="G20" t="n">
-        <v>11.01166666666669</v>
+        <v>11.00333333333336</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1098,22 +1116,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="C21" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D21" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E21" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F21" t="n">
-        <v>2442.3674</v>
+        <v>897.75</v>
       </c>
       <c r="G21" t="n">
-        <v>11.02500000000002</v>
+        <v>11.01166666666669</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1151,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C22" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D22" t="n">
         <v>11.3</v>
       </c>
       <c r="E22" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F22" t="n">
-        <v>866925.7664</v>
+        <v>2442.3674</v>
       </c>
       <c r="G22" t="n">
-        <v>11.03500000000002</v>
+        <v>11.02500000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1174,16 +1192,16 @@
         <v>11.2</v>
       </c>
       <c r="D23" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="E23" t="n">
         <v>11.2</v>
       </c>
       <c r="F23" t="n">
-        <v>382054.2748</v>
+        <v>866925.7664</v>
       </c>
       <c r="G23" t="n">
-        <v>11.04333333333335</v>
+        <v>11.03500000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1233,10 @@
         <v>11.2</v>
       </c>
       <c r="F24" t="n">
-        <v>369714.3011</v>
+        <v>382054.2748</v>
       </c>
       <c r="G24" t="n">
-        <v>11.05000000000002</v>
+        <v>11.04333333333335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1268,10 @@
         <v>11.2</v>
       </c>
       <c r="F25" t="n">
-        <v>46356.1353</v>
+        <v>369714.3011</v>
       </c>
       <c r="G25" t="n">
-        <v>11.05333333333336</v>
+        <v>11.05000000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1303,10 @@
         <v>11.2</v>
       </c>
       <c r="F26" t="n">
-        <v>79173.3536</v>
+        <v>46356.1353</v>
       </c>
       <c r="G26" t="n">
-        <v>11.05666666666669</v>
+        <v>11.05333333333336</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,7 +1338,7 @@
         <v>11.2</v>
       </c>
       <c r="F27" t="n">
-        <v>29393</v>
+        <v>79173.3536</v>
       </c>
       <c r="G27" t="n">
         <v>11.05666666666669</v>
@@ -1343,22 +1361,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C28" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D28" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="E28" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F28" t="n">
-        <v>2366.0304</v>
+        <v>29393</v>
       </c>
       <c r="G28" t="n">
-        <v>11.06666666666669</v>
+        <v>11.05666666666669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1396,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="E29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F29" t="n">
-        <v>13054.1266</v>
+        <v>2366.0304</v>
       </c>
       <c r="G29" t="n">
-        <v>11.07000000000002</v>
+        <v>11.06666666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1443,10 @@
         <v>11.2</v>
       </c>
       <c r="F30" t="n">
-        <v>101108.8301</v>
+        <v>13054.1266</v>
       </c>
       <c r="G30" t="n">
-        <v>11.07333333333336</v>
+        <v>11.07000000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1478,10 @@
         <v>11.2</v>
       </c>
       <c r="F31" t="n">
-        <v>2110.6113</v>
+        <v>101108.8301</v>
       </c>
       <c r="G31" t="n">
-        <v>11.07666666666669</v>
+        <v>11.07333333333336</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1504,19 @@
         <v>11.2</v>
       </c>
       <c r="C32" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D32" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="E32" t="n">
         <v>11.2</v>
       </c>
       <c r="F32" t="n">
-        <v>23902.6738</v>
+        <v>2110.6113</v>
       </c>
       <c r="G32" t="n">
-        <v>11.08500000000003</v>
+        <v>11.07666666666669</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1536,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C33" t="n">
         <v>11.3</v>
@@ -1527,13 +1545,13 @@
         <v>11.3</v>
       </c>
       <c r="E33" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F33" t="n">
-        <v>2589.5984</v>
+        <v>23902.6738</v>
       </c>
       <c r="G33" t="n">
-        <v>11.09500000000002</v>
+        <v>11.08500000000003</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1571,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C34" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D34" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E34" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F34" t="n">
-        <v>3278.9791</v>
+        <v>2589.5984</v>
       </c>
       <c r="G34" t="n">
-        <v>11.09833333333336</v>
+        <v>11.09500000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1618,10 @@
         <v>11.1</v>
       </c>
       <c r="F35" t="n">
-        <v>10043.799</v>
+        <v>3278.9791</v>
       </c>
       <c r="G35" t="n">
-        <v>11.10166666666669</v>
+        <v>11.09833333333336</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1641,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="C36" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D36" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E36" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>10043.799</v>
       </c>
       <c r="G36" t="n">
-        <v>11.10666666666669</v>
+        <v>11.10166666666669</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1688,10 @@
         <v>11.3</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>11.11166666666669</v>
+        <v>11.10666666666669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1711,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C38" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D38" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="E38" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F38" t="n">
-        <v>2510.9497</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>11.11333333333336</v>
+        <v>11.11166666666669</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,7 +1758,7 @@
         <v>11.2</v>
       </c>
       <c r="F39" t="n">
-        <v>1541.4184</v>
+        <v>2510.9497</v>
       </c>
       <c r="G39" t="n">
         <v>11.11333333333336</v>
@@ -1775,10 +1793,10 @@
         <v>11.2</v>
       </c>
       <c r="F40" t="n">
-        <v>3784.2843</v>
+        <v>1541.4184</v>
       </c>
       <c r="G40" t="n">
-        <v>11.11666666666669</v>
+        <v>11.11333333333336</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1828,10 @@
         <v>11.2</v>
       </c>
       <c r="F41" t="n">
-        <v>20942.5124</v>
+        <v>3784.2843</v>
       </c>
       <c r="G41" t="n">
-        <v>11.11833333333336</v>
+        <v>11.11666666666669</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C42" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D42" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E42" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>20942.5124</v>
       </c>
       <c r="G42" t="n">
         <v>11.11833333333336</v>
@@ -1880,7 +1898,7 @@
         <v>11.1</v>
       </c>
       <c r="F43" t="n">
-        <v>471.6981</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="n">
         <v>11.11833333333336</v>
@@ -1915,7 +1933,7 @@
         <v>11.1</v>
       </c>
       <c r="F44" t="n">
-        <v>259450.6177</v>
+        <v>471.6981</v>
       </c>
       <c r="G44" t="n">
         <v>11.11833333333336</v>
@@ -1938,22 +1956,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C45" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D45" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E45" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F45" t="n">
-        <v>3204.4199</v>
+        <v>259450.6177</v>
       </c>
       <c r="G45" t="n">
-        <v>11.12166666666669</v>
+        <v>11.11833333333336</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2003,10 @@
         <v>11.2</v>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>3204.4199</v>
       </c>
       <c r="G46" t="n">
-        <v>11.12500000000003</v>
+        <v>11.12166666666669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,19 +2026,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C47" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D47" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E47" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F47" t="n">
-        <v>150000</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
         <v>11.12500000000003</v>
@@ -2055,10 +2073,10 @@
         <v>11.1</v>
       </c>
       <c r="F48" t="n">
-        <v>17500.8592</v>
+        <v>150000</v>
       </c>
       <c r="G48" t="n">
-        <v>11.12666666666669</v>
+        <v>11.12500000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2108,10 @@
         <v>11.1</v>
       </c>
       <c r="F49" t="n">
-        <v>4248.7319</v>
+        <v>17500.8592</v>
       </c>
       <c r="G49" t="n">
-        <v>11.12833333333336</v>
+        <v>11.12666666666669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,19 +2131,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C50" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F50" t="n">
-        <v>54177.0758</v>
+        <v>4248.7319</v>
       </c>
       <c r="G50" t="n">
         <v>11.12833333333336</v>
@@ -2151,19 +2169,19 @@
         <v>11</v>
       </c>
       <c r="C51" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E51" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F51" t="n">
-        <v>637851.2332</v>
+        <v>54177.0758</v>
       </c>
       <c r="G51" t="n">
-        <v>11.13166666666669</v>
+        <v>11.12833333333336</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,10 +2201,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D52" t="n">
         <v>11.1</v>
@@ -2195,7 +2213,7 @@
         <v>10.9</v>
       </c>
       <c r="F52" t="n">
-        <v>1166.55</v>
+        <v>637851.2332</v>
       </c>
       <c r="G52" t="n">
         <v>11.13166666666669</v>
@@ -2218,19 +2236,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C53" t="n">
         <v>10.9</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E53" t="n">
         <v>10.9</v>
       </c>
       <c r="F53" t="n">
-        <v>1055.45</v>
+        <v>1166.55</v>
       </c>
       <c r="G53" t="n">
         <v>11.13166666666669</v>
@@ -2253,22 +2271,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C54" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D54" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>1055.45</v>
       </c>
       <c r="G54" t="n">
-        <v>11.1366666666667</v>
+        <v>11.13166666666669</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C55" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E55" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F55" t="n">
-        <v>48792.0865</v>
+        <v>50</v>
       </c>
       <c r="G55" t="n">
-        <v>11.13500000000003</v>
+        <v>11.1366666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C56" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D56" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>48792.0865</v>
       </c>
       <c r="G56" t="n">
-        <v>11.1366666666667</v>
+        <v>11.13500000000003</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2376,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C57" t="n">
         <v>11.1</v>
@@ -2367,13 +2385,13 @@
         <v>11.1</v>
       </c>
       <c r="E57" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F57" t="n">
-        <v>9526.936900000001</v>
+        <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>11.14000000000003</v>
+        <v>11.1366666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F58" t="n">
-        <v>80000</v>
+        <v>9526.936900000001</v>
       </c>
       <c r="G58" t="n">
-        <v>11.1416666666667</v>
+        <v>11.14000000000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2446,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C59" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E59" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>50</v>
+        <v>80000</v>
       </c>
       <c r="G59" t="n">
-        <v>11.14333333333336</v>
+        <v>11.1416666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,19 +2481,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D60" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F60" t="n">
-        <v>117.3801</v>
+        <v>50</v>
       </c>
       <c r="G60" t="n">
         <v>11.14333333333336</v>
@@ -2498,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>117.3801</v>
       </c>
       <c r="G61" t="n">
-        <v>11.14500000000003</v>
+        <v>11.14333333333336</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="C62" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D62" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E62" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F62" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>11.1466666666667</v>
+        <v>11.14500000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2586,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C63" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D63" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E63" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F63" t="n">
-        <v>661611.0432</v>
+        <v>50</v>
       </c>
       <c r="G63" t="n">
-        <v>11.14333333333336</v>
+        <v>11.1466666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,19 +2621,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D64" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F64" t="n">
-        <v>5190.7972</v>
+        <v>661611.0432</v>
       </c>
       <c r="G64" t="n">
         <v>11.14333333333336</v>
@@ -2650,7 +2668,7 @@
         <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>5190.7972</v>
       </c>
       <c r="G65" t="n">
         <v>11.14333333333336</v>
@@ -2673,22 +2691,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C66" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>3834</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>11.13833333333336</v>
+        <v>11.14333333333336</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2726,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C67" t="n">
         <v>10.8</v>
       </c>
       <c r="D67" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E67" t="n">
         <v>10.8</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>3834</v>
       </c>
       <c r="G67" t="n">
-        <v>11.13500000000003</v>
+        <v>11.13833333333336</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2764,19 @@
         <v>10.8</v>
       </c>
       <c r="C68" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D68" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E68" t="n">
         <v>10.8</v>
       </c>
       <c r="F68" t="n">
-        <v>2512.6937</v>
+        <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>11.13333333333336</v>
+        <v>11.13500000000003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2796,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C69" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E69" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F69" t="n">
-        <v>31585.6115</v>
+        <v>2512.6937</v>
       </c>
       <c r="G69" t="n">
-        <v>11.12833333333336</v>
+        <v>11.13333333333336</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2831,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C70" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D70" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E70" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F70" t="n">
-        <v>48018.1718</v>
+        <v>31585.6115</v>
       </c>
       <c r="G70" t="n">
-        <v>11.12000000000003</v>
+        <v>11.12833333333336</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2866,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C71" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D71" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E71" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F71" t="n">
-        <v>5364.5249</v>
+        <v>48018.1718</v>
       </c>
       <c r="G71" t="n">
-        <v>11.11666666666669</v>
+        <v>11.12000000000003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2901,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C72" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D72" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E72" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F72" t="n">
-        <v>38013.6084</v>
+        <v>5364.5249</v>
       </c>
       <c r="G72" t="n">
-        <v>11.11000000000002</v>
+        <v>11.11666666666669</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2939,19 @@
         <v>10.8</v>
       </c>
       <c r="C73" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D73" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E73" t="n">
         <v>10.8</v>
       </c>
       <c r="F73" t="n">
-        <v>13431.9835</v>
+        <v>38013.6084</v>
       </c>
       <c r="G73" t="n">
-        <v>11.10500000000002</v>
+        <v>11.11000000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,7 +2971,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C74" t="n">
         <v>10.9</v>
@@ -2962,13 +2980,13 @@
         <v>10.9</v>
       </c>
       <c r="E74" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F74" t="n">
-        <v>1510.9297</v>
+        <v>13431.9835</v>
       </c>
       <c r="G74" t="n">
-        <v>11.10000000000002</v>
+        <v>11.10500000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3006,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C75" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D75" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E75" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F75" t="n">
-        <v>58410.4079</v>
+        <v>1510.9297</v>
       </c>
       <c r="G75" t="n">
-        <v>11.09000000000002</v>
+        <v>11.10000000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3053,10 @@
         <v>10.8</v>
       </c>
       <c r="F76" t="n">
-        <v>78762.8468</v>
+        <v>58410.4079</v>
       </c>
       <c r="G76" t="n">
-        <v>11.08333333333335</v>
+        <v>11.09000000000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,23 +3088,19 @@
         <v>10.8</v>
       </c>
       <c r="F77" t="n">
-        <v>20000</v>
+        <v>78762.8468</v>
       </c>
       <c r="G77" t="n">
-        <v>11.07500000000002</v>
+        <v>11.08333333333335</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K77" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3097,40 +3111,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C78" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D78" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E78" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F78" t="n">
-        <v>24683.5406</v>
+        <v>20000</v>
       </c>
       <c r="G78" t="n">
-        <v>11.06833333333335</v>
+        <v>11.07500000000002</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K78" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3152,28 +3158,20 @@
         <v>10.9</v>
       </c>
       <c r="F79" t="n">
-        <v>166607.7778</v>
+        <v>24683.5406</v>
       </c>
       <c r="G79" t="n">
-        <v>11.06166666666669</v>
+        <v>11.06833333333335</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K79" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3195,23 +3193,19 @@
         <v>10.9</v>
       </c>
       <c r="F80" t="n">
-        <v>5706.0814</v>
+        <v>166607.7778</v>
       </c>
       <c r="G80" t="n">
-        <v>11.05833333333335</v>
+        <v>11.06166666666669</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K80" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3234,10 +3228,10 @@
         <v>10.9</v>
       </c>
       <c r="F81" t="n">
-        <v>4908.7309</v>
+        <v>5706.0814</v>
       </c>
       <c r="G81" t="n">
-        <v>11.05166666666669</v>
+        <v>11.05833333333335</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3246,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3275,10 +3263,10 @@
         <v>10.9</v>
       </c>
       <c r="F82" t="n">
-        <v>39818.1483</v>
+        <v>4908.7309</v>
       </c>
       <c r="G82" t="n">
-        <v>11.04666666666669</v>
+        <v>11.05166666666669</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3287,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3304,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C83" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E83" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>39818.1483</v>
       </c>
       <c r="G83" t="n">
-        <v>11.04333333333335</v>
+        <v>11.04666666666669</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3339,7 +3321,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C84" t="n">
         <v>11</v>
@@ -3348,13 +3330,13 @@
         <v>11</v>
       </c>
       <c r="E84" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F84" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>11.04000000000002</v>
+        <v>11.04333333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3374,7 +3356,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C85" t="n">
         <v>11</v>
@@ -3383,13 +3365,13 @@
         <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F85" t="n">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="G85" t="n">
-        <v>11.03666666666668</v>
+        <v>11.04000000000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3421,10 +3403,10 @@
         <v>11</v>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G86" t="n">
-        <v>11.03333333333335</v>
+        <v>11.03666666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3444,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E87" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="G87" t="n">
-        <v>11.02666666666668</v>
+        <v>11.03333333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3479,22 +3461,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E88" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F88" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="n">
-        <v>11.02166666666668</v>
+        <v>11.02666666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3514,22 +3496,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
-        <v>18516.4227</v>
+        <v>50</v>
       </c>
       <c r="G89" t="n">
-        <v>11.01500000000001</v>
+        <v>11.02166666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3549,22 +3531,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C90" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D90" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E90" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F90" t="n">
-        <v>50</v>
+        <v>18516.4227</v>
       </c>
       <c r="G90" t="n">
-        <v>11.01000000000001</v>
+        <v>11.01500000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3584,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C91" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="D91" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E91" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="F91" t="n">
-        <v>368554.1806</v>
+        <v>50</v>
       </c>
       <c r="G91" t="n">
-        <v>11.00166666666668</v>
+        <v>11.01000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3631,10 +3613,10 @@
         <v>10.7</v>
       </c>
       <c r="F92" t="n">
-        <v>41814.8355</v>
+        <v>368554.1806</v>
       </c>
       <c r="G92" t="n">
-        <v>10.99166666666668</v>
+        <v>11.00166666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3657,7 +3639,7 @@
         <v>10.8</v>
       </c>
       <c r="C93" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="D93" t="n">
         <v>10.8</v>
@@ -3666,10 +3648,10 @@
         <v>10.7</v>
       </c>
       <c r="F93" t="n">
-        <v>44339.182</v>
+        <v>41814.8355</v>
       </c>
       <c r="G93" t="n">
-        <v>10.98333333333335</v>
+        <v>10.99166666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3692,19 +3674,19 @@
         <v>10.8</v>
       </c>
       <c r="C94" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D94" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E94" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F94" t="n">
-        <v>7931.8048</v>
+        <v>44339.182</v>
       </c>
       <c r="G94" t="n">
-        <v>10.98000000000001</v>
+        <v>10.98333333333335</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3724,7 +3706,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C95" t="n">
         <v>10.9</v>
@@ -3733,13 +3715,13 @@
         <v>10.9</v>
       </c>
       <c r="E95" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F95" t="n">
-        <v>30917.43119266055</v>
+        <v>7931.8048</v>
       </c>
       <c r="G95" t="n">
-        <v>10.97666666666668</v>
+        <v>10.98000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3771,10 +3753,10 @@
         <v>10.9</v>
       </c>
       <c r="F96" t="n">
-        <v>2375.2572</v>
+        <v>30917.43119266055</v>
       </c>
       <c r="G96" t="n">
-        <v>10.97000000000001</v>
+        <v>10.97666666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3806,10 +3788,10 @@
         <v>10.9</v>
       </c>
       <c r="F97" t="n">
-        <v>9127.8812</v>
+        <v>2375.2572</v>
       </c>
       <c r="G97" t="n">
-        <v>10.96333333333335</v>
+        <v>10.97000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3829,22 +3811,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C98" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D98" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E98" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F98" t="n">
-        <v>3221</v>
+        <v>9127.8812</v>
       </c>
       <c r="G98" t="n">
-        <v>10.95666666666668</v>
+        <v>10.96333333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3867,19 +3849,19 @@
         <v>10.8</v>
       </c>
       <c r="C99" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D99" t="n">
         <v>10.8</v>
       </c>
       <c r="E99" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F99" t="n">
-        <v>30917.4312</v>
+        <v>3221</v>
       </c>
       <c r="G99" t="n">
-        <v>10.94833333333335</v>
+        <v>10.95666666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3899,22 +3881,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C100" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="D100" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E100" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="F100" t="n">
-        <v>826.9864</v>
+        <v>30917.4312</v>
       </c>
       <c r="G100" t="n">
-        <v>10.94333333333335</v>
+        <v>10.94833333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3946,10 +3928,10 @@
         <v>10.9</v>
       </c>
       <c r="F101" t="n">
-        <v>51622.7888</v>
+        <v>826.9864</v>
       </c>
       <c r="G101" t="n">
-        <v>10.93833333333334</v>
+        <v>10.94333333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3981,10 +3963,10 @@
         <v>10.9</v>
       </c>
       <c r="F102" t="n">
-        <v>39119.7757</v>
+        <v>51622.7888</v>
       </c>
       <c r="G102" t="n">
-        <v>10.93500000000001</v>
+        <v>10.93833333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4016,10 +3998,10 @@
         <v>10.9</v>
       </c>
       <c r="F103" t="n">
-        <v>7443.7017</v>
+        <v>39119.7757</v>
       </c>
       <c r="G103" t="n">
-        <v>10.93166666666668</v>
+        <v>10.93500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4039,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C104" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D104" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E104" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F104" t="n">
-        <v>2077.1203</v>
+        <v>7443.7017</v>
       </c>
       <c r="G104" t="n">
-        <v>10.92666666666667</v>
+        <v>10.93166666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4074,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="C105" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D105" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="E105" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F105" t="n">
-        <v>166657.7778</v>
+        <v>2077.1203</v>
       </c>
       <c r="G105" t="n">
-        <v>10.91833333333334</v>
+        <v>10.92666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4109,22 +4091,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="C106" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="D106" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="E106" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F106" t="n">
-        <v>350</v>
+        <v>166657.7778</v>
       </c>
       <c r="G106" t="n">
-        <v>10.91333333333334</v>
+        <v>10.91833333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4144,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="C107" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="D107" t="n">
         <v>10.9</v>
       </c>
       <c r="E107" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F107" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="G107" t="n">
-        <v>10.90666666666667</v>
+        <v>10.91333333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4179,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="C108" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="D108" t="n">
         <v>10.9</v>
       </c>
       <c r="E108" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="F108" t="n">
-        <v>1950</v>
+        <v>600</v>
       </c>
       <c r="G108" t="n">
-        <v>10.90333333333334</v>
+        <v>10.90666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4226,10 +4208,10 @@
         <v>10.9</v>
       </c>
       <c r="F109" t="n">
-        <v>1300</v>
+        <v>1950</v>
       </c>
       <c r="G109" t="n">
-        <v>10.90000000000001</v>
+        <v>10.90333333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4249,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C110" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="D110" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="E110" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="G110" t="n">
-        <v>10.89500000000001</v>
+        <v>10.90000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4284,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="C111" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="D111" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="E111" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="F111" t="n">
-        <v>1365</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>10.89166666666667</v>
+        <v>10.89500000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4331,7 +4313,7 @@
         <v>10.9</v>
       </c>
       <c r="F112" t="n">
-        <v>130</v>
+        <v>1365</v>
       </c>
       <c r="G112" t="n">
         <v>10.89166666666667</v>
@@ -4354,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C113" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D113" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E113" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F113" t="n">
-        <v>47699.9531</v>
+        <v>130</v>
       </c>
       <c r="G113" t="n">
-        <v>10.89000000000001</v>
+        <v>10.89166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4389,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C114" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D114" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E114" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F114" t="n">
-        <v>325</v>
+        <v>47699.9531</v>
       </c>
       <c r="G114" t="n">
-        <v>10.88666666666667</v>
+        <v>10.89000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4436,7 +4418,7 @@
         <v>10.9</v>
       </c>
       <c r="F115" t="n">
-        <v>12508.7985</v>
+        <v>325</v>
       </c>
       <c r="G115" t="n">
         <v>10.88666666666667</v>
@@ -4471,10 +4453,10 @@
         <v>10.9</v>
       </c>
       <c r="F116" t="n">
-        <v>32125.5827</v>
+        <v>12508.7985</v>
       </c>
       <c r="G116" t="n">
-        <v>10.88333333333334</v>
+        <v>10.88666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4494,19 +4476,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C117" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D117" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E117" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F117" t="n">
-        <v>106742.77</v>
+        <v>32125.5827</v>
       </c>
       <c r="G117" t="n">
         <v>10.88333333333334</v>
@@ -4532,16 +4514,16 @@
         <v>11</v>
       </c>
       <c r="C118" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D118" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E118" t="n">
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>19253.3006</v>
+        <v>106742.77</v>
       </c>
       <c r="G118" t="n">
         <v>10.88333333333334</v>
@@ -4576,10 +4558,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>2861.9096</v>
+        <v>19253.3006</v>
       </c>
       <c r="G119" t="n">
-        <v>10.88166666666667</v>
+        <v>10.88333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4611,7 +4593,7 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>45341.1562</v>
+        <v>2861.9096</v>
       </c>
       <c r="G120" t="n">
         <v>10.88166666666667</v>
@@ -4646,10 +4628,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>52925.5197</v>
+        <v>45341.1562</v>
       </c>
       <c r="G121" t="n">
-        <v>10.88333333333334</v>
+        <v>10.88166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4681,10 +4663,10 @@
         <v>11</v>
       </c>
       <c r="F122" t="n">
-        <v>25411.488</v>
+        <v>52925.5197</v>
       </c>
       <c r="G122" t="n">
-        <v>10.88166666666667</v>
+        <v>10.88333333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4704,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C123" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E123" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F123" t="n">
-        <v>325</v>
+        <v>25411.488</v>
       </c>
       <c r="G123" t="n">
-        <v>10.88666666666667</v>
+        <v>10.88166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4734,6 +4716,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>325</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10.88666666666667</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -450,24 +445,21 @@
         <v>10.8</v>
       </c>
       <c r="F2" t="n">
-        <v>458.5805</v>
+        <v>1627.2656</v>
       </c>
       <c r="G2" t="n">
-        <v>10.94666666666667</v>
+        <v>-848844.0241201835</v>
       </c>
       <c r="H2" t="n">
-        <v>10.83166666666669</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2720.3899</v>
+        <v>218238.759</v>
       </c>
       <c r="G3" t="n">
-        <v>10.94</v>
+        <v>-1067082.783120184</v>
       </c>
       <c r="H3" t="n">
-        <v>10.83833333333336</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F4" t="n">
-        <v>2448.3509</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>10.94</v>
+        <v>-1067032.783120184</v>
       </c>
       <c r="H4" t="n">
-        <v>10.84500000000003</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E5" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F5" t="n">
-        <v>106817.9136</v>
+        <v>11176.9929</v>
       </c>
       <c r="G5" t="n">
-        <v>10.94</v>
+        <v>-1067032.783120184</v>
       </c>
       <c r="H5" t="n">
-        <v>10.85166666666669</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -602,24 +585,21 @@
         <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>158749.9337</v>
+        <v>262680.3563</v>
       </c>
       <c r="G6" t="n">
-        <v>10.94</v>
+        <v>-804352.4268201835</v>
       </c>
       <c r="H6" t="n">
-        <v>10.85666666666669</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>261296.2027</v>
+        <v>79513.1949</v>
       </c>
       <c r="G7" t="n">
-        <v>10.95333333333333</v>
+        <v>-804352.4268201835</v>
       </c>
       <c r="H7" t="n">
-        <v>10.86500000000003</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F8" t="n">
-        <v>200839.3995</v>
+        <v>92592.5925</v>
       </c>
       <c r="G8" t="n">
-        <v>10.96</v>
+        <v>-711759.8343201835</v>
       </c>
       <c r="H8" t="n">
-        <v>10.87166666666669</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -707,33 +681,30 @@
         <v>11.1</v>
       </c>
       <c r="C9" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D9" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E9" t="n">
         <v>11.1</v>
       </c>
       <c r="F9" t="n">
-        <v>14403.8046</v>
+        <v>86695.3891</v>
       </c>
       <c r="G9" t="n">
-        <v>10.97333333333333</v>
+        <v>-625064.4452201835</v>
       </c>
       <c r="H9" t="n">
-        <v>10.88000000000002</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>111706.1823</v>
+        <v>121133.4713</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>-746197.9165201834</v>
       </c>
       <c r="H10" t="n">
-        <v>10.89000000000002</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C11" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D11" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E11" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F11" t="n">
-        <v>2100</v>
+        <v>8613.7022</v>
       </c>
       <c r="G11" t="n">
-        <v>11.02</v>
+        <v>-737584.2143201835</v>
       </c>
       <c r="H11" t="n">
-        <v>10.90166666666669</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="C12" t="n">
         <v>11.1</v>
@@ -827,27 +792,24 @@
         <v>11.1</v>
       </c>
       <c r="E12" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F12" t="n">
-        <v>27746.5522</v>
+        <v>228630.8521</v>
       </c>
       <c r="G12" t="n">
-        <v>11.02666666666666</v>
+        <v>-737584.2143201835</v>
       </c>
       <c r="H12" t="n">
-        <v>10.91000000000002</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C13" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D13" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E13" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F13" t="n">
-        <v>19713.493</v>
+        <v>66390.73119999999</v>
       </c>
       <c r="G13" t="n">
-        <v>11.04666666666666</v>
+        <v>-737584.2143201835</v>
       </c>
       <c r="H13" t="n">
-        <v>10.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D14" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E14" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>8033.0592</v>
+        <v>5989.0668</v>
       </c>
       <c r="G14" t="n">
-        <v>11.06666666666666</v>
+        <v>-737584.2143201835</v>
       </c>
       <c r="H14" t="n">
-        <v>10.93000000000002</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>20000</v>
+        <v>74074.2473</v>
       </c>
       <c r="G15" t="n">
-        <v>11.07999999999999</v>
+        <v>-811658.4616201835</v>
       </c>
       <c r="H15" t="n">
-        <v>10.94000000000002</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>470451.651891228</v>
+        <v>33880.1969</v>
       </c>
       <c r="G16" t="n">
-        <v>11.10666666666666</v>
+        <v>-811658.4616201835</v>
       </c>
       <c r="H16" t="n">
-        <v>10.95333333333336</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D17" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="E17" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>1111</v>
+        <v>20587.8849</v>
       </c>
       <c r="G17" t="n">
-        <v>11.13333333333333</v>
+        <v>-791070.5767201836</v>
       </c>
       <c r="H17" t="n">
-        <v>10.96500000000002</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>29519.1176</v>
+        <v>129843.5419</v>
       </c>
       <c r="G18" t="n">
-        <v>11.15333333333333</v>
+        <v>-920914.1186201836</v>
       </c>
       <c r="H18" t="n">
-        <v>10.97833333333336</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>55763.7727</v>
+        <v>2240.5948</v>
       </c>
       <c r="G19" t="n">
-        <v>11.17333333333333</v>
+        <v>-920914.1186201836</v>
       </c>
       <c r="H19" t="n">
-        <v>10.99000000000002</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>49834.3778</v>
+        <v>1681.8428</v>
       </c>
       <c r="G20" t="n">
-        <v>11.19333333333333</v>
+        <v>-920914.1186201836</v>
       </c>
       <c r="H20" t="n">
-        <v>11.00333333333336</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="C21" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D21" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E21" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F21" t="n">
-        <v>897.75</v>
+        <v>65058.526</v>
       </c>
       <c r="G21" t="n">
-        <v>11.19999999999999</v>
+        <v>-985972.6446201835</v>
       </c>
       <c r="H21" t="n">
-        <v>11.01166666666669</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="C22" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="D22" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="E22" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="F22" t="n">
-        <v>2442.3674</v>
+        <v>50307.8176</v>
       </c>
       <c r="G22" t="n">
-        <v>11.21333333333333</v>
+        <v>-985972.6446201835</v>
       </c>
       <c r="H22" t="n">
-        <v>11.02500000000002</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C23" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D23" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="E23" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F23" t="n">
-        <v>866925.7664</v>
+        <v>44052.2187</v>
       </c>
       <c r="G23" t="n">
-        <v>11.22666666666666</v>
+        <v>-985972.6446201835</v>
       </c>
       <c r="H23" t="n">
-        <v>11.03500000000002</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="C24" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="D24" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="E24" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="F24" t="n">
-        <v>382054.2748</v>
+        <v>458.5805</v>
       </c>
       <c r="G24" t="n">
-        <v>11.23333333333333</v>
+        <v>-986431.2251201835</v>
       </c>
       <c r="H24" t="n">
-        <v>11.04333333333335</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>369714.3011</v>
+        <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>11.23333333333333</v>
+        <v>-986381.2251201835</v>
       </c>
       <c r="H25" t="n">
-        <v>11.05000000000002</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>46356.1353</v>
+        <v>30760.2771</v>
       </c>
       <c r="G26" t="n">
-        <v>11.22666666666666</v>
+        <v>-986381.2251201835</v>
       </c>
       <c r="H26" t="n">
-        <v>11.05333333333336</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C27" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D27" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E27" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F27" t="n">
-        <v>79173.3536</v>
+        <v>121039.1514</v>
       </c>
       <c r="G27" t="n">
-        <v>11.23333333333333</v>
+        <v>-1107420.376520184</v>
       </c>
       <c r="H27" t="n">
-        <v>11.05666666666669</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C28" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D28" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E28" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F28" t="n">
-        <v>29393</v>
+        <v>1280.5767</v>
       </c>
       <c r="G28" t="n">
-        <v>11.23333333333333</v>
+        <v>-1107420.376520184</v>
       </c>
       <c r="H28" t="n">
-        <v>11.05666666666669</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="C29" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="F29" t="n">
-        <v>2366.0304</v>
+        <v>69953.9143</v>
       </c>
       <c r="G29" t="n">
-        <v>11.23999999999999</v>
+        <v>-1037466.462220184</v>
       </c>
       <c r="H29" t="n">
-        <v>11.06666666666669</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1419,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>13054.1266</v>
+        <v>108309.7411</v>
       </c>
       <c r="G30" t="n">
-        <v>11.23999999999999</v>
+        <v>-1037466.462220184</v>
       </c>
       <c r="H30" t="n">
-        <v>11.07000000000002</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1460,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="C31" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="D31" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="E31" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="F31" t="n">
-        <v>101108.8301</v>
+        <v>458.5805</v>
       </c>
       <c r="G31" t="n">
-        <v>11.22666666666666</v>
+        <v>-1037925.042720184</v>
       </c>
       <c r="H31" t="n">
-        <v>11.07333333333336</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1499,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E32" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>2110.6113</v>
+        <v>2720.3899</v>
       </c>
       <c r="G32" t="n">
-        <v>11.22666666666666</v>
+        <v>-1035204.652820184</v>
       </c>
       <c r="H32" t="n">
-        <v>11.07666666666669</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1538,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E33" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>23902.6738</v>
+        <v>2448.3509</v>
       </c>
       <c r="G33" t="n">
-        <v>11.22666666666666</v>
+        <v>-1035204.652820184</v>
       </c>
       <c r="H33" t="n">
-        <v>11.08500000000003</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1579,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="C34" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E34" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="F34" t="n">
-        <v>2589.5984</v>
+        <v>106817.9136</v>
       </c>
       <c r="G34" t="n">
-        <v>11.22666666666666</v>
+        <v>-1035204.652820184</v>
       </c>
       <c r="H34" t="n">
-        <v>11.09500000000002</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1618,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>3278.9791</v>
+        <v>158749.9337</v>
       </c>
       <c r="G35" t="n">
-        <v>11.21333333333333</v>
+        <v>-1035204.652820184</v>
       </c>
       <c r="H35" t="n">
-        <v>11.09833333333336</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,24 +1669,25 @@
         <v>11.1</v>
       </c>
       <c r="F36" t="n">
-        <v>10043.799</v>
+        <v>261296.2027</v>
       </c>
       <c r="G36" t="n">
-        <v>11.21333333333333</v>
+        <v>-773908.4501201836</v>
       </c>
       <c r="H36" t="n">
-        <v>11.10166666666669</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1696,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E37" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>200839.3995</v>
       </c>
       <c r="G37" t="n">
-        <v>11.21333333333333</v>
+        <v>-974747.8496201837</v>
       </c>
       <c r="H37" t="n">
-        <v>11.10666666666669</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1735,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="C38" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D38" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E38" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>14403.8046</v>
       </c>
       <c r="G38" t="n">
-        <v>11.21999999999999</v>
+        <v>-960344.0450201837</v>
       </c>
       <c r="H38" t="n">
-        <v>11.11166666666669</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,7 +1774,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C39" t="n">
         <v>11.2</v>
@@ -1853,27 +1783,28 @@
         <v>11.2</v>
       </c>
       <c r="E39" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F39" t="n">
-        <v>2510.9497</v>
+        <v>111706.1823</v>
       </c>
       <c r="G39" t="n">
-        <v>11.21999999999999</v>
+        <v>-848637.8627201837</v>
       </c>
       <c r="H39" t="n">
-        <v>11.11333333333336</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1885,33 +1816,34 @@
         <v>11.2</v>
       </c>
       <c r="C40" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D40" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="E40" t="n">
         <v>11.2</v>
       </c>
       <c r="F40" t="n">
-        <v>1541.4184</v>
+        <v>2100</v>
       </c>
       <c r="G40" t="n">
-        <v>11.21999999999999</v>
+        <v>-846537.8627201837</v>
       </c>
       <c r="H40" t="n">
-        <v>11.11333333333336</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1852,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C41" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D41" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E41" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F41" t="n">
-        <v>3784.2843</v>
+        <v>27746.5522</v>
       </c>
       <c r="G41" t="n">
-        <v>11.21999999999999</v>
+        <v>-874284.4149201837</v>
       </c>
       <c r="H41" t="n">
-        <v>11.11666666666669</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1970,24 +1903,25 @@
         <v>11.2</v>
       </c>
       <c r="F42" t="n">
-        <v>20942.5124</v>
+        <v>19713.493</v>
       </c>
       <c r="G42" t="n">
-        <v>11.21999999999999</v>
+        <v>-854570.9219201837</v>
       </c>
       <c r="H42" t="n">
-        <v>11.11833333333336</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1930,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C43" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D43" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E43" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>8033.0592</v>
       </c>
       <c r="G43" t="n">
-        <v>11.21333333333333</v>
+        <v>-854570.9219201837</v>
       </c>
       <c r="H43" t="n">
-        <v>11.11833333333336</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1969,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C44" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D44" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E44" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F44" t="n">
-        <v>471.6981</v>
+        <v>20000</v>
       </c>
       <c r="G44" t="n">
-        <v>11.19999999999999</v>
+        <v>-854570.9219201837</v>
       </c>
       <c r="H44" t="n">
-        <v>11.11833333333336</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2008,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C45" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="D45" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="E45" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F45" t="n">
-        <v>259450.6177</v>
+        <v>470451.651891228</v>
       </c>
       <c r="G45" t="n">
-        <v>11.19333333333333</v>
+        <v>-384119.2700289557</v>
       </c>
       <c r="H45" t="n">
-        <v>11.11833333333336</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2047,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="C46" t="n">
         <v>11.2</v>
       </c>
       <c r="D46" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="E46" t="n">
         <v>11.2</v>
       </c>
       <c r="F46" t="n">
-        <v>3204.4199</v>
+        <v>1111</v>
       </c>
       <c r="G46" t="n">
-        <v>11.19333333333333</v>
+        <v>-385230.2700289557</v>
       </c>
       <c r="H46" t="n">
-        <v>11.12166666666669</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2151,33 +2089,34 @@
         <v>11.2</v>
       </c>
       <c r="C47" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D47" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="E47" t="n">
         <v>11.2</v>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>29519.1176</v>
       </c>
       <c r="G47" t="n">
-        <v>11.19333333333333</v>
+        <v>-355711.1524289557</v>
       </c>
       <c r="H47" t="n">
-        <v>11.12500000000003</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2125,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C48" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D48" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E48" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F48" t="n">
-        <v>150000</v>
+        <v>55763.7727</v>
       </c>
       <c r="G48" t="n">
-        <v>11.17999999999999</v>
+        <v>-355711.1524289557</v>
       </c>
       <c r="H48" t="n">
-        <v>11.12500000000003</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2164,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C49" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D49" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E49" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F49" t="n">
-        <v>17500.8592</v>
+        <v>49834.3778</v>
       </c>
       <c r="G49" t="n">
-        <v>11.16666666666666</v>
+        <v>-355711.1524289557</v>
       </c>
       <c r="H49" t="n">
-        <v>11.12666666666669</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2274,24 +2215,25 @@
         <v>11.1</v>
       </c>
       <c r="F50" t="n">
-        <v>4248.7319</v>
+        <v>897.75</v>
       </c>
       <c r="G50" t="n">
-        <v>11.16666666666666</v>
+        <v>-356608.9024289557</v>
       </c>
       <c r="H50" t="n">
-        <v>11.12833333333336</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2242,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="C51" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D51" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="E51" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="F51" t="n">
-        <v>54177.0758</v>
+        <v>2442.3674</v>
       </c>
       <c r="G51" t="n">
-        <v>11.15999999999999</v>
+        <v>-354166.5350289557</v>
       </c>
       <c r="H51" t="n">
-        <v>11.12833333333336</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,74 +2281,70 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C52" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D52" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E52" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F52" t="n">
-        <v>637851.2332</v>
+        <v>866925.7664</v>
       </c>
       <c r="G52" t="n">
-        <v>11.14666666666666</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H52" t="n">
-        <v>11.13166666666669</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C53" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D53" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E53" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F53" t="n">
-        <v>1166.55</v>
+        <v>382054.2748</v>
       </c>
       <c r="G53" t="n">
-        <v>11.11999999999999</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H53" t="n">
-        <v>11.13166666666669</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2353,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C54" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E54" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F54" t="n">
-        <v>1055.45</v>
+        <v>369714.3011</v>
       </c>
       <c r="G54" t="n">
-        <v>11.09999999999999</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H54" t="n">
-        <v>11.13166666666669</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2388,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C55" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D55" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E55" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>46356.1353</v>
       </c>
       <c r="G55" t="n">
-        <v>11.09333333333332</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H55" t="n">
-        <v>11.1366666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2423,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C56" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E56" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F56" t="n">
-        <v>48792.0865</v>
+        <v>79173.3536</v>
       </c>
       <c r="G56" t="n">
-        <v>11.07333333333333</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H56" t="n">
-        <v>11.13500000000003</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2458,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C57" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D57" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E57" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>29393</v>
       </c>
       <c r="G57" t="n">
-        <v>11.06666666666666</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H57" t="n">
-        <v>11.1366666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2493,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="C58" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D58" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E58" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="F58" t="n">
-        <v>9526.936900000001</v>
+        <v>2366.0304</v>
       </c>
       <c r="G58" t="n">
-        <v>11.06666666666666</v>
+        <v>-1218726.271028956</v>
       </c>
       <c r="H58" t="n">
-        <v>11.14000000000003</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2528,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C59" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D59" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E59" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F59" t="n">
-        <v>80000</v>
+        <v>13054.1266</v>
       </c>
       <c r="G59" t="n">
-        <v>11.05999999999999</v>
+        <v>-1231780.397628956</v>
       </c>
       <c r="H59" t="n">
-        <v>11.1416666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2563,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C60" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D60" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E60" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F60" t="n">
-        <v>50</v>
+        <v>101108.8301</v>
       </c>
       <c r="G60" t="n">
-        <v>11.05999999999999</v>
+        <v>-1231780.397628956</v>
       </c>
       <c r="H60" t="n">
-        <v>11.14333333333336</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2598,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C61" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D61" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F61" t="n">
-        <v>117.3801</v>
+        <v>2110.6113</v>
       </c>
       <c r="G61" t="n">
-        <v>11.04666666666666</v>
+        <v>-1231780.397628956</v>
       </c>
       <c r="H61" t="n">
-        <v>11.14333333333336</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2633,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C62" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="D62" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="E62" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>23902.6738</v>
       </c>
       <c r="G62" t="n">
-        <v>11.02666666666666</v>
+        <v>-1207877.723828956</v>
       </c>
       <c r="H62" t="n">
-        <v>11.14500000000003</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2668,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C63" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D63" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E63" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F63" t="n">
-        <v>50</v>
+        <v>2589.5984</v>
       </c>
       <c r="G63" t="n">
-        <v>11.02666666666666</v>
+        <v>-1207877.723828956</v>
       </c>
       <c r="H63" t="n">
-        <v>11.1466666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2703,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C64" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D64" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E64" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F64" t="n">
-        <v>661611.0432</v>
+        <v>3278.9791</v>
       </c>
       <c r="G64" t="n">
-        <v>11.00666666666666</v>
+        <v>-1211156.702928956</v>
       </c>
       <c r="H64" t="n">
-        <v>11.14333333333336</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2738,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F65" t="n">
-        <v>5190.7972</v>
+        <v>10043.799</v>
       </c>
       <c r="G65" t="n">
-        <v>11</v>
+        <v>-1211156.702928956</v>
       </c>
       <c r="H65" t="n">
-        <v>11.14333333333336</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2773,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="C66" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D66" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G66" t="n">
-        <v>11</v>
+        <v>-1211106.702928956</v>
       </c>
       <c r="H66" t="n">
-        <v>11.14333333333336</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2808,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="C67" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="D67" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="E67" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="F67" t="n">
-        <v>3834</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>10.98</v>
+        <v>-1211106.702928956</v>
       </c>
       <c r="H67" t="n">
-        <v>11.13833333333336</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2843,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C68" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="D68" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="E68" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>2510.9497</v>
       </c>
       <c r="G68" t="n">
-        <v>10.97333333333333</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H68" t="n">
-        <v>11.13500000000003</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2878,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C69" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D69" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E69" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F69" t="n">
-        <v>2512.6937</v>
+        <v>1541.4184</v>
       </c>
       <c r="G69" t="n">
-        <v>10.98</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H69" t="n">
-        <v>11.13333333333336</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2913,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C70" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D70" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E70" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F70" t="n">
-        <v>31585.6115</v>
+        <v>3784.2843</v>
       </c>
       <c r="G70" t="n">
-        <v>10.96666666666667</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H70" t="n">
-        <v>11.12833333333336</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2948,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C71" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="D71" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="E71" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F71" t="n">
-        <v>48018.1718</v>
+        <v>20942.5124</v>
       </c>
       <c r="G71" t="n">
-        <v>10.96</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H71" t="n">
-        <v>11.12000000000003</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2983,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C72" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D72" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E72" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F72" t="n">
-        <v>5364.5249</v>
+        <v>2000</v>
       </c>
       <c r="G72" t="n">
-        <v>10.94666666666667</v>
+        <v>-1215617.652628956</v>
       </c>
       <c r="H72" t="n">
-        <v>11.11666666666669</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3018,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C73" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D73" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E73" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F73" t="n">
-        <v>38013.6084</v>
+        <v>471.6981</v>
       </c>
       <c r="G73" t="n">
-        <v>10.92666666666667</v>
+        <v>-1215617.652628956</v>
       </c>
       <c r="H73" t="n">
-        <v>11.11000000000002</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3053,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C74" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D74" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E74" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F74" t="n">
-        <v>13431.9835</v>
+        <v>259450.6177</v>
       </c>
       <c r="G74" t="n">
-        <v>10.92</v>
+        <v>-1215617.652628956</v>
       </c>
       <c r="H74" t="n">
-        <v>11.10500000000002</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3088,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C75" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D75" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E75" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F75" t="n">
-        <v>1510.9297</v>
+        <v>3204.4199</v>
       </c>
       <c r="G75" t="n">
-        <v>10.90666666666667</v>
+        <v>-1212413.232728956</v>
       </c>
       <c r="H75" t="n">
-        <v>11.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3123,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C76" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="D76" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="E76" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F76" t="n">
-        <v>58410.4079</v>
+        <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>10.89333333333334</v>
+        <v>-1212413.232728956</v>
       </c>
       <c r="H76" t="n">
-        <v>11.09000000000002</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3158,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C77" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D77" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E77" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F77" t="n">
-        <v>78762.8468</v>
+        <v>150000</v>
       </c>
       <c r="G77" t="n">
-        <v>10.88666666666667</v>
+        <v>-1362413.232728956</v>
       </c>
       <c r="H77" t="n">
-        <v>11.08333333333335</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3193,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C78" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D78" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E78" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F78" t="n">
-        <v>20000</v>
+        <v>17500.8592</v>
       </c>
       <c r="G78" t="n">
-        <v>10.86666666666667</v>
+        <v>-1362413.232728956</v>
       </c>
       <c r="H78" t="n">
-        <v>11.07500000000002</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3228,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C79" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D79" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E79" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F79" t="n">
-        <v>24683.5406</v>
+        <v>4248.7319</v>
       </c>
       <c r="G79" t="n">
-        <v>10.87333333333334</v>
+        <v>-1362413.232728956</v>
       </c>
       <c r="H79" t="n">
-        <v>11.06833333333335</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3263,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C80" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D80" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E80" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>166607.7778</v>
+        <v>54177.0758</v>
       </c>
       <c r="G80" t="n">
-        <v>10.86666666666667</v>
+        <v>-1416590.308528956</v>
       </c>
       <c r="H80" t="n">
-        <v>11.06166666666669</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3298,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D81" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E81" t="n">
         <v>10.9</v>
       </c>
       <c r="F81" t="n">
-        <v>5706.0814</v>
+        <v>637851.2332</v>
       </c>
       <c r="G81" t="n">
-        <v>10.86</v>
+        <v>-778739.0753289558</v>
       </c>
       <c r="H81" t="n">
-        <v>11.05833333333335</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3333,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C82" t="n">
         <v>10.9</v>
       </c>
       <c r="D82" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E82" t="n">
         <v>10.9</v>
       </c>
       <c r="F82" t="n">
-        <v>4908.7309</v>
+        <v>1166.55</v>
       </c>
       <c r="G82" t="n">
-        <v>10.86666666666667</v>
+        <v>-779905.6253289558</v>
       </c>
       <c r="H82" t="n">
-        <v>11.05166666666669</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3368,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C83" t="n">
         <v>10.9</v>
       </c>
       <c r="D83" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E83" t="n">
         <v>10.9</v>
       </c>
       <c r="F83" t="n">
-        <v>39818.1483</v>
+        <v>1055.45</v>
       </c>
       <c r="G83" t="n">
-        <v>10.87333333333334</v>
+        <v>-779905.6253289558</v>
       </c>
       <c r="H83" t="n">
-        <v>11.04666666666669</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3403,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D84" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E84" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F84" t="n">
         <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>10.87333333333334</v>
+        <v>-779855.6253289558</v>
       </c>
       <c r="H84" t="n">
-        <v>11.04333333333335</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3438,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D85" t="n">
         <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F85" t="n">
-        <v>150</v>
+        <v>48792.0865</v>
       </c>
       <c r="G85" t="n">
-        <v>10.88</v>
+        <v>-828647.7118289558</v>
       </c>
       <c r="H85" t="n">
-        <v>11.04000000000002</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3473,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C86" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D86" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E86" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F86" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="G86" t="n">
-        <v>10.89333333333334</v>
+        <v>-828597.7118289558</v>
       </c>
       <c r="H86" t="n">
-        <v>11.03666666666668</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3508,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C87" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D87" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F87" t="n">
-        <v>50</v>
+        <v>9526.936900000001</v>
       </c>
       <c r="G87" t="n">
-        <v>10.9</v>
+        <v>-828597.7118289558</v>
       </c>
       <c r="H87" t="n">
-        <v>11.03333333333335</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3543,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C88" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E88" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="G88" t="n">
-        <v>10.9</v>
+        <v>-908597.7118289558</v>
       </c>
       <c r="H88" t="n">
-        <v>11.02666666666668</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3578,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C89" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F89" t="n">
         <v>50</v>
       </c>
       <c r="G89" t="n">
-        <v>10.90666666666667</v>
+        <v>-908547.7118289558</v>
       </c>
       <c r="H89" t="n">
-        <v>11.02166666666668</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3613,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C90" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E90" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F90" t="n">
-        <v>18516.4227</v>
+        <v>117.3801</v>
       </c>
       <c r="G90" t="n">
-        <v>10.9</v>
+        <v>-908665.0919289557</v>
       </c>
       <c r="H90" t="n">
-        <v>11.01500000000001</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,24 +3660,21 @@
         <v>10.9</v>
       </c>
       <c r="F91" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G91" t="n">
-        <v>10.90666666666667</v>
+        <v>-908765.0919289557</v>
       </c>
       <c r="H91" t="n">
-        <v>11.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3683,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C92" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="D92" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E92" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="F92" t="n">
-        <v>368554.1806</v>
+        <v>50</v>
       </c>
       <c r="G92" t="n">
-        <v>10.9</v>
+        <v>-908715.0919289557</v>
       </c>
       <c r="H92" t="n">
-        <v>11.00166666666668</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3718,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C93" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D93" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E93" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F93" t="n">
-        <v>41814.8355</v>
+        <v>661611.0432</v>
       </c>
       <c r="G93" t="n">
-        <v>10.89333333333333</v>
+        <v>-1570326.135128956</v>
       </c>
       <c r="H93" t="n">
-        <v>10.99166666666668</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3753,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C94" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E94" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="F94" t="n">
-        <v>44339.182</v>
+        <v>5190.7972</v>
       </c>
       <c r="G94" t="n">
-        <v>10.88666666666666</v>
+        <v>-1565135.337928956</v>
       </c>
       <c r="H94" t="n">
-        <v>10.98333333333335</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3788,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E95" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F95" t="n">
-        <v>7931.8048</v>
+        <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>10.88666666666666</v>
+        <v>-1565135.337928956</v>
       </c>
       <c r="H95" t="n">
-        <v>10.98000000000001</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4013,33 +3826,30 @@
         <v>10.9</v>
       </c>
       <c r="C96" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D96" t="n">
         <v>10.9</v>
       </c>
       <c r="E96" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F96" t="n">
-        <v>30917.43119266055</v>
+        <v>3834</v>
       </c>
       <c r="G96" t="n">
-        <v>10.88666666666666</v>
+        <v>-1568969.337928956</v>
       </c>
       <c r="H96" t="n">
-        <v>10.97666666666668</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3858,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C97" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D97" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E97" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F97" t="n">
-        <v>2375.2572</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>10.88666666666666</v>
+        <v>-1568969.337928956</v>
       </c>
       <c r="H97" t="n">
-        <v>10.97000000000001</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3893,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C98" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F98" t="n">
-        <v>9127.8812</v>
+        <v>2512.6937</v>
       </c>
       <c r="G98" t="n">
-        <v>10.88666666666666</v>
+        <v>-1566456.644228956</v>
       </c>
       <c r="H98" t="n">
-        <v>10.96333333333335</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3928,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C99" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D99" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E99" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F99" t="n">
-        <v>3221</v>
+        <v>31585.6115</v>
       </c>
       <c r="G99" t="n">
-        <v>10.87333333333333</v>
+        <v>-1598042.255728956</v>
       </c>
       <c r="H99" t="n">
-        <v>10.95666666666668</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4165,33 +3966,30 @@
         <v>10.8</v>
       </c>
       <c r="C100" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D100" t="n">
         <v>10.8</v>
       </c>
       <c r="E100" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F100" t="n">
-        <v>30917.4312</v>
+        <v>48018.1718</v>
       </c>
       <c r="G100" t="n">
-        <v>10.85333333333333</v>
+        <v>-1646060.427528956</v>
       </c>
       <c r="H100" t="n">
-        <v>10.94833333333335</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4212,24 +4010,21 @@
         <v>10.9</v>
       </c>
       <c r="F101" t="n">
-        <v>826.9864</v>
+        <v>5364.5249</v>
       </c>
       <c r="G101" t="n">
-        <v>10.84666666666667</v>
+        <v>-1640695.902628956</v>
       </c>
       <c r="H101" t="n">
-        <v>10.94333333333335</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4033,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C102" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D102" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E102" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F102" t="n">
-        <v>51622.7888</v>
+        <v>38013.6084</v>
       </c>
       <c r="G102" t="n">
-        <v>10.84</v>
+        <v>-1678709.511028956</v>
       </c>
       <c r="H102" t="n">
-        <v>10.93833333333334</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,7 +4068,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C103" t="n">
         <v>10.9</v>
@@ -4285,27 +4077,24 @@
         <v>10.9</v>
       </c>
       <c r="E103" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F103" t="n">
-        <v>39119.7757</v>
+        <v>13431.9835</v>
       </c>
       <c r="G103" t="n">
-        <v>10.84666666666667</v>
+        <v>-1665277.527528956</v>
       </c>
       <c r="H103" t="n">
-        <v>10.93500000000001</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4326,24 +4115,21 @@
         <v>10.9</v>
       </c>
       <c r="F104" t="n">
-        <v>7443.7017</v>
+        <v>1510.9297</v>
       </c>
       <c r="G104" t="n">
-        <v>10.84</v>
+        <v>-1665277.527528956</v>
       </c>
       <c r="H104" t="n">
-        <v>10.93166666666668</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,24 +4150,21 @@
         <v>10.8</v>
       </c>
       <c r="F105" t="n">
-        <v>2077.1203</v>
+        <v>58410.4079</v>
       </c>
       <c r="G105" t="n">
-        <v>10.84</v>
+        <v>-1723687.935428956</v>
       </c>
       <c r="H105" t="n">
-        <v>10.92666666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4173,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="C106" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D106" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="E106" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F106" t="n">
-        <v>166657.7778</v>
+        <v>78762.8468</v>
       </c>
       <c r="G106" t="n">
-        <v>10.82666666666666</v>
+        <v>-1723687.935428956</v>
       </c>
       <c r="H106" t="n">
-        <v>10.91833333333334</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,33 +4211,30 @@
         <v>10.8</v>
       </c>
       <c r="C107" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D107" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E107" t="n">
         <v>10.8</v>
       </c>
       <c r="F107" t="n">
-        <v>350</v>
+        <v>20000</v>
       </c>
       <c r="G107" t="n">
-        <v>10.84</v>
+        <v>-1723687.935428956</v>
       </c>
       <c r="H107" t="n">
-        <v>10.91333333333334</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4243,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C108" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="D108" t="n">
         <v>10.9</v>
       </c>
       <c r="E108" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="F108" t="n">
-        <v>600</v>
+        <v>24683.5406</v>
       </c>
       <c r="G108" t="n">
-        <v>10.84</v>
+        <v>-1699004.394828956</v>
       </c>
       <c r="H108" t="n">
-        <v>10.90666666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4516,24 +4290,25 @@
         <v>10.9</v>
       </c>
       <c r="F109" t="n">
-        <v>1950</v>
+        <v>166607.7778</v>
       </c>
       <c r="G109" t="n">
-        <v>10.84666666666667</v>
+        <v>-1699004.394828956</v>
       </c>
       <c r="H109" t="n">
-        <v>10.90333333333334</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+        <v>10.9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>10.9</v>
+      </c>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,24 +4329,27 @@
         <v>10.9</v>
       </c>
       <c r="F110" t="n">
-        <v>1300</v>
+        <v>5706.0814</v>
       </c>
       <c r="G110" t="n">
-        <v>10.84666666666667</v>
+        <v>-1699004.394828956</v>
       </c>
       <c r="H110" t="n">
-        <v>10.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4358,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C111" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="D111" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="E111" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="F111" t="n">
-        <v>5000</v>
+        <v>4908.7309</v>
       </c>
       <c r="G111" t="n">
-        <v>10.83333333333333</v>
+        <v>-1699004.394828956</v>
       </c>
       <c r="H111" t="n">
-        <v>10.89500000000001</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K111" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,24 +4413,21 @@
         <v>10.9</v>
       </c>
       <c r="F112" t="n">
-        <v>1365</v>
+        <v>39818.1483</v>
       </c>
       <c r="G112" t="n">
-        <v>10.83333333333333</v>
+        <v>-1699004.394828956</v>
       </c>
       <c r="H112" t="n">
-        <v>10.89166666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4436,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E113" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="G113" t="n">
-        <v>10.83333333333333</v>
+        <v>-1698954.394828956</v>
       </c>
       <c r="H113" t="n">
-        <v>10.89166666666667</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+        <v>10.9</v>
+      </c>
+      <c r="K113" t="n">
+        <v>10.9</v>
+      </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4697,33 +4478,36 @@
         <v>10.8</v>
       </c>
       <c r="C114" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E114" t="n">
         <v>10.8</v>
       </c>
       <c r="F114" t="n">
-        <v>47699.9531</v>
+        <v>150</v>
       </c>
       <c r="G114" t="n">
-        <v>10.83333333333333</v>
+        <v>-1698954.394828956</v>
       </c>
       <c r="H114" t="n">
-        <v>10.89000000000001</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4516,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C115" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D115" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E115" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>325</v>
+        <v>5000</v>
       </c>
       <c r="G115" t="n">
-        <v>10.84666666666667</v>
+        <v>-1698954.394828956</v>
       </c>
       <c r="H115" t="n">
-        <v>10.88666666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4557,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C116" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E116" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>12508.7985</v>
+        <v>50</v>
       </c>
       <c r="G116" t="n">
-        <v>10.84666666666667</v>
+        <v>-1698954.394828956</v>
       </c>
       <c r="H116" t="n">
-        <v>10.88666666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4598,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C117" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D117" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E117" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F117" t="n">
-        <v>32125.5827</v>
+        <v>1000</v>
       </c>
       <c r="G117" t="n">
-        <v>10.84666666666667</v>
+        <v>-1699954.394828956</v>
       </c>
       <c r="H117" t="n">
-        <v>10.88333333333334</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4849,33 +4642,36 @@
         <v>11</v>
       </c>
       <c r="C118" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E118" t="n">
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>106742.77</v>
+        <v>50</v>
       </c>
       <c r="G118" t="n">
-        <v>10.86</v>
+        <v>-1699904.394828956</v>
       </c>
       <c r="H118" t="n">
-        <v>10.88333333333334</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4680,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C119" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D119" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E119" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F119" t="n">
-        <v>19253.3006</v>
+        <v>18516.4227</v>
       </c>
       <c r="G119" t="n">
-        <v>10.86666666666667</v>
+        <v>-1718420.817528956</v>
       </c>
       <c r="H119" t="n">
-        <v>10.88333333333334</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4721,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C120" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D120" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E120" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F120" t="n">
-        <v>2861.9096</v>
+        <v>50</v>
       </c>
       <c r="G120" t="n">
-        <v>10.88</v>
+        <v>-1718370.817528956</v>
       </c>
       <c r="H120" t="n">
-        <v>10.88166666666667</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4762,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C121" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D121" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E121" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F121" t="n">
-        <v>45341.1562</v>
+        <v>368554.1806</v>
       </c>
       <c r="G121" t="n">
-        <v>10.9</v>
+        <v>-2086924.998128956</v>
       </c>
       <c r="H121" t="n">
-        <v>10.88166666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4803,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C122" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D122" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E122" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F122" t="n">
-        <v>52925.5197</v>
+        <v>41814.8355</v>
       </c>
       <c r="G122" t="n">
-        <v>10.90666666666666</v>
+        <v>-2086924.998128956</v>
       </c>
       <c r="H122" t="n">
-        <v>10.88333333333334</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4844,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C123" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D123" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E123" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F123" t="n">
-        <v>25411.488</v>
+        <v>44339.182</v>
       </c>
       <c r="G123" t="n">
-        <v>10.92666666666667</v>
+        <v>-2042585.816128956</v>
       </c>
       <c r="H123" t="n">
-        <v>10.88166666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4885,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C124" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D124" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E124" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="F124" t="n">
-        <v>325</v>
+        <v>7931.8048</v>
       </c>
       <c r="G124" t="n">
-        <v>10.94</v>
+        <v>-2034654.011328956</v>
       </c>
       <c r="H124" t="n">
-        <v>10.88666666666667</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4926,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="C125" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D125" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E125" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F125" t="n">
-        <v>1514.9761</v>
+        <v>30917.43119266055</v>
       </c>
       <c r="G125" t="n">
-        <v>10.94666666666666</v>
+        <v>-2034654.011328956</v>
       </c>
       <c r="H125" t="n">
-        <v>10.88666666666667</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4967,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C126" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D126" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F126" t="n">
-        <v>2103.5275</v>
+        <v>2375.2572</v>
       </c>
       <c r="G126" t="n">
-        <v>10.96666666666667</v>
+        <v>-2034654.011328956</v>
       </c>
       <c r="H126" t="n">
-        <v>10.88666666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +5008,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C127" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D127" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E127" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F127" t="n">
-        <v>38117.323</v>
+        <v>9127.8812</v>
       </c>
       <c r="G127" t="n">
-        <v>10.97333333333333</v>
+        <v>-2034654.011328956</v>
       </c>
       <c r="H127" t="n">
-        <v>10.89000000000001</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +5049,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C128" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D128" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E128" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F128" t="n">
-        <v>39423.7701</v>
+        <v>3221</v>
       </c>
       <c r="G128" t="n">
-        <v>10.98</v>
+        <v>-2037875.011328956</v>
       </c>
       <c r="H128" t="n">
-        <v>10.89333333333334</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +5090,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C129" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D129" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E129" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F129" t="n">
-        <v>336.7571</v>
+        <v>30917.4312</v>
       </c>
       <c r="G129" t="n">
-        <v>10.99333333333333</v>
+        <v>-2068792.442528956</v>
       </c>
       <c r="H129" t="n">
-        <v>10.89333333333334</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5305,33 +5134,36 @@
         <v>10.9</v>
       </c>
       <c r="C130" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D130" t="n">
         <v>10.9</v>
       </c>
       <c r="E130" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F130" t="n">
-        <v>82001.4057</v>
+        <v>826.9864</v>
       </c>
       <c r="G130" t="n">
-        <v>10.98666666666666</v>
+        <v>-2067965.456128956</v>
       </c>
       <c r="H130" t="n">
-        <v>10.89166666666667</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,40 +5172,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C131" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D131" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E131" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F131" t="n">
-        <v>8741.158799999999</v>
+        <v>51622.7888</v>
       </c>
       <c r="G131" t="n">
-        <v>10.98</v>
+        <v>-2067965.456128956</v>
       </c>
       <c r="H131" t="n">
-        <v>10.89166666666667</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L131" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,44 +5213,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C132" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D132" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E132" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F132" t="n">
-        <v>514.7839</v>
+        <v>39119.7757</v>
       </c>
       <c r="G132" t="n">
-        <v>10.98666666666666</v>
+        <v>-2067965.456128956</v>
       </c>
       <c r="H132" t="n">
-        <v>10.89333333333334</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L132" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,44 +5254,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C133" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D133" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E133" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F133" t="n">
-        <v>17796.771</v>
+        <v>7443.7017</v>
       </c>
       <c r="G133" t="n">
-        <v>10.98</v>
+        <v>-2067965.456128956</v>
       </c>
       <c r="H133" t="n">
-        <v>10.89666666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>11</v>
-      </c>
-      <c r="L133" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,36 +5295,1246 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C134" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D134" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E134" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="F134" t="n">
+        <v>2077.1203</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2070042.576428956</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>166657.7778</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2236700.354228956</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>350</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2236350.354228956</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K136" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>600</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2236950.354228956</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K137" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1950</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2235000.354228956</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2235000.354228956</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2240000.354228956</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1365</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2238635.354228956</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K141" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>130</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2238635.354228956</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K142" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>47699.9531</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2286335.307328956</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>325</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2286010.307328956</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>12508.7985</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2286010.307328956</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>32125.5827</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2286010.307328956</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>11</v>
+      </c>
+      <c r="C147" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>11</v>
+      </c>
+      <c r="F147" t="n">
+        <v>106742.77</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2179267.537328956</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>11</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11</v>
+      </c>
+      <c r="F148" t="n">
+        <v>19253.3006</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>11</v>
+      </c>
+      <c r="C149" t="n">
+        <v>11</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2861.9096</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11</v>
+      </c>
+      <c r="C150" t="n">
+        <v>11</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11</v>
+      </c>
+      <c r="F150" t="n">
+        <v>45341.1562</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11</v>
+      </c>
+      <c r="F151" t="n">
+        <v>52925.5197</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11</v>
+      </c>
+      <c r="E152" t="n">
+        <v>11</v>
+      </c>
+      <c r="F152" t="n">
+        <v>25411.488</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>325</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2198195.837928956</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>11</v>
+      </c>
+      <c r="K153" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1514.9761</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2103.5275</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11</v>
+      </c>
+      <c r="F156" t="n">
+        <v>38117.323</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11</v>
+      </c>
+      <c r="F157" t="n">
+        <v>39423.7701</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11</v>
+      </c>
+      <c r="F158" t="n">
+        <v>336.7571</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>82001.4057</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2281712.219728956</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8741.158799999999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2281712.219728956</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K160" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11</v>
+      </c>
+      <c r="F161" t="n">
+        <v>514.7839</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2281197.435828956</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17796.771</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-2281197.435828956</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F163" t="n">
         <v>46</v>
       </c>
-      <c r="G134" t="n">
-        <v>10.98666666666666</v>
-      </c>
-      <c r="H134" t="n">
-        <v>10.90000000000001</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="G163" t="n">
+        <v>-2281151.435828956</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K163" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="D2" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="E2" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F2" t="n">
-        <v>1627.2656</v>
+        <v>20000</v>
       </c>
       <c r="G2" t="n">
-        <v>-848844.0241201835</v>
+        <v>-854570.9219201837</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7</v>
+        <v>11.4</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7</v>
+        <v>11.4</v>
       </c>
       <c r="E3" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="F3" t="n">
-        <v>218238.759</v>
+        <v>470451.651891228</v>
       </c>
       <c r="G3" t="n">
-        <v>-1067082.783120184</v>
+        <v>-384119.2700289557</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D4" t="n">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="E4" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>1111</v>
       </c>
       <c r="G4" t="n">
-        <v>-1067032.783120184</v>
+        <v>-385230.2700289557</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="D5" t="n">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="E5" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F5" t="n">
-        <v>11176.9929</v>
+        <v>29519.1176</v>
       </c>
       <c r="G5" t="n">
-        <v>-1067032.783120184</v>
+        <v>-355711.1524289557</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="F6" t="n">
-        <v>262680.3563</v>
+        <v>55763.7727</v>
       </c>
       <c r="G6" t="n">
-        <v>-804352.4268201835</v>
+        <v>-355711.1524289557</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="F7" t="n">
-        <v>79513.1949</v>
+        <v>49834.3778</v>
       </c>
       <c r="G7" t="n">
-        <v>-804352.4268201835</v>
+        <v>-355711.1524289557</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -655,16 +666,16 @@
         <v>11.1</v>
       </c>
       <c r="F8" t="n">
-        <v>92592.5925</v>
+        <v>897.75</v>
       </c>
       <c r="G8" t="n">
-        <v>-711759.8343201835</v>
+        <v>-356608.9024289557</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D9" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="E9" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F9" t="n">
-        <v>86695.3891</v>
+        <v>2442.3674</v>
       </c>
       <c r="G9" t="n">
-        <v>-625064.4452201835</v>
+        <v>-354166.5350289557</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F10" t="n">
-        <v>121133.4713</v>
+        <v>866925.7664</v>
       </c>
       <c r="G10" t="n">
-        <v>-746197.9165201834</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C11" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D11" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E11" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F11" t="n">
-        <v>8613.7022</v>
+        <v>382054.2748</v>
       </c>
       <c r="G11" t="n">
-        <v>-737584.2143201835</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E12" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F12" t="n">
-        <v>228630.8521</v>
+        <v>369714.3011</v>
       </c>
       <c r="G12" t="n">
-        <v>-737584.2143201835</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D13" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E13" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F13" t="n">
-        <v>66390.73119999999</v>
+        <v>46356.1353</v>
       </c>
       <c r="G13" t="n">
-        <v>-737584.2143201835</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C14" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D14" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F14" t="n">
-        <v>5989.0668</v>
+        <v>79173.3536</v>
       </c>
       <c r="G14" t="n">
-        <v>-737584.2143201835</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F15" t="n">
-        <v>74074.2473</v>
+        <v>29393</v>
       </c>
       <c r="G15" t="n">
-        <v>-811658.4616201835</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="F16" t="n">
-        <v>33880.1969</v>
+        <v>2366.0304</v>
       </c>
       <c r="G16" t="n">
-        <v>-811658.4616201835</v>
+        <v>-1218726.271028956</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D17" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F17" t="n">
-        <v>20587.8849</v>
+        <v>13054.1266</v>
       </c>
       <c r="G17" t="n">
-        <v>-791070.5767201836</v>
+        <v>-1231780.397628956</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F18" t="n">
-        <v>129843.5419</v>
+        <v>101108.8301</v>
       </c>
       <c r="G18" t="n">
-        <v>-920914.1186201836</v>
+        <v>-1231780.397628956</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F19" t="n">
-        <v>2240.5948</v>
+        <v>2110.6113</v>
       </c>
       <c r="G19" t="n">
-        <v>-920914.1186201836</v>
+        <v>-1231780.397628956</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F20" t="n">
-        <v>1681.8428</v>
+        <v>23902.6738</v>
       </c>
       <c r="G20" t="n">
-        <v>-920914.1186201836</v>
+        <v>-1207877.723828956</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="C21" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="D21" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="E21" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="F21" t="n">
-        <v>65058.526</v>
+        <v>2589.5984</v>
       </c>
       <c r="G21" t="n">
-        <v>-985972.6446201835</v>
+        <v>-1207877.723828956</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C22" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D22" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E22" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F22" t="n">
-        <v>50307.8176</v>
+        <v>3278.9791</v>
       </c>
       <c r="G22" t="n">
-        <v>-985972.6446201835</v>
+        <v>-1211156.702928956</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C23" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D23" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E23" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F23" t="n">
-        <v>44052.2187</v>
+        <v>10043.799</v>
       </c>
       <c r="G23" t="n">
-        <v>-985972.6446201835</v>
+        <v>-1211156.702928956</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="C24" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="D24" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="E24" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="F24" t="n">
-        <v>458.5805</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>-986431.2251201835</v>
+        <v>-1211106.702928956</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>-986381.2251201835</v>
+        <v>-1211106.702928956</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F26" t="n">
-        <v>30760.2771</v>
+        <v>2510.9497</v>
       </c>
       <c r="G26" t="n">
-        <v>-986381.2251201835</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C27" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D27" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E27" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F27" t="n">
-        <v>121039.1514</v>
+        <v>1541.4184</v>
       </c>
       <c r="G27" t="n">
-        <v>-1107420.376520184</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C28" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D28" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E28" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F28" t="n">
-        <v>1280.5767</v>
+        <v>3784.2843</v>
       </c>
       <c r="G28" t="n">
-        <v>-1107420.376520184</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,110 +1403,101 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E29" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F29" t="n">
-        <v>69953.9143</v>
+        <v>20942.5124</v>
       </c>
       <c r="G29" t="n">
-        <v>-1037466.462220184</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>10.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F30" t="n">
-        <v>108309.7411</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="n">
-        <v>-1037466.462220184</v>
+        <v>-1215617.652628956</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C31" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D31" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E31" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F31" t="n">
-        <v>458.5805</v>
+        <v>471.6981</v>
       </c>
       <c r="G31" t="n">
-        <v>-1037925.042720184</v>
+        <v>-1215617.652628956</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1485,36 +1507,33 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F32" t="n">
-        <v>2720.3899</v>
+        <v>259450.6177</v>
       </c>
       <c r="G32" t="n">
-        <v>-1035204.652820184</v>
+        <v>-1215617.652628956</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1524,77 +1543,69 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F33" t="n">
-        <v>2448.3509</v>
+        <v>3204.4199</v>
       </c>
       <c r="G33" t="n">
-        <v>-1035204.652820184</v>
+        <v>-1212413.232728956</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>11</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C34" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D34" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E34" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F34" t="n">
-        <v>106817.9136</v>
+        <v>50</v>
       </c>
       <c r="G34" t="n">
-        <v>-1035204.652820184</v>
+        <v>-1212413.232728956</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1604,36 +1615,33 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C35" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F35" t="n">
-        <v>158749.9337</v>
+        <v>150000</v>
       </c>
       <c r="G35" t="n">
-        <v>-1035204.652820184</v>
+        <v>-1362413.232728956</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1643,14 +1651,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1669,49 +1674,46 @@
         <v>11.1</v>
       </c>
       <c r="F36" t="n">
-        <v>261296.2027</v>
+        <v>17500.8592</v>
       </c>
       <c r="G36" t="n">
-        <v>-773908.4501201836</v>
+        <v>-1362413.232728956</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C37" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D37" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F37" t="n">
-        <v>200839.3995</v>
+        <v>4248.7319</v>
       </c>
       <c r="G37" t="n">
-        <v>-974747.8496201837</v>
+        <v>-1362413.232728956</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1721,36 +1723,33 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>14403.8046</v>
+        <v>54177.0758</v>
       </c>
       <c r="G38" t="n">
-        <v>-960344.0450201837</v>
+        <v>-1416590.308528956</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1760,36 +1759,33 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D39" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E39" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F39" t="n">
-        <v>111706.1823</v>
+        <v>637851.2332</v>
       </c>
       <c r="G39" t="n">
-        <v>-848637.8627201837</v>
+        <v>-778739.0753289558</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1799,36 +1795,33 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C40" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="D40" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E40" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F40" t="n">
-        <v>2100</v>
+        <v>1166.55</v>
       </c>
       <c r="G40" t="n">
-        <v>-846537.8627201837</v>
+        <v>-779905.6253289558</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1838,36 +1831,33 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D41" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F41" t="n">
-        <v>27746.5522</v>
+        <v>1055.45</v>
       </c>
       <c r="G41" t="n">
-        <v>-874284.4149201837</v>
+        <v>-779905.6253289558</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1877,36 +1867,33 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C42" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D42" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E42" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F42" t="n">
-        <v>19713.493</v>
+        <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>-854570.9219201837</v>
+        <v>-779855.6253289558</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1916,36 +1903,33 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C43" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D43" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E43" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F43" t="n">
-        <v>8033.0592</v>
+        <v>48792.0865</v>
       </c>
       <c r="G43" t="n">
-        <v>-854570.9219201837</v>
+        <v>-828647.7118289558</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1955,36 +1939,33 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C44" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D44" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E44" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F44" t="n">
-        <v>20000</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>-854570.9219201837</v>
+        <v>-828597.7118289558</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1994,36 +1975,33 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="C45" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="D45" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="E45" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="F45" t="n">
-        <v>470451.651891228</v>
+        <v>9526.936900000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-384119.2700289557</v>
+        <v>-828597.7118289558</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2033,36 +2011,33 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="C46" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F46" t="n">
-        <v>1111</v>
+        <v>80000</v>
       </c>
       <c r="G46" t="n">
-        <v>-385230.2700289557</v>
+        <v>-908597.7118289558</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2072,36 +2047,33 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C47" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D47" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="E47" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F47" t="n">
-        <v>29519.1176</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>-355711.1524289557</v>
+        <v>-908547.7118289558</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2111,36 +2083,33 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F48" t="n">
-        <v>55763.7727</v>
+        <v>117.3801</v>
       </c>
       <c r="G48" t="n">
-        <v>-355711.1524289557</v>
+        <v>-908665.0919289557</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2150,53 +2119,47 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="C49" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="D49" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="E49" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="F49" t="n">
-        <v>49834.3778</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>-355711.1524289557</v>
+        <v>-908765.0919289557</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2215,10 +2178,10 @@
         <v>11.1</v>
       </c>
       <c r="F50" t="n">
-        <v>897.75</v>
+        <v>50</v>
       </c>
       <c r="G50" t="n">
-        <v>-356608.9024289557</v>
+        <v>-908715.0919289557</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2228,118 +2191,111 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="C51" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="D51" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="E51" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="F51" t="n">
-        <v>2442.3674</v>
+        <v>661611.0432</v>
       </c>
       <c r="G51" t="n">
-        <v>-354166.5350289557</v>
+        <v>-1570326.135128956</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E52" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F52" t="n">
-        <v>866925.7664</v>
+        <v>5190.7972</v>
       </c>
       <c r="G52" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1565135.337928956</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C53" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E53" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F53" t="n">
-        <v>382054.2748</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1565135.337928956</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2347,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C54" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="D54" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E54" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="F54" t="n">
-        <v>369714.3011</v>
+        <v>3834</v>
       </c>
       <c r="G54" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1568969.337928956</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2382,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="C55" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="D55" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="E55" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="F55" t="n">
-        <v>46356.1353</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1568969.337928956</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2417,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="C56" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="F56" t="n">
-        <v>79173.3536</v>
+        <v>2512.6937</v>
       </c>
       <c r="G56" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1566456.644228956</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2452,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C57" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D57" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E57" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F57" t="n">
-        <v>29393</v>
+        <v>31585.6115</v>
       </c>
       <c r="G57" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1598042.255728956</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2487,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="C58" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="D58" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="E58" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="F58" t="n">
-        <v>2366.0304</v>
+        <v>48018.1718</v>
       </c>
       <c r="G58" t="n">
-        <v>-1218726.271028956</v>
+        <v>-1646060.427528956</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2522,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C59" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D59" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E59" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F59" t="n">
-        <v>13054.1266</v>
+        <v>5364.5249</v>
       </c>
       <c r="G59" t="n">
-        <v>-1231780.397628956</v>
+        <v>-1640695.902628956</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2557,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="C60" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="D60" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="E60" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="F60" t="n">
-        <v>101108.8301</v>
+        <v>38013.6084</v>
       </c>
       <c r="G60" t="n">
-        <v>-1231780.397628956</v>
+        <v>-1678709.511028956</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2592,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="C61" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D61" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E61" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="F61" t="n">
-        <v>2110.6113</v>
+        <v>13431.9835</v>
       </c>
       <c r="G61" t="n">
-        <v>-1231780.397628956</v>
+        <v>-1665277.527528956</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2627,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C62" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="D62" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="E62" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F62" t="n">
-        <v>23902.6738</v>
+        <v>1510.9297</v>
       </c>
       <c r="G62" t="n">
-        <v>-1207877.723828956</v>
+        <v>-1665277.527528956</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2662,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="C63" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="D63" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="E63" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="F63" t="n">
-        <v>2589.5984</v>
+        <v>58410.4079</v>
       </c>
       <c r="G63" t="n">
-        <v>-1207877.723828956</v>
+        <v>-1723687.935428956</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2697,378 +2663,457 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C64" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D64" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E64" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="F64" t="n">
-        <v>3278.9791</v>
+        <v>78762.8468</v>
       </c>
       <c r="G64" t="n">
-        <v>-1211156.702928956</v>
+        <v>-1723687.935428956</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>10.8</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C65" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D65" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E65" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="F65" t="n">
-        <v>10043.799</v>
+        <v>20000</v>
       </c>
       <c r="G65" t="n">
-        <v>-1211156.702928956</v>
+        <v>-1723687.935428956</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="C66" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="D66" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="E66" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>24683.5406</v>
       </c>
       <c r="G66" t="n">
-        <v>-1211106.702928956</v>
+        <v>-1699004.394828956</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K66" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="C67" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="D67" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="E67" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>166607.7778</v>
       </c>
       <c r="G67" t="n">
-        <v>-1211106.702928956</v>
+        <v>-1699004.394828956</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K67" t="n">
+        <v>10.9</v>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C68" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D68" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E68" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F68" t="n">
-        <v>2510.9497</v>
+        <v>5706.0814</v>
       </c>
       <c r="G68" t="n">
-        <v>-1213617.652628956</v>
+        <v>-1699004.394828956</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K68" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C69" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D69" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E69" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F69" t="n">
-        <v>1541.4184</v>
+        <v>4908.7309</v>
       </c>
       <c r="G69" t="n">
-        <v>-1213617.652628956</v>
+        <v>-1699004.394828956</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K69" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C70" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D70" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E70" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F70" t="n">
-        <v>3784.2843</v>
+        <v>39818.1483</v>
       </c>
       <c r="G70" t="n">
-        <v>-1213617.652628956</v>
+        <v>-1699004.394828956</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K70" t="n">
+        <v>10.9</v>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C71" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F71" t="n">
-        <v>20942.5124</v>
+        <v>50</v>
       </c>
       <c r="G71" t="n">
-        <v>-1213617.652628956</v>
+        <v>-1698954.394828956</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K71" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C72" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E72" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="F72" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G72" t="n">
-        <v>-1215617.652628956</v>
+        <v>-1698954.394828956</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11</v>
+      </c>
+      <c r="K72" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C73" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E73" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>471.6981</v>
+        <v>5000</v>
       </c>
       <c r="G73" t="n">
-        <v>-1215617.652628956</v>
+        <v>-1698954.394828956</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C74" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E74" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>259450.6177</v>
+        <v>50</v>
       </c>
       <c r="G74" t="n">
-        <v>-1215617.652628956</v>
+        <v>-1698954.394828956</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3077,33 +3122,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="C75" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="D75" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="E75" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="F75" t="n">
-        <v>3204.4199</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="n">
-        <v>-1212413.232728956</v>
+        <v>-1699954.394828956</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3112,33 +3164,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C76" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E76" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F76" t="n">
         <v>50</v>
       </c>
       <c r="G76" t="n">
-        <v>-1212413.232728956</v>
+        <v>-1699904.394828956</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3147,33 +3206,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C77" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D77" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E77" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="F77" t="n">
-        <v>150000</v>
+        <v>18516.4227</v>
       </c>
       <c r="G77" t="n">
-        <v>-1362413.232728956</v>
+        <v>-1718420.817528956</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3182,33 +3248,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="C78" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D78" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E78" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F78" t="n">
-        <v>17500.8592</v>
+        <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>-1362413.232728956</v>
+        <v>-1718370.817528956</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3217,33 +3290,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C79" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="D79" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E79" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="F79" t="n">
-        <v>4248.7319</v>
+        <v>368554.1806</v>
       </c>
       <c r="G79" t="n">
-        <v>-1362413.232728956</v>
+        <v>-2086924.998128956</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3252,33 +3332,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C80" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D80" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E80" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F80" t="n">
-        <v>54177.0758</v>
+        <v>41814.8355</v>
       </c>
       <c r="G80" t="n">
-        <v>-1416590.308528956</v>
+        <v>-2086924.998128956</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3287,68 +3374,84 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C81" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D81" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E81" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="F81" t="n">
-        <v>637851.2332</v>
+        <v>44339.182</v>
       </c>
       <c r="G81" t="n">
-        <v>-778739.0753289558</v>
+        <v>-2042585.816128956</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K81" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C82" t="n">
         <v>10.9</v>
       </c>
       <c r="D82" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E82" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F82" t="n">
-        <v>1166.55</v>
+        <v>7931.8048</v>
       </c>
       <c r="G82" t="n">
-        <v>-779905.6253289558</v>
+        <v>-2034654.011328956</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3357,33 +3460,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C83" t="n">
         <v>10.9</v>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E83" t="n">
         <v>10.9</v>
       </c>
       <c r="F83" t="n">
-        <v>1055.45</v>
+        <v>30917.43119266055</v>
       </c>
       <c r="G83" t="n">
-        <v>-779905.6253289558</v>
+        <v>-2034654.011328956</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3392,33 +3502,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="C84" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D84" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E84" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F84" t="n">
-        <v>50</v>
+        <v>2375.2572</v>
       </c>
       <c r="G84" t="n">
-        <v>-779855.6253289558</v>
+        <v>-2034654.011328956</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3427,33 +3544,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C85" t="n">
         <v>10.9</v>
       </c>
       <c r="D85" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E85" t="n">
         <v>10.9</v>
       </c>
       <c r="F85" t="n">
-        <v>48792.0865</v>
+        <v>9127.8812</v>
       </c>
       <c r="G85" t="n">
-        <v>-828647.7118289558</v>
+        <v>-2034654.011328956</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,33 +3586,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C86" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D86" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E86" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>3221</v>
       </c>
       <c r="G86" t="n">
-        <v>-828597.7118289558</v>
+        <v>-2037875.011328956</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3497,33 +3628,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C87" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="D87" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E87" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="F87" t="n">
-        <v>9526.936900000001</v>
+        <v>30917.4312</v>
       </c>
       <c r="G87" t="n">
-        <v>-828597.7118289558</v>
+        <v>-2068792.442528956</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3532,116 +3670,150 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E88" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F88" t="n">
-        <v>80000</v>
+        <v>826.9864</v>
       </c>
       <c r="G88" t="n">
-        <v>-908597.7118289558</v>
+        <v>-2067965.456128956</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K88" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="C89" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D89" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E89" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F89" t="n">
-        <v>50</v>
+        <v>51622.7888</v>
       </c>
       <c r="G89" t="n">
-        <v>-908547.7118289558</v>
+        <v>-2067965.456128956</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C90" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D90" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E90" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F90" t="n">
-        <v>117.3801</v>
+        <v>39119.7757</v>
       </c>
       <c r="G90" t="n">
-        <v>-908665.0919289557</v>
+        <v>-2067965.456128956</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K90" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,10 +3832,10 @@
         <v>10.9</v>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>7443.7017</v>
       </c>
       <c r="G91" t="n">
-        <v>-908765.0919289557</v>
+        <v>-2067965.456128956</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3672,33 +3844,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C92" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D92" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E92" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="F92" t="n">
-        <v>50</v>
+        <v>2077.1203</v>
       </c>
       <c r="G92" t="n">
-        <v>-908715.0919289557</v>
+        <v>-2070042.576428956</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3707,33 +3886,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="C93" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="D93" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="E93" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F93" t="n">
-        <v>661611.0432</v>
+        <v>166657.7778</v>
       </c>
       <c r="G93" t="n">
-        <v>-1570326.135128956</v>
+        <v>-2236700.354228956</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3742,81 +3928,106 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D94" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E94" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F94" t="n">
-        <v>5190.7972</v>
+        <v>350</v>
       </c>
       <c r="G94" t="n">
-        <v>-1565135.337928956</v>
+        <v>-2236350.354228956</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K94" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="C95" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D95" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E95" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F95" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G95" t="n">
-        <v>-1565135.337928956</v>
+        <v>-2236950.354228956</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K95" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3826,54 +4037,63 @@
         <v>10.9</v>
       </c>
       <c r="C96" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D96" t="n">
         <v>10.9</v>
       </c>
       <c r="E96" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F96" t="n">
-        <v>3834</v>
+        <v>1950</v>
       </c>
       <c r="G96" t="n">
-        <v>-1568969.337928956</v>
+        <v>-2235000.354228956</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K96" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C97" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D97" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E97" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F97" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G97" t="n">
-        <v>-1568969.337928956</v>
+        <v>-2235000.354228956</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3882,33 +4102,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="C98" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D98" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="E98" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F98" t="n">
-        <v>2512.6937</v>
+        <v>5000</v>
       </c>
       <c r="G98" t="n">
-        <v>-1566456.644228956</v>
+        <v>-2240000.354228956</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3917,11 +4144,18 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3940,10 +4174,10 @@
         <v>10.9</v>
       </c>
       <c r="F99" t="n">
-        <v>31585.6115</v>
+        <v>1365</v>
       </c>
       <c r="G99" t="n">
-        <v>-1598042.255728956</v>
+        <v>-2238635.354228956</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3952,33 +4186,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C100" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D100" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E100" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F100" t="n">
-        <v>48018.1718</v>
+        <v>130</v>
       </c>
       <c r="G100" t="n">
-        <v>-1646060.427528956</v>
+        <v>-2238635.354228956</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3987,33 +4228,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C101" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D101" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E101" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F101" t="n">
-        <v>5364.5249</v>
+        <v>47699.9531</v>
       </c>
       <c r="G101" t="n">
-        <v>-1640695.902628956</v>
+        <v>-2286335.307328956</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4022,33 +4270,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C102" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D102" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E102" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F102" t="n">
-        <v>38013.6084</v>
+        <v>325</v>
       </c>
       <c r="G102" t="n">
-        <v>-1678709.511028956</v>
+        <v>-2286010.307328956</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4057,18 +4312,25 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C103" t="n">
         <v>10.9</v>
@@ -4077,26 +4339,35 @@
         <v>10.9</v>
       </c>
       <c r="E103" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F103" t="n">
-        <v>13431.9835</v>
+        <v>12508.7985</v>
       </c>
       <c r="G103" t="n">
-        <v>-1665277.527528956</v>
+        <v>-2286010.307328956</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K103" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4115,80 +4386,98 @@
         <v>10.9</v>
       </c>
       <c r="F104" t="n">
-        <v>1510.9297</v>
+        <v>32125.5827</v>
       </c>
       <c r="G104" t="n">
-        <v>-1665277.527528956</v>
+        <v>-2286010.307328956</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K104" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D105" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E105" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F105" t="n">
-        <v>58410.4079</v>
+        <v>106742.77</v>
       </c>
       <c r="G105" t="n">
-        <v>-1723687.935428956</v>
+        <v>-2179267.537328956</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K105" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C106" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E106" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F106" t="n">
-        <v>78762.8468</v>
+        <v>19253.3006</v>
       </c>
       <c r="G106" t="n">
-        <v>-1723687.935428956</v>
+        <v>-2198520.837928956</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4197,103 +4486,128 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C107" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E107" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F107" t="n">
-        <v>20000</v>
+        <v>2861.9096</v>
       </c>
       <c r="G107" t="n">
-        <v>-1723687.935428956</v>
+        <v>-2198520.837928956</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E108" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F108" t="n">
-        <v>24683.5406</v>
+        <v>45341.1562</v>
       </c>
       <c r="G108" t="n">
-        <v>-1699004.394828956</v>
+        <v>-2198520.837928956</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11</v>
+      </c>
+      <c r="K108" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D109" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E109" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F109" t="n">
-        <v>166607.7778</v>
+        <v>52925.5197</v>
       </c>
       <c r="G109" t="n">
-        <v>-1699004.394828956</v>
+        <v>-2198520.837928956</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4302,78 +4616,86 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="K109" t="n">
         <v>10.9</v>
       </c>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C110" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E110" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F110" t="n">
-        <v>5706.0814</v>
+        <v>25411.488</v>
       </c>
       <c r="G110" t="n">
-        <v>-1699004.394828956</v>
+        <v>-2198520.837928956</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11</v>
+      </c>
       <c r="K110" t="n">
         <v>10.9</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C111" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D111" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E111" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F111" t="n">
-        <v>4908.7309</v>
+        <v>325</v>
       </c>
       <c r="G111" t="n">
-        <v>-1699004.394828956</v>
+        <v>-2198195.837928956</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4382,41 +4704,42 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="K111" t="n">
         <v>10.9</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C112" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E112" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>39818.1483</v>
+        <v>1514.9761</v>
       </c>
       <c r="G112" t="n">
-        <v>-1699004.394828956</v>
+        <v>-2199710.814028956</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4425,11 +4748,18 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4448,34 +4778,37 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>50</v>
+        <v>2103.5275</v>
       </c>
       <c r="G113" t="n">
-        <v>-1698954.394828956</v>
+        <v>-2199710.814028956</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
         <v>10.9</v>
       </c>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C114" t="n">
         <v>11</v>
@@ -4484,13 +4817,13 @@
         <v>11</v>
       </c>
       <c r="E114" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>150</v>
+        <v>38117.323</v>
       </c>
       <c r="G114" t="n">
-        <v>-1698954.394828956</v>
+        <v>-2199710.814028956</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4504,12 +4837,13 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4528,18 +4862,20 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>5000</v>
+        <v>39423.7701</v>
       </c>
       <c r="G115" t="n">
-        <v>-1698954.394828956</v>
+        <v>-2199710.814028956</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11</v>
+      </c>
       <c r="K115" t="n">
         <v>10.9</v>
       </c>
@@ -4551,6 +4887,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4569,10 +4906,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>50</v>
+        <v>336.7571</v>
       </c>
       <c r="G116" t="n">
-        <v>-1698954.394828956</v>
+        <v>-2199710.814028956</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4592,28 +4929,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C117" t="n">
         <v>10.8</v>
       </c>
       <c r="D117" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E117" t="n">
         <v>10.8</v>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>82001.4057</v>
       </c>
       <c r="G117" t="n">
-        <v>-1699954.394828956</v>
+        <v>-2281712.219728956</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4633,36 +4971,39 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C118" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D118" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E118" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F118" t="n">
-        <v>50</v>
+        <v>8741.158799999999</v>
       </c>
       <c r="G118" t="n">
-        <v>-1699904.394828956</v>
+        <v>-2281712.219728956</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K118" t="n">
         <v>10.9</v>
       </c>
@@ -4674,36 +5015,39 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C119" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E119" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>18516.4227</v>
+        <v>514.7839</v>
       </c>
       <c r="G119" t="n">
-        <v>-1718420.817528956</v>
+        <v>-2281197.435828956</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K119" t="n">
         <v>10.9</v>
       </c>
@@ -4715,36 +5059,39 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E120" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>50</v>
+        <v>17796.771</v>
       </c>
       <c r="G120" t="n">
-        <v>-1718370.817528956</v>
+        <v>-2281197.435828956</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11</v>
+      </c>
       <c r="K120" t="n">
         <v>10.9</v>
       </c>
@@ -4756,28 +5103,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C121" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="D121" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E121" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="F121" t="n">
-        <v>368554.1806</v>
+        <v>46</v>
       </c>
       <c r="G121" t="n">
-        <v>-2086924.998128956</v>
+        <v>-2281151.435828956</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4797,1746 +5145,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C122" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E122" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>41814.8355</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2086924.998128956</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C123" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E123" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F123" t="n">
-        <v>44339.182</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-2042585.816128956</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D124" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E124" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>7931.8048</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-2034654.011328956</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C125" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D125" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E125" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F125" t="n">
-        <v>30917.43119266055</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-2034654.011328956</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D126" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E126" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2375.2572</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-2034654.011328956</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C127" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D127" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E127" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F127" t="n">
-        <v>9127.8812</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-2034654.011328956</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E128" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>3221</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-2037875.011328956</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C129" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>30917.4312</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-2068792.442528956</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C130" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D130" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E130" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F130" t="n">
-        <v>826.9864</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-2067965.456128956</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C131" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D131" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E131" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F131" t="n">
-        <v>51622.7888</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-2067965.456128956</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D132" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E132" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F132" t="n">
-        <v>39119.7757</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-2067965.456128956</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C133" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D133" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E133" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F133" t="n">
-        <v>7443.7017</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-2067965.456128956</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2077.1203</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-2070042.576428956</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C135" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E135" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>166657.7778</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-2236700.354228956</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C136" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D136" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E136" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F136" t="n">
-        <v>350</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-2236350.354228956</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K136" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E137" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>600</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-2236950.354228956</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K137" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C138" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D138" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1950</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2235000.354228956</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C139" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D139" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E139" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-2235000.354228956</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K139" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-2240000.354228956</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C141" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D141" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E141" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1365</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-2238635.354228956</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K141" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C142" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D142" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E142" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>130</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-2238635.354228956</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K142" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>47699.9531</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-2286335.307328956</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C144" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D144" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E144" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F144" t="n">
-        <v>325</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-2286010.307328956</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C145" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E145" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F145" t="n">
-        <v>12508.7985</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-2286010.307328956</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C146" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E146" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F146" t="n">
-        <v>32125.5827</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-2286010.307328956</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>11</v>
-      </c>
-      <c r="C147" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E147" t="n">
-        <v>11</v>
-      </c>
-      <c r="F147" t="n">
-        <v>106742.77</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-2179267.537328956</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>11</v>
-      </c>
-      <c r="C148" t="n">
-        <v>11</v>
-      </c>
-      <c r="D148" t="n">
-        <v>11</v>
-      </c>
-      <c r="E148" t="n">
-        <v>11</v>
-      </c>
-      <c r="F148" t="n">
-        <v>19253.3006</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K148" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>11</v>
-      </c>
-      <c r="C149" t="n">
-        <v>11</v>
-      </c>
-      <c r="D149" t="n">
-        <v>11</v>
-      </c>
-      <c r="E149" t="n">
-        <v>11</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2861.9096</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>11</v>
-      </c>
-      <c r="C150" t="n">
-        <v>11</v>
-      </c>
-      <c r="D150" t="n">
-        <v>11</v>
-      </c>
-      <c r="E150" t="n">
-        <v>11</v>
-      </c>
-      <c r="F150" t="n">
-        <v>45341.1562</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>11</v>
-      </c>
-      <c r="C151" t="n">
-        <v>11</v>
-      </c>
-      <c r="D151" t="n">
-        <v>11</v>
-      </c>
-      <c r="E151" t="n">
-        <v>11</v>
-      </c>
-      <c r="F151" t="n">
-        <v>52925.5197</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>11</v>
-      </c>
-      <c r="C152" t="n">
-        <v>11</v>
-      </c>
-      <c r="D152" t="n">
-        <v>11</v>
-      </c>
-      <c r="E152" t="n">
-        <v>11</v>
-      </c>
-      <c r="F152" t="n">
-        <v>25411.488</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E153" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>325</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-2198195.837928956</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>11</v>
-      </c>
-      <c r="K153" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C154" t="n">
-        <v>11</v>
-      </c>
-      <c r="D154" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E154" t="n">
-        <v>11</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1514.9761</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>11</v>
-      </c>
-      <c r="C155" t="n">
-        <v>11</v>
-      </c>
-      <c r="D155" t="n">
-        <v>11</v>
-      </c>
-      <c r="E155" t="n">
-        <v>11</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2103.5275</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>11</v>
-      </c>
-      <c r="C156" t="n">
-        <v>11</v>
-      </c>
-      <c r="D156" t="n">
-        <v>11</v>
-      </c>
-      <c r="E156" t="n">
-        <v>11</v>
-      </c>
-      <c r="F156" t="n">
-        <v>38117.323</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>11</v>
-      </c>
-      <c r="C157" t="n">
-        <v>11</v>
-      </c>
-      <c r="D157" t="n">
-        <v>11</v>
-      </c>
-      <c r="E157" t="n">
-        <v>11</v>
-      </c>
-      <c r="F157" t="n">
-        <v>39423.7701</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>11</v>
-      </c>
-      <c r="C158" t="n">
-        <v>11</v>
-      </c>
-      <c r="D158" t="n">
-        <v>11</v>
-      </c>
-      <c r="E158" t="n">
-        <v>11</v>
-      </c>
-      <c r="F158" t="n">
-        <v>336.7571</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C159" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D159" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E159" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F159" t="n">
-        <v>82001.4057</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-2281712.219728956</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C160" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D160" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E160" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F160" t="n">
-        <v>8741.158799999999</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-2281712.219728956</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K160" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>11</v>
-      </c>
-      <c r="C161" t="n">
-        <v>11</v>
-      </c>
-      <c r="D161" t="n">
-        <v>11</v>
-      </c>
-      <c r="E161" t="n">
-        <v>11</v>
-      </c>
-      <c r="F161" t="n">
-        <v>514.7839</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-2281197.435828956</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>11</v>
-      </c>
-      <c r="C162" t="n">
-        <v>11</v>
-      </c>
-      <c r="D162" t="n">
-        <v>11</v>
-      </c>
-      <c r="E162" t="n">
-        <v>11</v>
-      </c>
-      <c r="F162" t="n">
-        <v>17796.771</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-2281197.435828956</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F163" t="n">
-        <v>46</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-2281151.435828956</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>11</v>
-      </c>
-      <c r="K163" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="E2" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="F2" t="n">
-        <v>20000</v>
+        <v>30523.7086</v>
       </c>
       <c r="G2" t="n">
-        <v>-854570.9219201837</v>
+        <v>-1139722.997420184</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="C3" t="n">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="E3" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="F3" t="n">
-        <v>470451.651891228</v>
+        <v>3422.1501</v>
       </c>
       <c r="G3" t="n">
-        <v>-384119.2700289557</v>
+        <v>-1139722.997420184</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4</v>
+        <v>10.7</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="D4" t="n">
-        <v>11.4</v>
+        <v>10.7</v>
       </c>
       <c r="E4" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1111</v>
+        <v>47</v>
       </c>
       <c r="G4" t="n">
-        <v>-385230.2700289557</v>
+        <v>-1139675.997420184</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="C5" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="D5" t="n">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="E5" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="F5" t="n">
-        <v>29519.1176</v>
+        <v>79005.56969999999</v>
       </c>
       <c r="G5" t="n">
-        <v>-355711.1524289557</v>
+        <v>-1218681.567120184</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,31 +582,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="C6" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="D6" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="E6" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="F6" t="n">
-        <v>55763.7727</v>
+        <v>50000</v>
       </c>
       <c r="G6" t="n">
-        <v>-355711.1524289557</v>
+        <v>-1218681.567120184</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.6</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +622,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="C7" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="D7" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="E7" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="F7" t="n">
-        <v>49834.3778</v>
+        <v>2100</v>
       </c>
       <c r="G7" t="n">
-        <v>-355711.1524289557</v>
+        <v>-1218681.567120184</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
       <c r="C8" t="n">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
       <c r="D8" t="n">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
       <c r="E8" t="n">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
       <c r="F8" t="n">
-        <v>897.75</v>
+        <v>74537.71090000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-356608.9024289557</v>
+        <v>-1218681.567120184</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,31 +708,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="C9" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="D9" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="E9" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="F9" t="n">
-        <v>2442.3674</v>
+        <v>60765.3055</v>
       </c>
       <c r="G9" t="n">
-        <v>-354166.5350289557</v>
+        <v>-1218681.567120184</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.6</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -726,32 +748,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="C10" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="D10" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="E10" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="F10" t="n">
-        <v>866925.7664</v>
+        <v>21359.7054</v>
       </c>
       <c r="G10" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1218681.567120184</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +792,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="D11" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="E11" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="F11" t="n">
-        <v>382054.2748</v>
+        <v>532.9101000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1218681.567120184</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +836,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="C12" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="D12" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="E12" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="F12" t="n">
-        <v>369714.3011</v>
+        <v>10563.4622</v>
       </c>
       <c r="G12" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1218681.567120184</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +880,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="C13" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="D13" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="E13" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="F13" t="n">
-        <v>46356.1353</v>
+        <v>12000</v>
       </c>
       <c r="G13" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1218681.567120184</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +924,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="C14" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="D14" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="E14" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="F14" t="n">
-        <v>79173.3536</v>
+        <v>12000</v>
       </c>
       <c r="G14" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1218681.567120184</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +968,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="C15" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="D15" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="E15" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="F15" t="n">
-        <v>29393</v>
+        <v>32297.6055</v>
       </c>
       <c r="G15" t="n">
-        <v>-1221092.301428956</v>
+        <v>-1250979.172620184</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1012,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="C16" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="D16" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="E16" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2366.0304</v>
+        <v>65893.3652</v>
       </c>
       <c r="G16" t="n">
-        <v>-1218726.271028956</v>
+        <v>-1250979.172620184</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1056,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="C17" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="D17" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="E17" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="F17" t="n">
-        <v>13054.1266</v>
+        <v>18108.8411</v>
       </c>
       <c r="G17" t="n">
-        <v>-1231780.397628956</v>
+        <v>-1232870.331520184</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1100,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="C18" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="D18" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="E18" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="F18" t="n">
-        <v>101108.8301</v>
+        <v>85000</v>
       </c>
       <c r="G18" t="n">
-        <v>-1231780.397628956</v>
+        <v>-1317870.331520184</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1144,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="C19" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="D19" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="E19" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="F19" t="n">
-        <v>2110.6113</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>-1231780.397628956</v>
+        <v>-1317770.331520184</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1188,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="C20" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="D20" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="E20" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="F20" t="n">
-        <v>23902.6738</v>
+        <v>83464</v>
       </c>
       <c r="G20" t="n">
-        <v>-1207877.723828956</v>
+        <v>-1401234.331520184</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1232,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="C21" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="D21" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="E21" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="F21" t="n">
-        <v>2589.5984</v>
+        <v>6835.6261</v>
       </c>
       <c r="G21" t="n">
-        <v>-1207877.723828956</v>
+        <v>-1394398.705420184</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1276,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="C22" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="D22" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="E22" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="F22" t="n">
-        <v>3278.9791</v>
+        <v>3101.5452</v>
       </c>
       <c r="G22" t="n">
-        <v>-1211156.702928956</v>
+        <v>-1391297.160220184</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1320,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="C23" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D23" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E23" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="F23" t="n">
-        <v>10043.799</v>
+        <v>165802.9121</v>
       </c>
       <c r="G23" t="n">
-        <v>-1211156.702928956</v>
+        <v>-1225494.248120184</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1364,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="C24" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>297667.4949</v>
       </c>
       <c r="G24" t="n">
-        <v>-1211106.702928956</v>
+        <v>-927826.7532201835</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1408,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>344963.3087201835</v>
       </c>
       <c r="G25" t="n">
-        <v>-1211106.702928956</v>
+        <v>-927826.7532201835</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1432,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,7 +1450,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C26" t="n">
         <v>11.2</v>
@@ -1311,23 +1459,29 @@
         <v>11.2</v>
       </c>
       <c r="E26" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F26" t="n">
-        <v>2510.9497</v>
+        <v>103554.9947</v>
       </c>
       <c r="G26" t="n">
-        <v>-1213617.652628956</v>
+        <v>-824271.7585201835</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1492,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="C27" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="D27" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="E27" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="F27" t="n">
-        <v>1541.4184</v>
+        <v>23000</v>
       </c>
       <c r="G27" t="n">
-        <v>-1213617.652628956</v>
+        <v>-847271.7585201835</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1534,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F28" t="n">
-        <v>3784.2843</v>
+        <v>55</v>
       </c>
       <c r="G28" t="n">
-        <v>-1213617.652628956</v>
+        <v>-847216.7585201835</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1576,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>20942.5124</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>-1213617.652628956</v>
+        <v>-847216.7585201835</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1618,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>-1215617.652628956</v>
+        <v>-847216.7585201835</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1660,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C31" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D31" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="E31" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="F31" t="n">
-        <v>471.6981</v>
+        <v>1627.2656</v>
       </c>
       <c r="G31" t="n">
-        <v>-1215617.652628956</v>
+        <v>-848844.0241201835</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1684,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1702,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="C32" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="D32" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="E32" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="F32" t="n">
-        <v>259450.6177</v>
+        <v>218238.759</v>
       </c>
       <c r="G32" t="n">
-        <v>-1215617.652628956</v>
+        <v>-1067082.783120184</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1726,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1744,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C33" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D33" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E33" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F33" t="n">
-        <v>3204.4199</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>-1212413.232728956</v>
+        <v>-1067032.783120184</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1768,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1786,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="C34" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="D34" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E34" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>11176.9929</v>
       </c>
       <c r="G34" t="n">
-        <v>-1212413.232728956</v>
+        <v>-1067032.783120184</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1810,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1828,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E35" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>150000</v>
+        <v>262680.3563</v>
       </c>
       <c r="G35" t="n">
-        <v>-1362413.232728956</v>
+        <v>-804352.4268201835</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1852,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1870,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>17500.8592</v>
+        <v>79513.1949</v>
       </c>
       <c r="G36" t="n">
-        <v>-1362413.232728956</v>
+        <v>-804352.4268201835</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1710,10 +1924,10 @@
         <v>11.1</v>
       </c>
       <c r="F37" t="n">
-        <v>4248.7319</v>
+        <v>92592.5925</v>
       </c>
       <c r="G37" t="n">
-        <v>-1362413.232728956</v>
+        <v>-711759.8343201835</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1936,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1954,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F38" t="n">
-        <v>54177.0758</v>
+        <v>86695.3891</v>
       </c>
       <c r="G38" t="n">
-        <v>-1416590.308528956</v>
+        <v>-625064.4452201835</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1978,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1773,19 +1999,19 @@
         <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>637851.2332</v>
+        <v>121133.4713</v>
       </c>
       <c r="G39" t="n">
-        <v>-778739.0753289558</v>
+        <v>-746197.9165201834</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2020,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="C40" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D40" t="n">
         <v>11.1</v>
@@ -1818,10 +2050,10 @@
         <v>10.9</v>
       </c>
       <c r="F40" t="n">
-        <v>1166.55</v>
+        <v>8613.7022</v>
       </c>
       <c r="G40" t="n">
-        <v>-779905.6253289558</v>
+        <v>-737584.2143201835</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2062,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2080,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C41" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E41" t="n">
         <v>10.9</v>
       </c>
       <c r="F41" t="n">
-        <v>1055.45</v>
+        <v>228630.8521</v>
       </c>
       <c r="G41" t="n">
-        <v>-779905.6253289558</v>
+        <v>-737584.2143201835</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2104,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1890,10 +2134,10 @@
         <v>11.1</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>66390.73119999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-779855.6253289558</v>
+        <v>-737584.2143201835</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2146,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1917,19 +2167,19 @@
         <v>11</v>
       </c>
       <c r="C43" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E43" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>48792.0865</v>
+        <v>5989.0668</v>
       </c>
       <c r="G43" t="n">
-        <v>-828647.7118289558</v>
+        <v>-737584.2143201835</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2188,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2206,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C44" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E44" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>74074.2473</v>
       </c>
       <c r="G44" t="n">
-        <v>-828597.7118289558</v>
+        <v>-811658.4616201835</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2230,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2248,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E45" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F45" t="n">
-        <v>9526.936900000001</v>
+        <v>33880.1969</v>
       </c>
       <c r="G45" t="n">
-        <v>-828597.7118289558</v>
+        <v>-811658.4616201835</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2272,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2025,19 +2293,19 @@
         <v>11</v>
       </c>
       <c r="C46" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E46" t="n">
         <v>11</v>
       </c>
       <c r="F46" t="n">
-        <v>80000</v>
+        <v>20587.8849</v>
       </c>
       <c r="G46" t="n">
-        <v>-908597.7118289558</v>
+        <v>-791070.5767201836</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2314,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2332,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>129843.5419</v>
       </c>
       <c r="G47" t="n">
-        <v>-908547.7118289558</v>
+        <v>-920914.1186201836</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2356,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2106,10 +2386,10 @@
         <v>11</v>
       </c>
       <c r="F48" t="n">
-        <v>117.3801</v>
+        <v>2240.5948</v>
       </c>
       <c r="G48" t="n">
-        <v>-908665.0919289557</v>
+        <v>-920914.1186201836</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2416,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E49" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>1681.8428</v>
       </c>
       <c r="G49" t="n">
-        <v>-908765.0919289557</v>
+        <v>-920914.1186201836</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2458,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="C50" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D50" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E50" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>65058.526</v>
       </c>
       <c r="G50" t="n">
-        <v>-908715.0919289557</v>
+        <v>-985972.6446201835</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2482,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2205,29 +2503,35 @@
         <v>10.9</v>
       </c>
       <c r="C51" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D51" t="n">
         <v>10.9</v>
       </c>
       <c r="E51" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F51" t="n">
-        <v>661611.0432</v>
+        <v>50307.8176</v>
       </c>
       <c r="G51" t="n">
-        <v>-1570326.135128956</v>
+        <v>-985972.6446201835</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2542,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C52" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D52" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F52" t="n">
-        <v>5190.7972</v>
+        <v>44052.2187</v>
       </c>
       <c r="G52" t="n">
-        <v>-1565135.337928956</v>
+        <v>-985972.6446201835</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2566,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2584,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>458.5805</v>
       </c>
       <c r="G53" t="n">
-        <v>-1565135.337928956</v>
+        <v>-986431.2251201835</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2608,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2626,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C54" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F54" t="n">
-        <v>3834</v>
+        <v>50</v>
       </c>
       <c r="G54" t="n">
-        <v>-1568969.337928956</v>
+        <v>-986381.2251201835</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2650,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2668,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C55" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E55" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>30760.2771</v>
       </c>
       <c r="G55" t="n">
-        <v>-1568969.337928956</v>
+        <v>-986381.2251201835</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,8 +2692,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2710,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E56" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F56" t="n">
-        <v>2512.6937</v>
+        <v>121039.1514</v>
       </c>
       <c r="G56" t="n">
-        <v>-1566456.644228956</v>
+        <v>-1107420.376520184</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2430,10 +2764,10 @@
         <v>10.9</v>
       </c>
       <c r="F57" t="n">
-        <v>31585.6115</v>
+        <v>1280.5767</v>
       </c>
       <c r="G57" t="n">
-        <v>-1598042.255728956</v>
+        <v>-1107420.376520184</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2442,8 +2776,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2457,19 +2797,19 @@
         <v>10.8</v>
       </c>
       <c r="C58" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
         <v>10.8</v>
       </c>
       <c r="F58" t="n">
-        <v>48018.1718</v>
+        <v>69953.9143</v>
       </c>
       <c r="G58" t="n">
-        <v>-1646060.427528956</v>
+        <v>-1037466.462220184</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2478,8 +2818,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2836,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C59" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E59" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>5364.5249</v>
+        <v>108309.7411</v>
       </c>
       <c r="G59" t="n">
-        <v>-1640695.902628956</v>
+        <v>-1037466.462220184</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2514,8 +2860,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2538,10 +2890,10 @@
         <v>10.8</v>
       </c>
       <c r="F60" t="n">
-        <v>38013.6084</v>
+        <v>458.5805</v>
       </c>
       <c r="G60" t="n">
-        <v>-1678709.511028956</v>
+        <v>-1037925.042720184</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2550,8 +2902,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2920,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>13431.9835</v>
+        <v>2720.3899</v>
       </c>
       <c r="G61" t="n">
-        <v>-1665277.527528956</v>
+        <v>-1035204.652820184</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2586,8 +2944,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2962,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C62" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E62" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
-        <v>1510.9297</v>
+        <v>2448.3509</v>
       </c>
       <c r="G62" t="n">
-        <v>-1665277.527528956</v>
+        <v>-1035204.652820184</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2622,8 +2986,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2637,19 +3007,19 @@
         <v>10.8</v>
       </c>
       <c r="C63" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E63" t="n">
         <v>10.8</v>
       </c>
       <c r="F63" t="n">
-        <v>58410.4079</v>
+        <v>106817.9136</v>
       </c>
       <c r="G63" t="n">
-        <v>-1723687.935428956</v>
+        <v>-1035204.652820184</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2658,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,36 +3046,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C64" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E64" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F64" t="n">
-        <v>78762.8468</v>
+        <v>158749.9337</v>
       </c>
       <c r="G64" t="n">
-        <v>-1723687.935428956</v>
+        <v>-1035204.652820184</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
+        <v>10.6</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2710,38 +3088,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C65" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D65" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E65" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F65" t="n">
-        <v>20000</v>
+        <v>261296.2027</v>
       </c>
       <c r="G65" t="n">
-        <v>-1723687.935428956</v>
+        <v>-773908.4501201836</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2754,38 +3130,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C66" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>24683.5406</v>
+        <v>200839.3995</v>
       </c>
       <c r="G66" t="n">
-        <v>-1699004.394828956</v>
+        <v>-974747.8496201837</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2798,36 +3172,38 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C67" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D67" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E67" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F67" t="n">
-        <v>166607.7778</v>
+        <v>14403.8046</v>
       </c>
       <c r="G67" t="n">
-        <v>-1699004.394828956</v>
+        <v>-960344.0450201837</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L67" t="inlineStr"/>
+        <v>10.6</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2838,38 +3214,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C68" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D68" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E68" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F68" t="n">
-        <v>5706.0814</v>
+        <v>111706.1823</v>
       </c>
       <c r="G68" t="n">
-        <v>-1699004.394828956</v>
+        <v>-848637.8627201837</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -2882,38 +3256,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C69" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="D69" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="E69" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F69" t="n">
-        <v>4908.7309</v>
+        <v>2100</v>
       </c>
       <c r="G69" t="n">
-        <v>-1699004.394828956</v>
+        <v>-846537.8627201837</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -2926,36 +3298,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C70" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D70" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E70" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F70" t="n">
-        <v>39818.1483</v>
+        <v>27746.5522</v>
       </c>
       <c r="G70" t="n">
-        <v>-1699004.394828956</v>
+        <v>-874284.4149201837</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L70" t="inlineStr"/>
+        <v>10.6</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2966,38 +3340,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C71" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D71" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E71" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F71" t="n">
-        <v>50</v>
+        <v>19713.493</v>
       </c>
       <c r="G71" t="n">
-        <v>-1698954.394828956</v>
+        <v>-854570.9219201837</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -3010,38 +3382,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C72" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E72" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F72" t="n">
-        <v>150</v>
+        <v>8033.0592</v>
       </c>
       <c r="G72" t="n">
-        <v>-1698954.394828956</v>
+        <v>-854570.9219201837</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>11</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -3054,34 +3424,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C73" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="D73" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="E73" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F73" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G73" t="n">
-        <v>-1698954.394828956</v>
+        <v>-854570.9219201837</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>11</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3098,22 +3466,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="F74" t="n">
-        <v>50</v>
+        <v>470451.651891228</v>
       </c>
       <c r="G74" t="n">
-        <v>-1698954.394828956</v>
+        <v>-384119.2700289557</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3123,7 +3491,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3140,80 +3508,76 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="C75" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="D75" t="n">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="E75" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="G75" t="n">
-        <v>-1699954.394828956</v>
+        <v>-385230.2700289557</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>1.051603773584906</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.009433962264151</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C76" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D76" t="n">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="E76" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F76" t="n">
-        <v>50</v>
+        <v>29519.1176</v>
       </c>
       <c r="G76" t="n">
-        <v>-1699904.394828956</v>
+        <v>-355711.1524289557</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3224,38 +3588,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="C77" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="D77" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="E77" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="F77" t="n">
-        <v>18516.4227</v>
+        <v>55763.7727</v>
       </c>
       <c r="G77" t="n">
-        <v>-1718420.817528956</v>
+        <v>-355711.1524289557</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3266,38 +3624,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="C78" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="D78" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="E78" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>49834.3778</v>
       </c>
       <c r="G78" t="n">
-        <v>-1718370.817528956</v>
+        <v>-355711.1524289557</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3308,38 +3660,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C79" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="D79" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E79" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="F79" t="n">
-        <v>368554.1806</v>
+        <v>897.75</v>
       </c>
       <c r="G79" t="n">
-        <v>-2086924.998128956</v>
+        <v>-356608.9024289557</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3350,38 +3696,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="C80" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="D80" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="E80" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="F80" t="n">
-        <v>41814.8355</v>
+        <v>2442.3674</v>
       </c>
       <c r="G80" t="n">
-        <v>-2086924.998128956</v>
+        <v>-354166.5350289557</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3392,40 +3732,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C81" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="D81" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="E81" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="F81" t="n">
-        <v>44339.182</v>
+        <v>866925.7664</v>
       </c>
       <c r="G81" t="n">
-        <v>-2042585.816128956</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K81" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3436,38 +3768,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C82" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D82" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E82" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F82" t="n">
-        <v>7931.8048</v>
+        <v>382054.2748</v>
       </c>
       <c r="G82" t="n">
-        <v>-2034654.011328956</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3478,38 +3804,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C83" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D83" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E83" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F83" t="n">
-        <v>30917.43119266055</v>
+        <v>369714.3011</v>
       </c>
       <c r="G83" t="n">
-        <v>-2034654.011328956</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3520,38 +3840,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C84" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D84" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E84" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F84" t="n">
-        <v>2375.2572</v>
+        <v>46356.1353</v>
       </c>
       <c r="G84" t="n">
-        <v>-2034654.011328956</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3562,22 +3876,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C85" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D85" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E85" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F85" t="n">
-        <v>9127.8812</v>
+        <v>79173.3536</v>
       </c>
       <c r="G85" t="n">
-        <v>-2034654.011328956</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3586,14 +3900,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3604,22 +3912,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="C86" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="D86" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="E86" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="F86" t="n">
-        <v>3221</v>
+        <v>29393</v>
       </c>
       <c r="G86" t="n">
-        <v>-2037875.011328956</v>
+        <v>-1221092.301428956</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3628,14 +3936,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3646,22 +3948,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="C87" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="D87" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="E87" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="F87" t="n">
-        <v>30917.4312</v>
+        <v>2366.0304</v>
       </c>
       <c r="G87" t="n">
-        <v>-2068792.442528956</v>
+        <v>-1218726.271028956</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3670,14 +3972,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3688,40 +3984,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C88" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D88" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E88" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F88" t="n">
-        <v>826.9864</v>
+        <v>13054.1266</v>
       </c>
       <c r="G88" t="n">
-        <v>-2067965.456128956</v>
+        <v>-1231780.397628956</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K88" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3732,40 +4020,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C89" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D89" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E89" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F89" t="n">
-        <v>51622.7888</v>
+        <v>101108.8301</v>
       </c>
       <c r="G89" t="n">
-        <v>-2067965.456128956</v>
+        <v>-1231780.397628956</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K89" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3776,40 +4056,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C90" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D90" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E90" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F90" t="n">
-        <v>39119.7757</v>
+        <v>2110.6113</v>
       </c>
       <c r="G90" t="n">
-        <v>-2067965.456128956</v>
+        <v>-1231780.397628956</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K90" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3820,22 +4092,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C91" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="D91" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="E91" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F91" t="n">
-        <v>7443.7017</v>
+        <v>23902.6738</v>
       </c>
       <c r="G91" t="n">
-        <v>-2067965.456128956</v>
+        <v>-1207877.723828956</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3844,14 +4116,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3862,22 +4128,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="C92" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="D92" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="E92" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="F92" t="n">
-        <v>2077.1203</v>
+        <v>2589.5984</v>
       </c>
       <c r="G92" t="n">
-        <v>-2070042.576428956</v>
+        <v>-1207877.723828956</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3886,14 +4152,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3904,22 +4164,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="C93" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="D93" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="E93" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="F93" t="n">
-        <v>166657.7778</v>
+        <v>3278.9791</v>
       </c>
       <c r="G93" t="n">
-        <v>-2236700.354228956</v>
+        <v>-1211156.702928956</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3928,14 +4188,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3946,40 +4200,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C94" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D94" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E94" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F94" t="n">
-        <v>350</v>
+        <v>10043.799</v>
       </c>
       <c r="G94" t="n">
-        <v>-2236350.354228956</v>
+        <v>-1211156.702928956</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K94" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3990,40 +4236,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="C95" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="E95" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="F95" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>-2236950.354228956</v>
+        <v>-1211106.702928956</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K95" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4034,40 +4272,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="C96" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="D96" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="E96" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="F96" t="n">
-        <v>1950</v>
+        <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>-2235000.354228956</v>
+        <v>-1211106.702928956</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K96" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4078,22 +4308,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C97" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D97" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E97" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F97" t="n">
-        <v>1300</v>
+        <v>2510.9497</v>
       </c>
       <c r="G97" t="n">
-        <v>-2235000.354228956</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4102,14 +4332,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4120,22 +4344,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="C98" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="D98" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="E98" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="F98" t="n">
-        <v>5000</v>
+        <v>1541.4184</v>
       </c>
       <c r="G98" t="n">
-        <v>-2240000.354228956</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4144,14 +4368,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4162,22 +4380,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C99" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D99" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E99" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F99" t="n">
-        <v>1365</v>
+        <v>3784.2843</v>
       </c>
       <c r="G99" t="n">
-        <v>-2238635.354228956</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4186,14 +4404,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4204,22 +4416,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C100" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D100" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E100" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F100" t="n">
-        <v>130</v>
+        <v>20942.5124</v>
       </c>
       <c r="G100" t="n">
-        <v>-2238635.354228956</v>
+        <v>-1213617.652628956</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4228,14 +4440,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4246,22 +4452,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C101" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D101" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E101" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F101" t="n">
-        <v>47699.9531</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="n">
-        <v>-2286335.307328956</v>
+        <v>-1215617.652628956</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4270,14 +4476,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4288,22 +4488,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C102" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D102" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E102" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F102" t="n">
-        <v>325</v>
+        <v>471.6981</v>
       </c>
       <c r="G102" t="n">
-        <v>-2286010.307328956</v>
+        <v>-1215617.652628956</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4312,14 +4512,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4330,40 +4524,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C103" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D103" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E103" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F103" t="n">
-        <v>12508.7985</v>
+        <v>259450.6177</v>
       </c>
       <c r="G103" t="n">
-        <v>-2286010.307328956</v>
+        <v>-1215617.652628956</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K103" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4374,40 +4560,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="C104" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D104" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="E104" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="F104" t="n">
-        <v>32125.5827</v>
+        <v>3204.4199</v>
       </c>
       <c r="G104" t="n">
-        <v>-2286010.307328956</v>
+        <v>-1212413.232728956</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K104" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4418,40 +4596,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C105" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D105" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E105" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F105" t="n">
-        <v>106742.77</v>
+        <v>50</v>
       </c>
       <c r="G105" t="n">
-        <v>-2179267.537328956</v>
+        <v>-1212413.232728956</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K105" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4462,22 +4632,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C106" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D106" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E106" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F106" t="n">
-        <v>19253.3006</v>
+        <v>150000</v>
       </c>
       <c r="G106" t="n">
-        <v>-2198520.837928956</v>
+        <v>-1362413.232728956</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4486,14 +4656,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4504,40 +4668,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D107" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E107" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F107" t="n">
-        <v>2861.9096</v>
+        <v>17500.8592</v>
       </c>
       <c r="G107" t="n">
-        <v>-2198520.837928956</v>
+        <v>-1362413.232728956</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>11</v>
-      </c>
-      <c r="K107" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4548,40 +4704,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D108" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E108" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F108" t="n">
-        <v>45341.1562</v>
+        <v>4248.7319</v>
       </c>
       <c r="G108" t="n">
-        <v>-2198520.837928956</v>
+        <v>-1362413.232728956</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>11</v>
-      </c>
-      <c r="K108" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4604,28 +4752,20 @@
         <v>11</v>
       </c>
       <c r="F109" t="n">
-        <v>52925.5197</v>
+        <v>54177.0758</v>
       </c>
       <c r="G109" t="n">
-        <v>-2198520.837928956</v>
+        <v>-1416590.308528956</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>11</v>
-      </c>
-      <c r="K109" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4639,37 +4779,29 @@
         <v>11</v>
       </c>
       <c r="C110" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D110" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E110" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F110" t="n">
-        <v>25411.488</v>
+        <v>637851.2332</v>
       </c>
       <c r="G110" t="n">
-        <v>-2198520.837928956</v>
+        <v>-778739.0753289558</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>11</v>
-      </c>
-      <c r="K110" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4683,37 +4815,29 @@
         <v>11.1</v>
       </c>
       <c r="C111" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D111" t="n">
         <v>11.1</v>
       </c>
       <c r="E111" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F111" t="n">
-        <v>325</v>
+        <v>1166.55</v>
       </c>
       <c r="G111" t="n">
-        <v>-2198195.837928956</v>
+        <v>-779905.6253289558</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>11</v>
-      </c>
-      <c r="K111" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4724,22 +4848,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D112" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E112" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F112" t="n">
-        <v>1514.9761</v>
+        <v>1055.45</v>
       </c>
       <c r="G112" t="n">
-        <v>-2199710.814028956</v>
+        <v>-779905.6253289558</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4748,14 +4872,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4766,22 +4884,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C113" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D113" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E113" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F113" t="n">
-        <v>2103.5275</v>
+        <v>50</v>
       </c>
       <c r="G113" t="n">
-        <v>-2199710.814028956</v>
+        <v>-779855.6253289558</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4790,14 +4908,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4811,19 +4923,19 @@
         <v>11</v>
       </c>
       <c r="C114" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D114" t="n">
         <v>11</v>
       </c>
       <c r="E114" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F114" t="n">
-        <v>38117.323</v>
+        <v>48792.0865</v>
       </c>
       <c r="G114" t="n">
-        <v>-2199710.814028956</v>
+        <v>-828647.7118289558</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4832,14 +4944,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4850,40 +4956,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C115" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D115" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E115" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F115" t="n">
-        <v>39423.7701</v>
+        <v>50</v>
       </c>
       <c r="G115" t="n">
-        <v>-2199710.814028956</v>
+        <v>-828597.7118289558</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>11</v>
-      </c>
-      <c r="K115" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4894,22 +4992,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C116" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D116" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E116" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F116" t="n">
-        <v>336.7571</v>
+        <v>9526.936900000001</v>
       </c>
       <c r="G116" t="n">
-        <v>-2199710.814028956</v>
+        <v>-828597.7118289558</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4918,14 +5016,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4936,22 +5028,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E117" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>82001.4057</v>
+        <v>80000</v>
       </c>
       <c r="G117" t="n">
-        <v>-2281712.219728956</v>
+        <v>-908597.7118289558</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4960,14 +5052,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4978,40 +5064,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="C118" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D118" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="E118" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F118" t="n">
-        <v>8741.158799999999</v>
+        <v>50</v>
       </c>
       <c r="G118" t="n">
-        <v>-2281712.219728956</v>
+        <v>-908547.7118289558</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K118" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5034,28 +5112,20 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>514.7839</v>
+        <v>117.3801</v>
       </c>
       <c r="G119" t="n">
-        <v>-2281197.435828956</v>
+        <v>-908665.0919289557</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K119" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5066,40 +5136,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C120" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D120" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E120" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F120" t="n">
-        <v>17796.771</v>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>-2281197.435828956</v>
+        <v>-908765.0919289557</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>11</v>
-      </c>
-      <c r="K120" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5122,30 +5184,2580 @@
         <v>11.1</v>
       </c>
       <c r="F121" t="n">
+        <v>50</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-908715.0919289557</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>661611.0432</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1570326.135128956</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>11</v>
+      </c>
+      <c r="C123" t="n">
+        <v>11</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5190.7972</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1565135.337928956</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1565135.337928956</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C125" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3834</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1568969.337928956</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1568969.337928956</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11</v>
+      </c>
+      <c r="E127" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2512.6937</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1566456.644228956</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D128" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>31585.6115</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1598042.255728956</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>48018.1718</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1646060.427528956</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5364.5249</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1640695.902628956</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>38013.6084</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1678709.511028956</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>13431.9835</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1665277.527528956</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1510.9297</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1665277.527528956</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>58410.4079</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1723687.935428956</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>78762.8468</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1723687.935428956</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1723687.935428956</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>24683.5406</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1699004.394828956</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>166607.7778</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1699004.394828956</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5706.0814</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1699004.394828956</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4908.7309</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1699004.394828956</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>39818.1483</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1699004.394828956</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>11</v>
+      </c>
+      <c r="C142" t="n">
+        <v>11</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11</v>
+      </c>
+      <c r="F142" t="n">
+        <v>50</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1698954.394828956</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11</v>
+      </c>
+      <c r="E143" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>150</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1698954.394828956</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>11</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1698954.394828956</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>11</v>
+      </c>
+      <c r="C145" t="n">
+        <v>11</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11</v>
+      </c>
+      <c r="F145" t="n">
+        <v>50</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1698954.394828956</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1699954.394828956</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>11</v>
+      </c>
+      <c r="C147" t="n">
+        <v>11</v>
+      </c>
+      <c r="D147" t="n">
+        <v>11</v>
+      </c>
+      <c r="E147" t="n">
+        <v>11</v>
+      </c>
+      <c r="F147" t="n">
+        <v>50</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1699904.394828956</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>18516.4227</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1718420.817528956</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>50</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1718370.817528956</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>368554.1806</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2086924.998128956</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>41814.8355</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2086924.998128956</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>44339.182</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2042585.816128956</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C153" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D153" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E153" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7931.8048</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2034654.011328956</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D154" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F154" t="n">
+        <v>30917.43119266055</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2034654.011328956</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2375.2572</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2034654.011328956</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C156" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9127.8812</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2034654.011328956</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3221</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-2037875.011328956</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>30917.4312</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2068792.442528956</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>826.9864</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2067965.456128956</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>51622.7888</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2067965.456128956</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>39119.7757</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2067965.456128956</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>7443.7017</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-2067965.456128956</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2077.1203</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2070042.576428956</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>166657.7778</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2236700.354228956</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D165" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E165" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>350</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2236350.354228956</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E166" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>600</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-2236950.354228956</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1950</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2235000.354228956</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C168" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2235000.354228956</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2240000.354228956</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1365</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-2238635.354228956</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>130</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2238635.354228956</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>47699.9531</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-2286335.307328956</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>325</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-2286010.307328956</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>12508.7985</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2286010.307328956</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>32125.5827</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2286010.307328956</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11</v>
+      </c>
+      <c r="F176" t="n">
+        <v>106742.77</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-2179267.537328956</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11</v>
+      </c>
+      <c r="F177" t="n">
+        <v>19253.3006</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2861.9096</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11</v>
+      </c>
+      <c r="F179" t="n">
+        <v>45341.1562</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11</v>
+      </c>
+      <c r="F180" t="n">
+        <v>52925.5197</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11</v>
+      </c>
+      <c r="F181" t="n">
+        <v>25411.488</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>325</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-2198195.837928956</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1514.9761</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2103.5275</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11</v>
+      </c>
+      <c r="F185" t="n">
+        <v>38117.323</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11</v>
+      </c>
+      <c r="F186" t="n">
+        <v>39423.7701</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11</v>
+      </c>
+      <c r="F187" t="n">
+        <v>336.7571</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>82001.4057</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-2281712.219728956</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D189" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>8741.158799999999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-2281712.219728956</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>11</v>
+      </c>
+      <c r="C190" t="n">
+        <v>11</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11</v>
+      </c>
+      <c r="F190" t="n">
+        <v>514.7839</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-2281197.435828956</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>11</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11</v>
+      </c>
+      <c r="F191" t="n">
+        <v>17796.771</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-2281197.435828956</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F192" t="n">
         <v>46</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G192" t="n">
         <v>-2281151.435828956</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1139722.997420184</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>-1139722.997420184</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>10.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>-1139675.997420184</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>10.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +564,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +601,15 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -642,22 +636,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +667,15 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -726,22 +700,15 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -766,26 +733,15 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -810,26 +766,21 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>10.6</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -854,26 +805,21 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>10.6</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,26 +844,21 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>10.6</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -942,26 +883,21 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>10.6</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -986,26 +922,19 @@
         <v>-1250979.172620184</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1030,26 +959,21 @@
         <v>-1250979.172620184</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>10.5</v>
       </c>
-      <c r="K16" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1074,26 +998,21 @@
         <v>-1232870.331520184</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>10.5</v>
       </c>
-      <c r="K17" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1118,26 +1037,21 @@
         <v>-1317870.331520184</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>10.6</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1162,26 +1076,21 @@
         <v>-1317770.331520184</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>10.5</v>
       </c>
-      <c r="K19" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,26 +1115,21 @@
         <v>-1401234.331520184</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>10.6</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1250,26 +1154,21 @@
         <v>-1394398.705420184</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>10.5</v>
       </c>
-      <c r="K21" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,26 +1193,21 @@
         <v>-1391297.160220184</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>10.6</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1338,26 +1232,21 @@
         <v>-1225494.248120184</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>10.7</v>
       </c>
-      <c r="K23" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1382,26 +1271,21 @@
         <v>-927826.7532201835</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>10.8</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1428,22 +1312,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1470,22 +1349,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1510,24 +1384,19 @@
         <v>-847271.7585201835</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1552,24 +1421,19 @@
         <v>-847216.7585201835</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1594,24 +1458,19 @@
         <v>-847216.7585201835</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1636,24 +1495,19 @@
         <v>-847216.7585201835</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1680,22 +1534,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1722,22 +1571,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1764,22 +1608,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1806,22 +1645,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1848,22 +1682,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1890,22 +1719,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1932,22 +1756,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1972,24 +1791,19 @@
         <v>-625064.4452201835</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2016,22 +1830,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2056,24 +1865,17 @@
         <v>-737584.2143201835</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2098,24 +1900,15 @@
         <v>-737584.2143201835</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2140,24 +1933,15 @@
         <v>-737584.2143201835</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2184,22 +1968,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2226,22 +2001,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2268,22 +2034,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2310,22 +2067,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2352,22 +2100,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2394,22 +2133,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2436,22 +2166,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2478,22 +2199,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2520,22 +2232,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2562,22 +2265,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2604,22 +2298,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2644,24 +2329,15 @@
         <v>-986381.2251201835</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2688,22 +2364,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2730,22 +2397,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2772,22 +2430,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2812,24 +2461,15 @@
         <v>-1037466.462220184</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2856,22 +2496,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2898,22 +2529,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2940,22 +2562,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2982,22 +2595,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3024,22 +2628,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3066,22 +2661,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3108,22 +2694,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3150,22 +2727,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3192,22 +2760,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3234,22 +2793,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3276,22 +2826,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3316,24 +2857,15 @@
         <v>-874284.4149201837</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3360,22 +2892,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3402,22 +2925,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3444,22 +2958,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3486,22 +2991,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3528,24 +3024,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1.051603773584906</v>
-      </c>
-      <c r="N75" t="n">
-        <v>1.009433962264151</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3572,16 +3057,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3606,18 +3088,15 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3642,18 +3121,15 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3680,16 +3156,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3714,18 +3187,15 @@
         <v>-354166.5350289557</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3750,18 +3220,15 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3786,18 +3253,15 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3822,18 +3286,15 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3858,18 +3319,15 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3894,18 +3352,15 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3932,16 +3387,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3966,18 +3418,15 @@
         <v>-1218726.271028956</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4002,18 +3451,15 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4038,18 +3484,15 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4074,18 +3517,15 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4112,16 +3552,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4146,18 +3583,15 @@
         <v>-1207877.723828956</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4184,16 +3618,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4218,18 +3649,15 @@
         <v>-1211156.702928956</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4254,18 +3682,15 @@
         <v>-1211106.702928956</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4292,16 +3717,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4328,16 +3750,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4364,16 +3783,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4400,16 +3816,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4436,16 +3849,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4472,16 +3882,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4508,16 +3915,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4544,16 +3948,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4580,16 +3981,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4616,16 +4014,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4652,16 +4047,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4688,16 +4080,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4724,16 +4113,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4760,16 +4146,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4796,16 +4179,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4832,16 +4212,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4868,16 +4245,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4904,16 +4278,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4940,16 +4311,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4976,16 +4344,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5012,16 +4377,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5048,16 +4410,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5084,16 +4443,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5120,16 +4476,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5156,16 +4509,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5192,16 +4542,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5228,16 +4575,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5264,16 +4608,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5300,16 +4641,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5336,16 +4674,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5372,16 +4707,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5408,16 +4740,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5444,16 +4773,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5480,16 +4806,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5516,16 +4839,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5552,16 +4872,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5588,16 +4905,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5624,16 +4938,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5660,16 +4971,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5696,16 +5004,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5732,16 +5037,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5768,16 +5070,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5804,16 +5103,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5840,16 +5136,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5876,16 +5169,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5912,16 +5202,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5948,16 +5235,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5984,16 +5268,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6020,16 +5301,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6056,16 +5334,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6092,16 +5367,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6128,16 +5400,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6164,16 +5433,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6200,16 +5466,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6236,16 +5499,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6272,16 +5532,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6308,16 +5565,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6344,16 +5598,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6380,16 +5631,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6416,16 +5664,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6452,16 +5697,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6488,16 +5730,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6524,16 +5763,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6560,16 +5796,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6596,16 +5829,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6632,16 +5862,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6668,16 +5895,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6704,16 +5928,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6740,16 +5961,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6776,16 +5994,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6812,16 +6027,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6848,16 +6060,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6884,16 +6093,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6920,16 +6126,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6956,16 +6159,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6992,16 +6192,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7028,16 +6225,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7064,16 +6258,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7100,16 +6291,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7136,16 +6324,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7172,16 +6357,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7208,16 +6390,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7244,16 +6423,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7280,16 +6456,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7316,16 +6489,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7352,16 +6522,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7388,16 +6555,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7424,16 +6588,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7460,16 +6621,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7496,16 +6654,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7532,16 +6687,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7568,16 +6720,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7604,16 +6753,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7640,16 +6786,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7676,16 +6819,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7712,16 +6852,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7748,18 +6885,15 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1139722.997420184</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-1139722.997420184</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-1139675.997420184</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -766,17 +748,11 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -805,17 +781,11 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -844,17 +814,11 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,17 +847,11 @@
         <v>-1218681.567120184</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -926,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -959,17 +913,11 @@
         <v>-1250979.172620184</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -998,17 +946,11 @@
         <v>-1232870.331520184</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1037,17 +979,11 @@
         <v>-1317870.331520184</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1076,17 +1012,11 @@
         <v>-1317770.331520184</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1115,17 +1045,11 @@
         <v>-1401234.331520184</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1154,17 +1078,11 @@
         <v>-1394398.705420184</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,17 +1111,11 @@
         <v>-1391297.160220184</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1232,17 +1144,11 @@
         <v>-1225494.248120184</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1271,17 +1177,11 @@
         <v>-927826.7532201835</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1314,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1351,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1384,15 +1276,11 @@
         <v>-847271.7585201835</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1421,15 +1309,11 @@
         <v>-847216.7585201835</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1458,15 +1342,11 @@
         <v>-847216.7585201835</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1495,15 +1375,11 @@
         <v>-847216.7585201835</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1536,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1610,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1647,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1684,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1758,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1791,15 +1639,11 @@
         <v>-625064.4452201835</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1832,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1865,16 +1705,14 @@
         <v>-737584.2143201835</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
       <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1900,7 +1738,7 @@
         <v>-737584.2143201835</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1933,7 +1771,7 @@
         <v>-737584.2143201835</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2329,7 +2167,7 @@
         <v>-986381.2251201835</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2461,7 +2299,7 @@
         <v>-1037466.462220184</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2857,7 +2695,7 @@
         <v>-874284.4149201837</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2956,7 +2794,7 @@
         <v>-854570.9219201837</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2989,7 +2827,7 @@
         <v>-384119.2700289557</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3022,7 +2860,7 @@
         <v>-385230.2700289557</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3088,7 +2926,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3121,7 +2959,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3187,7 +3025,7 @@
         <v>-354166.5350289557</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3220,7 +3058,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3253,7 +3091,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3286,7 +3124,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3319,7 +3157,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3352,7 +3190,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3385,7 +3223,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3418,7 +3256,7 @@
         <v>-1218726.271028956</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3451,7 +3289,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3484,7 +3322,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3517,7 +3355,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3550,7 +3388,7 @@
         <v>-1207877.723828956</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3583,7 +3421,7 @@
         <v>-1207877.723828956</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3616,7 +3454,7 @@
         <v>-1211156.702928956</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3649,7 +3487,7 @@
         <v>-1211156.702928956</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3682,7 +3520,7 @@
         <v>-1211106.702928956</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3715,7 +3553,7 @@
         <v>-1211106.702928956</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3748,7 +3586,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3781,7 +3619,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3814,7 +3652,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3847,7 +3685,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3880,7 +3718,7 @@
         <v>-1215617.652628956</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3913,7 +3751,7 @@
         <v>-1215617.652628956</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3946,7 +3784,7 @@
         <v>-1215617.652628956</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3979,7 +3817,7 @@
         <v>-1212413.232728956</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4078,7 +3916,7 @@
         <v>-1362413.232728956</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4144,7 +3982,7 @@
         <v>-1416590.308528956</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4210,7 +4048,7 @@
         <v>-779905.6253289558</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4309,7 +4147,7 @@
         <v>-828647.7118289558</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4342,7 +4180,7 @@
         <v>-828597.7118289558</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4375,7 +4213,7 @@
         <v>-828597.7118289558</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4408,7 +4246,7 @@
         <v>-908597.7118289558</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4441,7 +4279,7 @@
         <v>-908547.7118289558</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4474,7 +4312,7 @@
         <v>-908665.0919289557</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4507,7 +4345,7 @@
         <v>-908765.0919289557</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4540,7 +4378,7 @@
         <v>-908715.0919289557</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4606,7 +4444,7 @@
         <v>-1565135.337928956</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -6355,10 +6193,14 @@
         <v>-2179267.537328956</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J176" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
@@ -6391,8 +6233,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6424,8 +6272,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6454,10 +6308,14 @@
         <v>-2198520.837928956</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>11</v>
+      </c>
+      <c r="J179" t="n">
+        <v>11</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
@@ -6487,11 +6345,19 @@
         <v>-2198520.837928956</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>11</v>
+      </c>
+      <c r="J180" t="n">
+        <v>11</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6520,11 +6386,19 @@
         <v>-2198520.837928956</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>11</v>
+      </c>
+      <c r="J181" t="n">
+        <v>11</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6553,10 +6427,14 @@
         <v>-2198195.837928956</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>11</v>
+      </c>
+      <c r="J182" t="n">
+        <v>11</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
@@ -6589,8 +6467,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>11</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6622,8 +6506,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>11</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6655,8 +6545,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>11</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6685,11 +6581,19 @@
         <v>-2199710.814028956</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>11</v>
+      </c>
+      <c r="J186" t="n">
+        <v>11</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6718,11 +6622,19 @@
         <v>-2199710.814028956</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>11</v>
+      </c>
+      <c r="J187" t="n">
+        <v>11</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6751,11 +6663,19 @@
         <v>-2281712.219728956</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>11</v>
+      </c>
+      <c r="J188" t="n">
+        <v>11</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6784,11 +6704,19 @@
         <v>-2281712.219728956</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J189" t="n">
+        <v>11</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6817,11 +6745,19 @@
         <v>-2281197.435828956</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J190" t="n">
+        <v>11</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6850,11 +6786,19 @@
         <v>-2281197.435828956</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>11</v>
+      </c>
+      <c r="J191" t="n">
+        <v>11</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6883,17 +6827,25 @@
         <v>-2281151.435828956</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>11</v>
+      </c>
+      <c r="J192" t="n">
+        <v>11</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,10 +913,14 @@
         <v>-1250979.172620184</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10.5</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -946,11 +950,19 @@
         <v>-1232870.331520184</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +991,19 @@
         <v>-1317870.331520184</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,10 +1032,14 @@
         <v>-1317770.331520184</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>10.5</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1045,11 +1069,19 @@
         <v>-1401234.331520184</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1110,19 @@
         <v>-1394398.705420184</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,10 +1151,14 @@
         <v>-1391297.160220184</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1147,8 +1191,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1230,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -2002,7 +2058,7 @@
         <v>-920914.1186201836</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2091,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2124,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2157,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2190,7 @@
         <v>-986431.2251201835</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2256,7 @@
         <v>-986381.2251201835</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2289,7 @@
         <v>-1107420.376520184</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2322,7 @@
         <v>-1107420.376520184</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2355,7 @@
         <v>-1037466.462220184</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2388,7 @@
         <v>-1037466.462220184</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2421,7 @@
         <v>-1037925.042720184</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2454,7 @@
         <v>-1035204.652820184</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2563,7 +2619,7 @@
         <v>-974747.8496201837</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2652,7 @@
         <v>-960344.0450201837</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2685,7 @@
         <v>-848637.8627201837</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2718,7 @@
         <v>-846537.8627201837</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2751,7 @@
         <v>-874284.4149201837</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2784,7 @@
         <v>-854570.9219201837</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2850,7 @@
         <v>-854570.9219201837</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2883,7 @@
         <v>-384119.2700289557</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2916,7 @@
         <v>-385230.2700289557</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3091,7 +3147,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3180,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3213,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3246,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3279,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3312,7 @@
         <v>-1218726.271028956</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3345,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3411,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3444,7 @@
         <v>-1207877.723828956</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3477,7 @@
         <v>-1207877.723828956</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3510,7 @@
         <v>-1211156.702928956</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3543,7 @@
         <v>-1211156.702928956</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3576,7 @@
         <v>-1211106.702928956</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3609,7 @@
         <v>-1211106.702928956</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3642,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3675,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3708,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3741,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3774,7 @@
         <v>-1215617.652628956</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3807,7 @@
         <v>-1215617.652628956</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3840,7 @@
         <v>-1215617.652628956</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3873,7 @@
         <v>-1212413.232728956</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3916,7 +3972,7 @@
         <v>-1362413.232728956</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,7 +4038,7 @@
         <v>-1416590.308528956</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4048,7 +4104,7 @@
         <v>-779905.6253289558</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4147,7 +4203,7 @@
         <v>-828647.7118289558</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4236,7 @@
         <v>-828597.7118289558</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4269,7 @@
         <v>-828597.7118289558</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4302,7 @@
         <v>-908597.7118289558</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4335,7 @@
         <v>-908547.7118289558</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4368,7 @@
         <v>-908665.0919289557</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4401,7 @@
         <v>-908765.0919289557</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4434,7 @@
         <v>-908715.0919289557</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4444,7 +4500,7 @@
         <v>-1565135.337928956</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5830,10 +5886,14 @@
         <v>-2236350.354228956</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J165" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
@@ -5863,11 +5923,19 @@
         <v>-2236950.354228956</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J166" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5964,19 @@
         <v>-2235000.354228956</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J167" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6005,19 @@
         <v>-2235000.354228956</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J168" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6049,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6085,19 @@
         <v>-2238635.354228956</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J170" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6129,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6168,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6207,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6243,19 @@
         <v>-2286010.307328956</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J174" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,15 +6323,17 @@
         <v>-2179267.537328956</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6234,11 +6366,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -6273,11 +6405,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6308,15 +6440,17 @@
         <v>-2198520.837928956</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>11</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6345,17 +6479,15 @@
         <v>-2198520.837928956</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6386,17 +6518,15 @@
         <v>-2198520.837928956</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -6427,15 +6557,17 @@
         <v>-2198195.837928956</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>11</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6468,11 +6600,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6507,7 +6639,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6546,7 +6678,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6581,13 +6713,11 @@
         <v>-2199710.814028956</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6622,13 +6752,11 @@
         <v>-2199710.814028956</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6663,13 +6791,11 @@
         <v>-2281712.219728956</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6710,7 +6836,7 @@
         <v>10.8</v>
       </c>
       <c r="J189" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6745,13 +6871,11 @@
         <v>-2281197.435828956</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6786,13 +6910,11 @@
         <v>-2281197.435828956</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6827,13 +6949,11 @@
         <v>-2281151.435828956</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6846,6 +6966,6 @@
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -913,14 +913,10 @@
         <v>-1250979.172620184</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -950,19 +946,11 @@
         <v>-1232870.331520184</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -991,19 +979,11 @@
         <v>-1317870.331520184</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1032,14 +1012,10 @@
         <v>-1317770.331520184</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1069,19 +1045,11 @@
         <v>-1401234.331520184</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1110,19 +1078,11 @@
         <v>-1394398.705420184</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1151,14 +1111,10 @@
         <v>-1391297.160220184</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1191,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1230,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -2058,7 +2002,7 @@
         <v>-920914.1186201836</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2091,7 +2035,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2124,7 +2068,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2157,7 +2101,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2190,7 +2134,7 @@
         <v>-986431.2251201835</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2256,7 +2200,7 @@
         <v>-986381.2251201835</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2289,7 +2233,7 @@
         <v>-1107420.376520184</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2322,7 +2266,7 @@
         <v>-1107420.376520184</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2355,7 +2299,7 @@
         <v>-1037466.462220184</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2388,7 +2332,7 @@
         <v>-1037466.462220184</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2421,7 +2365,7 @@
         <v>-1037925.042720184</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2454,7 +2398,7 @@
         <v>-1035204.652820184</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2619,7 +2563,7 @@
         <v>-974747.8496201837</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2652,7 +2596,7 @@
         <v>-960344.0450201837</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2685,7 +2629,7 @@
         <v>-848637.8627201837</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2718,7 +2662,7 @@
         <v>-846537.8627201837</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2751,7 +2695,7 @@
         <v>-874284.4149201837</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2784,7 +2728,7 @@
         <v>-854570.9219201837</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2916,7 +2860,7 @@
         <v>-385230.2700289557</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2949,7 +2893,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2982,7 +2926,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3015,7 +2959,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3048,7 +2992,7 @@
         <v>-356608.9024289557</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3081,7 +3025,7 @@
         <v>-354166.5350289557</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3114,7 +3058,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3147,7 +3091,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3180,7 +3124,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3213,7 +3157,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3312,7 +3256,7 @@
         <v>-1218726.271028956</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3345,7 +3289,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3378,7 +3322,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3411,7 +3355,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3477,7 +3421,7 @@
         <v>-1207877.723828956</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3510,7 +3454,7 @@
         <v>-1211156.702928956</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3609,7 +3553,7 @@
         <v>-1211106.702928956</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3642,7 +3586,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3675,7 +3619,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3708,7 +3652,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3774,7 +3718,7 @@
         <v>-1215617.652628956</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3840,7 +3784,7 @@
         <v>-1215617.652628956</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3873,7 +3817,7 @@
         <v>-1212413.232728956</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3906,7 +3850,7 @@
         <v>-1212413.232728956</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3939,7 +3883,7 @@
         <v>-1362413.232728956</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3972,7 +3916,7 @@
         <v>-1362413.232728956</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5886,14 +5830,10 @@
         <v>-2236350.354228956</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J165" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
@@ -5923,885 +5863,743 @@
         <v>-2236950.354228956</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1950</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2235000.354228956</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C168" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2235000.354228956</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>10.7</v>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="C169" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2240000.354228956</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1365</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-2238635.354228956</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>130</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2238635.354228956</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>47699.9531</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-2286335.307328956</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>325</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-2286010.307328956</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F174" t="n">
+        <v>12508.7985</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2286010.307328956</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C175" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>32125.5827</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2286010.307328956</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11</v>
+      </c>
+      <c r="F176" t="n">
+        <v>106742.77</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-2179267.537328956</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11</v>
+      </c>
+      <c r="F177" t="n">
+        <v>19253.3006</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2861.9096</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11</v>
+      </c>
+      <c r="F179" t="n">
+        <v>45341.1562</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11</v>
+      </c>
+      <c r="F180" t="n">
+        <v>52925.5197</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11</v>
+      </c>
+      <c r="F181" t="n">
+        <v>25411.488</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-2198520.837928956</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>325</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-2198195.837928956</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1514.9761</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2103.5275</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11</v>
+      </c>
+      <c r="F185" t="n">
+        <v>38117.323</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11</v>
+      </c>
+      <c r="F186" t="n">
+        <v>39423.7701</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11</v>
+      </c>
+      <c r="F187" t="n">
+        <v>336.7571</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-2199710.814028956</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>82001.4057</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-2281712.219728956</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>11</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C167" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E167" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1950</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-2235000.354228956</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J167" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C168" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D168" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E168" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-2235000.354228956</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J168" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C169" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E169" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-2240000.354228956</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C170" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D170" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E170" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1365</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-2238635.354228956</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J170" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C171" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D171" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E171" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F171" t="n">
-        <v>130</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-2238635.354228956</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C172" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D172" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E172" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F172" t="n">
-        <v>47699.9531</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-2286335.307328956</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C173" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D173" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E173" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F173" t="n">
-        <v>325</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-2286010.307328956</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C174" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D174" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E174" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F174" t="n">
-        <v>12508.7985</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-2286010.307328956</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J174" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C175" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D175" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E175" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F175" t="n">
-        <v>32125.5827</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-2286010.307328956</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>11</v>
-      </c>
-      <c r="C176" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E176" t="n">
-        <v>11</v>
-      </c>
-      <c r="F176" t="n">
-        <v>106742.77</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-2179267.537328956</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>11</v>
-      </c>
-      <c r="C177" t="n">
-        <v>11</v>
-      </c>
-      <c r="D177" t="n">
-        <v>11</v>
-      </c>
-      <c r="E177" t="n">
-        <v>11</v>
-      </c>
-      <c r="F177" t="n">
-        <v>19253.3006</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>11</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11</v>
-      </c>
-      <c r="D178" t="n">
-        <v>11</v>
-      </c>
-      <c r="E178" t="n">
-        <v>11</v>
-      </c>
-      <c r="F178" t="n">
-        <v>2861.9096</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>11</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11</v>
-      </c>
-      <c r="D179" t="n">
-        <v>11</v>
-      </c>
-      <c r="E179" t="n">
-        <v>11</v>
-      </c>
-      <c r="F179" t="n">
-        <v>45341.1562</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>11</v>
-      </c>
-      <c r="C180" t="n">
-        <v>11</v>
-      </c>
-      <c r="D180" t="n">
-        <v>11</v>
-      </c>
-      <c r="E180" t="n">
-        <v>11</v>
-      </c>
-      <c r="F180" t="n">
-        <v>52925.5197</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>11</v>
-      </c>
-      <c r="C181" t="n">
-        <v>11</v>
-      </c>
-      <c r="D181" t="n">
-        <v>11</v>
-      </c>
-      <c r="E181" t="n">
-        <v>11</v>
-      </c>
-      <c r="F181" t="n">
-        <v>25411.488</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C182" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D182" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E182" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F182" t="n">
-        <v>325</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-2198195.837928956</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C183" t="n">
-        <v>11</v>
-      </c>
-      <c r="D183" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E183" t="n">
-        <v>11</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1514.9761</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>11</v>
-      </c>
-      <c r="C184" t="n">
-        <v>11</v>
-      </c>
-      <c r="D184" t="n">
-        <v>11</v>
-      </c>
-      <c r="E184" t="n">
-        <v>11</v>
-      </c>
-      <c r="F184" t="n">
-        <v>2103.5275</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>11</v>
-      </c>
-      <c r="C185" t="n">
-        <v>11</v>
-      </c>
-      <c r="D185" t="n">
-        <v>11</v>
-      </c>
-      <c r="E185" t="n">
-        <v>11</v>
-      </c>
-      <c r="F185" t="n">
-        <v>38117.323</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>11</v>
-      </c>
-      <c r="C186" t="n">
-        <v>11</v>
-      </c>
-      <c r="D186" t="n">
-        <v>11</v>
-      </c>
-      <c r="E186" t="n">
-        <v>11</v>
-      </c>
-      <c r="F186" t="n">
-        <v>39423.7701</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>11</v>
-      </c>
-      <c r="C187" t="n">
-        <v>11</v>
-      </c>
-      <c r="D187" t="n">
-        <v>11</v>
-      </c>
-      <c r="E187" t="n">
-        <v>11</v>
-      </c>
-      <c r="F187" t="n">
-        <v>336.7571</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C188" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D188" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E188" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F188" t="n">
-        <v>82001.4057</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-2281712.219728956</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6835,9 +6633,7 @@
       <c r="I189" t="n">
         <v>10.8</v>
       </c>
-      <c r="J189" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6871,12 +6667,12 @@
         <v>-2281197.435828956</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>10.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6910,12 +6706,12 @@
         <v>-2281197.435828956</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>10.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>11</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6949,12 +6745,12 @@
         <v>-2281151.435828956</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>10.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>11</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-11-13 BackTest DVP.xlsx
+++ b/BackTest/2019-11-13 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>30523.7086</v>
       </c>
       <c r="G2" t="n">
-        <v>-1139722.997420184</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3422.1501</v>
       </c>
       <c r="G3" t="n">
-        <v>-1139722.997420184</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>47</v>
       </c>
       <c r="G4" t="n">
-        <v>-1139675.997420184</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>79005.56969999999</v>
       </c>
       <c r="G5" t="n">
-        <v>-1218681.567120184</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>50000</v>
       </c>
       <c r="G6" t="n">
-        <v>-1218681.567120184</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2100</v>
       </c>
       <c r="G7" t="n">
-        <v>-1218681.567120184</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>74537.71090000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-1218681.567120184</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>60765.3055</v>
       </c>
       <c r="G9" t="n">
-        <v>-1218681.567120184</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>21359.7054</v>
       </c>
       <c r="G10" t="n">
-        <v>-1218681.567120184</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>532.9101000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-1218681.567120184</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10563.4622</v>
       </c>
       <c r="G12" t="n">
-        <v>-1218681.567120184</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>12000</v>
       </c>
       <c r="G13" t="n">
-        <v>-1218681.567120184</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>12000</v>
       </c>
       <c r="G14" t="n">
-        <v>-1218681.567120184</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>32297.6055</v>
       </c>
       <c r="G15" t="n">
-        <v>-1250979.172620184</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>65893.3652</v>
       </c>
       <c r="G16" t="n">
-        <v>-1250979.172620184</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>18108.8411</v>
       </c>
       <c r="G17" t="n">
-        <v>-1232870.331520184</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>85000</v>
       </c>
       <c r="G18" t="n">
-        <v>-1317870.331520184</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>-1317770.331520184</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>83464</v>
       </c>
       <c r="G20" t="n">
-        <v>-1401234.331520184</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,19 @@
         <v>6835.6261</v>
       </c>
       <c r="G21" t="n">
-        <v>-1394398.705420184</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>10.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1047,23 @@
         <v>3101.5452</v>
       </c>
       <c r="G22" t="n">
-        <v>-1391297.160220184</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>10.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1085,21 @@
         <v>165802.9121</v>
       </c>
       <c r="G23" t="n">
-        <v>-1225494.248120184</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1121,15 @@
         <v>297667.4949</v>
       </c>
       <c r="G24" t="n">
-        <v>-927826.7532201835</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1151,15 @@
         <v>344963.3087201835</v>
       </c>
       <c r="G25" t="n">
-        <v>-927826.7532201835</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1181,15 @@
         <v>103554.9947</v>
       </c>
       <c r="G26" t="n">
-        <v>-824271.7585201835</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1211,15 @@
         <v>23000</v>
       </c>
       <c r="G27" t="n">
-        <v>-847271.7585201835</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1241,15 @@
         <v>55</v>
       </c>
       <c r="G28" t="n">
-        <v>-847216.7585201835</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1271,15 @@
         <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>-847216.7585201835</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1301,15 @@
         <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>-847216.7585201835</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1331,15 @@
         <v>1627.2656</v>
       </c>
       <c r="G31" t="n">
-        <v>-848844.0241201835</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1361,15 @@
         <v>218238.759</v>
       </c>
       <c r="G32" t="n">
-        <v>-1067082.783120184</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1391,15 @@
         <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>-1067032.783120184</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1421,15 @@
         <v>11176.9929</v>
       </c>
       <c r="G34" t="n">
-        <v>-1067032.783120184</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1451,15 @@
         <v>262680.3563</v>
       </c>
       <c r="G35" t="n">
-        <v>-804352.4268201835</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1481,15 @@
         <v>79513.1949</v>
       </c>
       <c r="G36" t="n">
-        <v>-804352.4268201835</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1511,15 @@
         <v>92592.5925</v>
       </c>
       <c r="G37" t="n">
-        <v>-711759.8343201835</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1541,15 @@
         <v>86695.3891</v>
       </c>
       <c r="G38" t="n">
-        <v>-625064.4452201835</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1571,15 @@
         <v>121133.4713</v>
       </c>
       <c r="G39" t="n">
-        <v>-746197.9165201834</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1601,15 @@
         <v>8613.7022</v>
       </c>
       <c r="G40" t="n">
-        <v>-737584.2143201835</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1631,15 @@
         <v>228630.8521</v>
       </c>
       <c r="G41" t="n">
-        <v>-737584.2143201835</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1661,15 @@
         <v>66390.73119999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-737584.2143201835</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1691,15 @@
         <v>5989.0668</v>
       </c>
       <c r="G43" t="n">
-        <v>-737584.2143201835</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1721,15 @@
         <v>74074.2473</v>
       </c>
       <c r="G44" t="n">
-        <v>-811658.4616201835</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1751,15 @@
         <v>33880.1969</v>
       </c>
       <c r="G45" t="n">
-        <v>-811658.4616201835</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1781,15 @@
         <v>20587.8849</v>
       </c>
       <c r="G46" t="n">
-        <v>-791070.5767201836</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1811,15 @@
         <v>129843.5419</v>
       </c>
       <c r="G47" t="n">
-        <v>-920914.1186201836</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1841,15 @@
         <v>2240.5948</v>
       </c>
       <c r="G48" t="n">
-        <v>-920914.1186201836</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1871,15 @@
         <v>1681.8428</v>
       </c>
       <c r="G49" t="n">
-        <v>-920914.1186201836</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1901,15 @@
         <v>65058.526</v>
       </c>
       <c r="G50" t="n">
-        <v>-985972.6446201835</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1931,15 @@
         <v>50307.8176</v>
       </c>
       <c r="G51" t="n">
-        <v>-985972.6446201835</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1961,15 @@
         <v>44052.2187</v>
       </c>
       <c r="G52" t="n">
-        <v>-985972.6446201835</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1991,15 @@
         <v>458.5805</v>
       </c>
       <c r="G53" t="n">
-        <v>-986431.2251201835</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2021,15 @@
         <v>50</v>
       </c>
       <c r="G54" t="n">
-        <v>-986381.2251201835</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2051,15 @@
         <v>30760.2771</v>
       </c>
       <c r="G55" t="n">
-        <v>-986381.2251201835</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2081,15 @@
         <v>121039.1514</v>
       </c>
       <c r="G56" t="n">
-        <v>-1107420.376520184</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2111,15 @@
         <v>1280.5767</v>
       </c>
       <c r="G57" t="n">
-        <v>-1107420.376520184</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2141,15 @@
         <v>69953.9143</v>
       </c>
       <c r="G58" t="n">
-        <v>-1037466.462220184</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2171,15 @@
         <v>108309.7411</v>
       </c>
       <c r="G59" t="n">
-        <v>-1037466.462220184</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2201,15 @@
         <v>458.5805</v>
       </c>
       <c r="G60" t="n">
-        <v>-1037925.042720184</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2231,15 @@
         <v>2720.3899</v>
       </c>
       <c r="G61" t="n">
-        <v>-1035204.652820184</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2261,15 @@
         <v>2448.3509</v>
       </c>
       <c r="G62" t="n">
-        <v>-1035204.652820184</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2291,15 @@
         <v>106817.9136</v>
       </c>
       <c r="G63" t="n">
-        <v>-1035204.652820184</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2321,15 @@
         <v>158749.9337</v>
       </c>
       <c r="G64" t="n">
-        <v>-1035204.652820184</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2351,15 @@
         <v>261296.2027</v>
       </c>
       <c r="G65" t="n">
-        <v>-773908.4501201836</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2381,15 @@
         <v>200839.3995</v>
       </c>
       <c r="G66" t="n">
-        <v>-974747.8496201837</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2411,15 @@
         <v>14403.8046</v>
       </c>
       <c r="G67" t="n">
-        <v>-960344.0450201837</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2441,15 @@
         <v>111706.1823</v>
       </c>
       <c r="G68" t="n">
-        <v>-848637.8627201837</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2471,15 @@
         <v>2100</v>
       </c>
       <c r="G69" t="n">
-        <v>-846537.8627201837</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2501,15 @@
         <v>27746.5522</v>
       </c>
       <c r="G70" t="n">
-        <v>-874284.4149201837</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2531,15 @@
         <v>19713.493</v>
       </c>
       <c r="G71" t="n">
-        <v>-854570.9219201837</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2561,15 @@
         <v>8033.0592</v>
       </c>
       <c r="G72" t="n">
-        <v>-854570.9219201837</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2591,15 @@
         <v>20000</v>
       </c>
       <c r="G73" t="n">
-        <v>-854570.9219201837</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2621,15 @@
         <v>470451.651891228</v>
       </c>
       <c r="G74" t="n">
-        <v>-384119.2700289557</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2651,15 @@
         <v>1111</v>
       </c>
       <c r="G75" t="n">
-        <v>-385230.2700289557</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2681,15 @@
         <v>29519.1176</v>
       </c>
       <c r="G76" t="n">
-        <v>-355711.1524289557</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2711,15 @@
         <v>55763.7727</v>
       </c>
       <c r="G77" t="n">
-        <v>-355711.1524289557</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2741,15 @@
         <v>49834.3778</v>
       </c>
       <c r="G78" t="n">
-        <v>-355711.1524289557</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2771,15 @@
         <v>897.75</v>
       </c>
       <c r="G79" t="n">
-        <v>-356608.9024289557</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2801,15 @@
         <v>2442.3674</v>
       </c>
       <c r="G80" t="n">
-        <v>-354166.5350289557</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2831,15 @@
         <v>866925.7664</v>
       </c>
       <c r="G81" t="n">
-        <v>-1221092.301428956</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2861,15 @@
         <v>382054.2748</v>
       </c>
       <c r="G82" t="n">
-        <v>-1221092.301428956</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2891,15 @@
         <v>369714.3011</v>
       </c>
       <c r="G83" t="n">
-        <v>-1221092.301428956</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2921,15 @@
         <v>46356.1353</v>
       </c>
       <c r="G84" t="n">
-        <v>-1221092.301428956</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2951,15 @@
         <v>79173.3536</v>
       </c>
       <c r="G85" t="n">
-        <v>-1221092.301428956</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2981,15 @@
         <v>29393</v>
       </c>
       <c r="G86" t="n">
-        <v>-1221092.301428956</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3011,15 @@
         <v>2366.0304</v>
       </c>
       <c r="G87" t="n">
-        <v>-1218726.271028956</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3041,15 @@
         <v>13054.1266</v>
       </c>
       <c r="G88" t="n">
-        <v>-1231780.397628956</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3071,15 @@
         <v>101108.8301</v>
       </c>
       <c r="G89" t="n">
-        <v>-1231780.397628956</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3101,15 @@
         <v>2110.6113</v>
       </c>
       <c r="G90" t="n">
-        <v>-1231780.397628956</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3131,15 @@
         <v>23902.6738</v>
       </c>
       <c r="G91" t="n">
-        <v>-1207877.723828956</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3161,15 @@
         <v>2589.5984</v>
       </c>
       <c r="G92" t="n">
-        <v>-1207877.723828956</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3191,15 @@
         <v>3278.9791</v>
       </c>
       <c r="G93" t="n">
-        <v>-1211156.702928956</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3221,15 @@
         <v>10043.799</v>
       </c>
       <c r="G94" t="n">
-        <v>-1211156.702928956</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3251,15 @@
         <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>-1211106.702928956</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3281,15 @@
         <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>-1211106.702928956</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3311,15 @@
         <v>2510.9497</v>
       </c>
       <c r="G97" t="n">
-        <v>-1213617.652628956</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3341,15 @@
         <v>1541.4184</v>
       </c>
       <c r="G98" t="n">
-        <v>-1213617.652628956</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3371,15 @@
         <v>3784.2843</v>
       </c>
       <c r="G99" t="n">
-        <v>-1213617.652628956</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3401,15 @@
         <v>20942.5124</v>
       </c>
       <c r="G100" t="n">
-        <v>-1213617.652628956</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3431,15 @@
         <v>2000</v>
       </c>
       <c r="G101" t="n">
-        <v>-1215617.652628956</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3461,15 @@
         <v>471.6981</v>
       </c>
       <c r="G102" t="n">
-        <v>-1215617.652628956</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3491,15 @@
         <v>259450.6177</v>
       </c>
       <c r="G103" t="n">
-        <v>-1215617.652628956</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3521,15 @@
         <v>3204.4199</v>
       </c>
       <c r="G104" t="n">
-        <v>-1212413.232728956</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3551,15 @@
         <v>50</v>
       </c>
       <c r="G105" t="n">
-        <v>-1212413.232728956</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3581,15 @@
         <v>150000</v>
       </c>
       <c r="G106" t="n">
-        <v>-1362413.232728956</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3611,15 @@
         <v>17500.8592</v>
       </c>
       <c r="G107" t="n">
-        <v>-1362413.232728956</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3641,15 @@
         <v>4248.7319</v>
       </c>
       <c r="G108" t="n">
-        <v>-1362413.232728956</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3671,15 @@
         <v>54177.0758</v>
       </c>
       <c r="G109" t="n">
-        <v>-1416590.308528956</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3701,15 @@
         <v>637851.2332</v>
       </c>
       <c r="G110" t="n">
-        <v>-778739.0753289558</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3731,15 @@
         <v>1166.55</v>
       </c>
       <c r="G111" t="n">
-        <v>-779905.6253289558</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3761,15 @@
         <v>1055.45</v>
       </c>
       <c r="G112" t="n">
-        <v>-779905.6253289558</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3791,15 @@
         <v>50</v>
       </c>
       <c r="G113" t="n">
-        <v>-779855.6253289558</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3821,15 @@
         <v>48792.0865</v>
       </c>
       <c r="G114" t="n">
-        <v>-828647.7118289558</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3851,15 @@
         <v>50</v>
       </c>
       <c r="G115" t="n">
-        <v>-828597.7118289558</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3881,15 @@
         <v>9526.936900000001</v>
       </c>
       <c r="G116" t="n">
-        <v>-828597.7118289558</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3911,15 @@
         <v>80000</v>
       </c>
       <c r="G117" t="n">
-        <v>-908597.7118289558</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3941,15 @@
         <v>50</v>
       </c>
       <c r="G118" t="n">
-        <v>-908547.7118289558</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3971,15 @@
         <v>117.3801</v>
       </c>
       <c r="G119" t="n">
-        <v>-908665.0919289557</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4001,15 @@
         <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>-908765.0919289557</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4031,15 @@
         <v>50</v>
       </c>
       <c r="G121" t="n">
-        <v>-908715.0919289557</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4061,15 @@
         <v>661611.0432</v>
       </c>
       <c r="G122" t="n">
-        <v>-1570326.135128956</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4091,15 @@
         <v>5190.7972</v>
       </c>
       <c r="G123" t="n">
-        <v>-1565135.337928956</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4121,15 @@
         <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>-1565135.337928956</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4151,15 @@
         <v>3834</v>
       </c>
       <c r="G125" t="n">
-        <v>-1568969.337928956</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4181,15 @@
         <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>-1568969.337928956</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4211,15 @@
         <v>2512.6937</v>
       </c>
       <c r="G127" t="n">
-        <v>-1566456.644228956</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4241,15 @@
         <v>31585.6115</v>
       </c>
       <c r="G128" t="n">
-        <v>-1598042.255728956</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4271,15 @@
         <v>48018.1718</v>
       </c>
       <c r="G129" t="n">
-        <v>-1646060.427528956</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4301,15 @@
         <v>5364.5249</v>
       </c>
       <c r="G130" t="n">
-        <v>-1640695.902628956</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4331,15 @@
         <v>38013.6084</v>
       </c>
       <c r="G131" t="n">
-        <v>-1678709.511028956</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4361,15 @@
         <v>13431.9835</v>
       </c>
       <c r="G132" t="n">
-        <v>-1665277.527528956</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4391,15 @@
         <v>1510.9297</v>
       </c>
       <c r="G133" t="n">
-        <v>-1665277.527528956</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4421,15 @@
         <v>58410.4079</v>
       </c>
       <c r="G134" t="n">
-        <v>-1723687.935428956</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4451,15 @@
         <v>78762.8468</v>
       </c>
       <c r="G135" t="n">
-        <v>-1723687.935428956</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4481,15 @@
         <v>20000</v>
       </c>
       <c r="G136" t="n">
-        <v>-1723687.935428956</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4511,15 @@
         <v>24683.5406</v>
       </c>
       <c r="G137" t="n">
-        <v>-1699004.394828956</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4541,15 @@
         <v>166607.7778</v>
       </c>
       <c r="G138" t="n">
-        <v>-1699004.394828956</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4571,15 @@
         <v>5706.0814</v>
       </c>
       <c r="G139" t="n">
-        <v>-1699004.394828956</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4601,15 @@
         <v>4908.7309</v>
       </c>
       <c r="G140" t="n">
-        <v>-1699004.394828956</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4631,15 @@
         <v>39818.1483</v>
       </c>
       <c r="G141" t="n">
-        <v>-1699004.394828956</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4661,15 @@
         <v>50</v>
       </c>
       <c r="G142" t="n">
-        <v>-1698954.394828956</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4691,15 @@
         <v>150</v>
       </c>
       <c r="G143" t="n">
-        <v>-1698954.394828956</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4721,15 @@
         <v>5000</v>
       </c>
       <c r="G144" t="n">
-        <v>-1698954.394828956</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4751,15 @@
         <v>50</v>
       </c>
       <c r="G145" t="n">
-        <v>-1698954.394828956</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4781,15 @@
         <v>1000</v>
       </c>
       <c r="G146" t="n">
-        <v>-1699954.394828956</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4811,15 @@
         <v>50</v>
       </c>
       <c r="G147" t="n">
-        <v>-1699904.394828956</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4841,15 @@
         <v>18516.4227</v>
       </c>
       <c r="G148" t="n">
-        <v>-1718420.817528956</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4871,15 @@
         <v>50</v>
       </c>
       <c r="G149" t="n">
-        <v>-1718370.817528956</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4901,15 @@
         <v>368554.1806</v>
       </c>
       <c r="G150" t="n">
-        <v>-2086924.998128956</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4931,15 @@
         <v>41814.8355</v>
       </c>
       <c r="G151" t="n">
-        <v>-2086924.998128956</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4961,15 @@
         <v>44339.182</v>
       </c>
       <c r="G152" t="n">
-        <v>-2042585.816128956</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4991,15 @@
         <v>7931.8048</v>
       </c>
       <c r="G153" t="n">
-        <v>-2034654.011328956</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5021,15 @@
         <v>30917.43119266055</v>
       </c>
       <c r="G154" t="n">
-        <v>-2034654.011328956</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5051,15 @@
         <v>2375.2572</v>
       </c>
       <c r="G155" t="n">
-        <v>-2034654.011328956</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5081,15 @@
         <v>9127.8812</v>
       </c>
       <c r="G156" t="n">
-        <v>-2034654.011328956</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5111,15 @@
         <v>3221</v>
       </c>
       <c r="G157" t="n">
-        <v>-2037875.011328956</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5141,15 @@
         <v>30917.4312</v>
       </c>
       <c r="G158" t="n">
-        <v>-2068792.442528956</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5171,15 @@
         <v>826.9864</v>
       </c>
       <c r="G159" t="n">
-        <v>-2067965.456128956</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5201,15 @@
         <v>51622.7888</v>
       </c>
       <c r="G160" t="n">
-        <v>-2067965.456128956</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5231,15 @@
         <v>39119.7757</v>
       </c>
       <c r="G161" t="n">
-        <v>-2067965.456128956</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5261,15 @@
         <v>7443.7017</v>
       </c>
       <c r="G162" t="n">
-        <v>-2067965.456128956</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5291,15 @@
         <v>2077.1203</v>
       </c>
       <c r="G163" t="n">
-        <v>-2070042.576428956</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5321,15 @@
         <v>166657.7778</v>
       </c>
       <c r="G164" t="n">
-        <v>-2236700.354228956</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5351,15 @@
         <v>350</v>
       </c>
       <c r="G165" t="n">
-        <v>-2236350.354228956</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5381,15 @@
         <v>600</v>
       </c>
       <c r="G166" t="n">
-        <v>-2236950.354228956</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5411,15 @@
         <v>1950</v>
       </c>
       <c r="G167" t="n">
-        <v>-2235000.354228956</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5441,15 @@
         <v>1300</v>
       </c>
       <c r="G168" t="n">
-        <v>-2235000.354228956</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5471,15 @@
         <v>5000</v>
       </c>
       <c r="G169" t="n">
-        <v>-2240000.354228956</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5501,15 @@
         <v>1365</v>
       </c>
       <c r="G170" t="n">
-        <v>-2238635.354228956</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5531,15 @@
         <v>130</v>
       </c>
       <c r="G171" t="n">
-        <v>-2238635.354228956</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5561,15 @@
         <v>47699.9531</v>
       </c>
       <c r="G172" t="n">
-        <v>-2286335.307328956</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5591,15 @@
         <v>325</v>
       </c>
       <c r="G173" t="n">
-        <v>-2286010.307328956</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5621,15 @@
         <v>12508.7985</v>
       </c>
       <c r="G174" t="n">
-        <v>-2286010.307328956</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5651,15 @@
         <v>32125.5827</v>
       </c>
       <c r="G175" t="n">
-        <v>-2286010.307328956</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5681,15 @@
         <v>106742.77</v>
       </c>
       <c r="G176" t="n">
-        <v>-2179267.537328956</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5711,15 @@
         <v>19253.3006</v>
       </c>
       <c r="G177" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5741,15 @@
         <v>2861.9096</v>
       </c>
       <c r="G178" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5771,15 @@
         <v>45341.1562</v>
       </c>
       <c r="G179" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5801,15 @@
         <v>52925.5197</v>
       </c>
       <c r="G180" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5831,15 @@
         <v>25411.488</v>
       </c>
       <c r="G181" t="n">
-        <v>-2198520.837928956</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5861,15 @@
         <v>325</v>
       </c>
       <c r="G182" t="n">
-        <v>-2198195.837928956</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5891,15 @@
         <v>1514.9761</v>
       </c>
       <c r="G183" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5921,15 @@
         <v>2103.5275</v>
       </c>
       <c r="G184" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5951,15 @@
         <v>38117.323</v>
       </c>
       <c r="G185" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5981,15 @@
         <v>39423.7701</v>
       </c>
       <c r="G186" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6011,15 @@
         <v>336.7571</v>
       </c>
       <c r="G187" t="n">
-        <v>-2199710.814028956</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,24 +6041,15 @@
         <v>82001.4057</v>
       </c>
       <c r="G188" t="n">
-        <v>-2281712.219728956</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6625,24 +6071,15 @@
         <v>8741.158799999999</v>
       </c>
       <c r="G189" t="n">
-        <v>-2281712.219728956</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6664,24 +6101,15 @@
         <v>514.7839</v>
       </c>
       <c r="G190" t="n">
-        <v>-2281197.435828956</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6703,24 +6131,15 @@
         <v>17796.771</v>
       </c>
       <c r="G191" t="n">
-        <v>-2281197.435828956</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6742,24 +6161,15 @@
         <v>46</v>
       </c>
       <c r="G192" t="n">
-        <v>-2281151.435828956</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
